--- a/Template/03_03_Modelos_MeanShift_df_score.xlsx
+++ b/Template/03_03_Modelos_MeanShift_df_score.xlsx
@@ -31,6 +31,9 @@
     <t>quantile</t>
   </si>
   <si>
+    <t>clusters</t>
+  </si>
+  <si>
     <t>silhouette</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>calinski</t>
-  </si>
-  <si>
-    <t>clusters</t>
   </si>
   <si>
     <t>MEANSHIFT</t>
@@ -474,19 +474,19 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>0.6840000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>0.5138836229004865</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>0.9558546126402788</v>
+        <v>0.3998858842851719</v>
       </c>
       <c r="I2">
-        <v>13.01233830422763</v>
+        <v>1.13153825934386</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>34.29690422689482</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -506,19 +506,19 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>0.18</v>
+        <v>0.545</v>
       </c>
       <c r="G3">
-        <v>0.09265211690772508</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1.175469646512499</v>
+        <v>0.4633543641493595</v>
       </c>
       <c r="I3">
-        <v>28.16038113944349</v>
+        <v>0.9954829337050143</v>
       </c>
       <c r="J3">
-        <v>29</v>
+        <v>27.57288893822091</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -538,19 +538,19 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>0.301</v>
+        <v>0.741</v>
       </c>
       <c r="G4">
-        <v>0.2888227475679033</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1.215714012566941</v>
+        <v>0.5138836229004865</v>
       </c>
       <c r="I4">
-        <v>35.64496991056561</v>
+        <v>0.9558546126402788</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>13.01233830422763</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -570,19 +570,19 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.057</v>
+        <v>0.749</v>
       </c>
       <c r="G5">
-        <v>0.1473238139790189</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0.9844296572461044</v>
+        <v>0.5138836229004865</v>
       </c>
       <c r="I5">
-        <v>48.89975823209506</v>
+        <v>0.9558546126402788</v>
       </c>
       <c r="J5">
-        <v>73</v>
+        <v>13.01233830422763</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -602,19 +602,19 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>0.582</v>
+        <v>0.078</v>
       </c>
       <c r="G6">
-        <v>0.4943599230065479</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <v>1.145155243377548</v>
+        <v>0.06190638380111546</v>
       </c>
       <c r="I6">
-        <v>14.02158919649276</v>
+        <v>1.060861342438492</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>38.76964196030473</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -634,19 +634,19 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>0.037</v>
+        <v>0.596</v>
       </c>
       <c r="G7">
-        <v>0.1039893723257257</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0.916450481062112</v>
+        <v>0.4943599230065479</v>
       </c>
       <c r="I7">
-        <v>43.82627311229591</v>
+        <v>1.145155243377548</v>
       </c>
       <c r="J7">
-        <v>98</v>
+        <v>14.02158919649276</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -666,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="F8">
-        <v>0.316</v>
+        <v>0.334</v>
       </c>
       <c r="G8">
-        <v>0.2895560442194404</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>1.004937247070598</v>
+        <v>0.2824361567213493</v>
       </c>
       <c r="I8">
-        <v>36.95955618844066</v>
+        <v>1.164139969860313</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>39.54874823961909</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -698,19 +698,19 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>0.637</v>
+        <v>0.425</v>
       </c>
       <c r="G9">
-        <v>0.4943599230065479</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>1.145155243377548</v>
+        <v>0.420734913435317</v>
       </c>
       <c r="I9">
-        <v>14.02158919649276</v>
+        <v>1.305983128022982</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>41.7660808128393</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -730,19 +730,19 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>0.648</v>
+        <v>0.191</v>
       </c>
       <c r="G10">
-        <v>0.4943599230065479</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>1.145155243377548</v>
+        <v>0.09632207236708949</v>
       </c>
       <c r="I10">
-        <v>14.02158919649276</v>
+        <v>1.199488704658431</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>29.46253999658973</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -762,19 +762,19 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>0.38</v>
+        <v>0.303</v>
       </c>
       <c r="G11">
-        <v>0.388700057221525</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>1.181898520330419</v>
+        <v>0.2888227475679033</v>
       </c>
       <c r="I11">
-        <v>33.04281391007865</v>
+        <v>1.215714012566941</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>35.64496991056561</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -794,19 +794,19 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.381</v>
+        <v>0.463</v>
       </c>
       <c r="G12">
-        <v>0.388700057221525</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>1.181898520330419</v>
+        <v>0.4221636003110453</v>
       </c>
       <c r="I12">
-        <v>33.04281391007865</v>
+        <v>1.286899134119318</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>40.49522774240144</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -826,19 +826,19 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <v>0.71</v>
+        <v>0.783</v>
       </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>0.5138836229004865</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.9558546126402788</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13.01233830422763</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -858,19 +858,19 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <v>0.865</v>
+        <v>0.323</v>
       </c>
       <c r="G14">
-        <v>0.5138836229004865</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>0.9558546126402788</v>
+        <v>0.2701729084905928</v>
       </c>
       <c r="I14">
-        <v>13.01233830422763</v>
+        <v>1.076840676196074</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>33.70984494742797</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -890,19 +890,19 @@
         <v>9</v>
       </c>
       <c r="F15">
-        <v>0.554</v>
+        <v>0.154</v>
       </c>
       <c r="G15">
-        <v>0.4633543641493595</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>0.9954829337050143</v>
+        <v>0.0945882903246747</v>
       </c>
       <c r="I15">
-        <v>27.57288893822091</v>
+        <v>1.049879935652285</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>27.02335318006947</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -922,19 +922,19 @@
         <v>9</v>
       </c>
       <c r="F16">
-        <v>0.571</v>
+        <v>0.553</v>
       </c>
       <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
         <v>0.4633543641493595</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.9954829337050143</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>27.57288893822091</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -954,19 +954,19 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>0.887</v>
+        <v>0.747</v>
       </c>
       <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
         <v>0.5138836229004865</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.9558546126402788</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13.01233830422763</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -986,19 +986,19 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>0.08699999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="G18">
-        <v>0.003105209770222818</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>1.056870681572678</v>
+        <v>0.4221636003110453</v>
       </c>
       <c r="I18">
-        <v>29.51311580787933</v>
+        <v>1.286899134119318</v>
       </c>
       <c r="J18">
-        <v>53</v>
+        <v>40.49522774240144</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1018,19 +1018,19 @@
         <v>9</v>
       </c>
       <c r="F19">
-        <v>0.836</v>
+        <v>0.838</v>
       </c>
       <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
         <v>0.5138836229004865</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9558546126402788</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>13.01233830422763</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1050,19 +1050,19 @@
         <v>9</v>
       </c>
       <c r="F20">
-        <v>0.192</v>
+        <v>0.106</v>
       </c>
       <c r="G20">
-        <v>0.1006177486095704</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>1.150358613042419</v>
+        <v>-0.006577647402062334</v>
       </c>
       <c r="I20">
-        <v>30.60363649230003</v>
+        <v>1.04333991464054</v>
       </c>
       <c r="J20">
-        <v>24</v>
+        <v>29.83436585554878</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1082,19 +1082,19 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>0.38</v>
+        <v>0.711</v>
       </c>
       <c r="G21">
-        <v>0.388700057221525</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>1.181898520330419</v>
+        <v>0.5138836229004865</v>
       </c>
       <c r="I21">
-        <v>33.04281391007865</v>
+        <v>0.9558546126402788</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>13.01233830422763</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1114,19 +1114,19 @@
         <v>9</v>
       </c>
       <c r="F22">
-        <v>0.155</v>
+        <v>0.344</v>
       </c>
       <c r="G22">
-        <v>0.5175035244188044</v>
+        <v>72</v>
       </c>
       <c r="H22">
-        <v>0.5701087290521344</v>
+        <v>0.5284826009609058</v>
       </c>
       <c r="I22">
-        <v>171.630004967256</v>
+        <v>0.5664221142089121</v>
       </c>
       <c r="J22">
-        <v>78</v>
+        <v>142.8478211214579</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1146,19 +1146,19 @@
         <v>9</v>
       </c>
       <c r="F23">
-        <v>0.78</v>
+        <v>0.355</v>
       </c>
       <c r="G23">
-        <v>0.6167292047750847</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>0.7232292113081691</v>
+        <v>0.5284826009609058</v>
       </c>
       <c r="I23">
-        <v>155.6138756560208</v>
+        <v>0.5664221142089121</v>
       </c>
       <c r="J23">
-        <v>43</v>
+        <v>142.8478211214579</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1178,19 +1178,19 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>0.592</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G24">
-        <v>0.5910301017420678</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>0.6626227402836882</v>
+        <v>0.5891848689388876</v>
       </c>
       <c r="I24">
-        <v>152.5121983126477</v>
+        <v>0.5203511866615737</v>
       </c>
       <c r="J24">
-        <v>58</v>
+        <v>155.8044888941495</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1210,19 +1210,19 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>0.214</v>
+        <v>0.731</v>
       </c>
       <c r="G25">
-        <v>0.5088456883459533</v>
+        <v>51</v>
       </c>
       <c r="H25">
-        <v>0.4690591086937009</v>
+        <v>0.5836715817095454</v>
       </c>
       <c r="I25">
-        <v>171.8042850968903</v>
+        <v>0.6872761869460466</v>
       </c>
       <c r="J25">
-        <v>79</v>
+        <v>159.5660869770631</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1242,19 +1242,19 @@
         <v>9</v>
       </c>
       <c r="F26">
-        <v>0.515</v>
+        <v>0.054</v>
       </c>
       <c r="G26">
-        <v>0.5503795790031529</v>
+        <v>102</v>
       </c>
       <c r="H26">
-        <v>0.5542358620551829</v>
+        <v>0.439325274394798</v>
       </c>
       <c r="I26">
-        <v>154.3435394529348</v>
+        <v>0.5650343968934814</v>
       </c>
       <c r="J26">
-        <v>65</v>
+        <v>174.674216993054</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1274,19 +1274,19 @@
         <v>9</v>
       </c>
       <c r="F27">
-        <v>0.863</v>
+        <v>0.405</v>
       </c>
       <c r="G27">
-        <v>0.6856515075685961</v>
+        <v>69</v>
       </c>
       <c r="H27">
-        <v>0.615211914441089</v>
+        <v>0.528407422488202</v>
       </c>
       <c r="I27">
-        <v>184.4361091211209</v>
+        <v>0.5514668699949693</v>
       </c>
       <c r="J27">
-        <v>29</v>
+        <v>148.1259830326955</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1306,19 +1306,19 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>0.6919999999999999</v>
+        <v>0.039</v>
       </c>
       <c r="G28">
-        <v>0.5893490914463753</v>
+        <v>113</v>
       </c>
       <c r="H28">
-        <v>0.6533600243493922</v>
+        <v>0.4283516880076769</v>
       </c>
       <c r="I28">
-        <v>153.3195313252573</v>
+        <v>0.5455569254075512</v>
       </c>
       <c r="J28">
-        <v>55</v>
+        <v>180.1523837266598</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1338,19 +1338,19 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>0.49</v>
+        <v>0.702</v>
       </c>
       <c r="G29">
-        <v>0.5543802056432344</v>
+        <v>54</v>
       </c>
       <c r="H29">
-        <v>0.5589007445780074</v>
+        <v>0.5830293844839672</v>
       </c>
       <c r="I29">
-        <v>154.8045486337853</v>
+        <v>0.6978057580877445</v>
       </c>
       <c r="J29">
-        <v>64</v>
+        <v>153.0867047361615</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1370,19 +1370,19 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>0.642</v>
+        <v>0.431</v>
       </c>
       <c r="G30">
-        <v>0.5932337050354565</v>
+        <v>69</v>
       </c>
       <c r="H30">
-        <v>0.5582957009167862</v>
+        <v>0.528407422488202</v>
       </c>
       <c r="I30">
-        <v>164.8897528555956</v>
+        <v>0.5514668699949693</v>
       </c>
       <c r="J30">
-        <v>55</v>
+        <v>148.1259830326955</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1402,19 +1402,19 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>0.637</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="G31">
-        <v>0.5937413997631437</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>0.525096874731057</v>
+        <v>0.6582536793860986</v>
       </c>
       <c r="I31">
-        <v>164.523043690961</v>
+        <v>0.5287277593389335</v>
       </c>
       <c r="J31">
-        <v>56</v>
+        <v>160.5131467115648</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1434,19 +1434,19 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>0.338</v>
+        <v>0.442</v>
       </c>
       <c r="G32">
-        <v>0.5284826009609058</v>
+        <v>68</v>
       </c>
       <c r="H32">
-        <v>0.5664221142089121</v>
+        <v>0.5280897535522596</v>
       </c>
       <c r="I32">
-        <v>142.8478211214579</v>
+        <v>0.6150465444870198</v>
       </c>
       <c r="J32">
-        <v>72</v>
+        <v>142.4803998384889</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1466,19 +1466,19 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <v>0.5570000000000001</v>
+        <v>0.853</v>
       </c>
       <c r="G33">
-        <v>0.5895401607529731</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>0.5628142861319148</v>
+        <v>0.6865549690696974</v>
       </c>
       <c r="I33">
-        <v>160.1352995849016</v>
+        <v>0.6260296065192371</v>
       </c>
       <c r="J33">
-        <v>58</v>
+        <v>178.4589604679676</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1498,19 +1498,19 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.476</v>
+        <v>0.45</v>
       </c>
       <c r="G34">
-        <v>0.5543936694092911</v>
+        <v>68</v>
       </c>
       <c r="H34">
-        <v>0.5555764808023871</v>
+        <v>0.5280897535522596</v>
       </c>
       <c r="I34">
-        <v>153.0665675734497</v>
+        <v>0.6150465444870198</v>
       </c>
       <c r="J34">
-        <v>65</v>
+        <v>142.4803998384889</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1530,19 +1530,19 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>0.769</v>
+        <v>0.701</v>
       </c>
       <c r="G35">
-        <v>0.612118783366197</v>
+        <v>54</v>
       </c>
       <c r="H35">
-        <v>0.6849040945465165</v>
+        <v>0.5830293844839672</v>
       </c>
       <c r="I35">
-        <v>167.4004503338825</v>
+        <v>0.6978057580877445</v>
       </c>
       <c r="J35">
-        <v>45</v>
+        <v>153.0867047361615</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1562,19 +1562,19 @@
         <v>9</v>
       </c>
       <c r="F36">
-        <v>0.218</v>
+        <v>0.843</v>
       </c>
       <c r="G36">
-        <v>0.5160992814002689</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>0.4727268719680882</v>
+        <v>0.6862388870976991</v>
       </c>
       <c r="I36">
-        <v>174.0234800539702</v>
+        <v>0.6201335733680795</v>
       </c>
       <c r="J36">
-        <v>78</v>
+        <v>175.4144286194532</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1594,19 +1594,19 @@
         <v>9</v>
       </c>
       <c r="F37">
-        <v>0.58</v>
+        <v>0.012</v>
       </c>
       <c r="G37">
-        <v>0.5899258991906881</v>
+        <v>159</v>
       </c>
       <c r="H37">
-        <v>0.6536683895938806</v>
+        <v>0.3222219737904243</v>
       </c>
       <c r="I37">
-        <v>153.0525141526669</v>
+        <v>0.5907511161125421</v>
       </c>
       <c r="J37">
-        <v>58</v>
+        <v>170.4797942929151</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1626,19 +1626,19 @@
         <v>9</v>
       </c>
       <c r="F38">
-        <v>0.287</v>
+        <v>0.505</v>
       </c>
       <c r="G38">
-        <v>0.5155095917467111</v>
+        <v>65</v>
       </c>
       <c r="H38">
-        <v>0.5274567649200459</v>
+        <v>0.5503795790031529</v>
       </c>
       <c r="I38">
-        <v>158.4859531769012</v>
+        <v>0.5542358620551829</v>
       </c>
       <c r="J38">
-        <v>74</v>
+        <v>154.3435394529348</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1658,19 +1658,19 @@
         <v>9</v>
       </c>
       <c r="F39">
-        <v>0.181</v>
+        <v>0.556</v>
       </c>
       <c r="G39">
-        <v>0.5086686768467252</v>
+        <v>58</v>
       </c>
       <c r="H39">
-        <v>0.4940559781939652</v>
+        <v>0.5895401607529731</v>
       </c>
       <c r="I39">
-        <v>166.132602143598</v>
+        <v>0.5628142861319148</v>
       </c>
       <c r="J39">
-        <v>79</v>
+        <v>160.1352995849016</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1690,19 +1690,19 @@
         <v>9</v>
       </c>
       <c r="F40">
-        <v>0.695</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G40">
-        <v>0.5938180610671614</v>
+        <v>60</v>
       </c>
       <c r="H40">
-        <v>0.6543402494200651</v>
+        <v>0.5891848689388876</v>
       </c>
       <c r="I40">
-        <v>155.7560150184796</v>
+        <v>0.5203511866615737</v>
       </c>
       <c r="J40">
-        <v>54</v>
+        <v>155.8044888941495</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1722,19 +1722,19 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>0.219</v>
+        <v>0.378</v>
       </c>
       <c r="G41">
-        <v>0.5160992814002689</v>
+        <v>73</v>
       </c>
       <c r="H41">
-        <v>0.4727268719680882</v>
+        <v>0.5288002698968484</v>
       </c>
       <c r="I41">
-        <v>174.0234800539702</v>
+        <v>0.5079165674442484</v>
       </c>
       <c r="J41">
-        <v>78</v>
+        <v>149.018973366213</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1754,19 +1754,19 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <v>0.593</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="G42">
-        <v>0.3587309049331138</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>1.318353792465484</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I42">
-        <v>149.1672241156218</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1786,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="F43">
-        <v>0.409</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
         <v>0.3587309049331138</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1.318353792465484</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>149.1672241156218</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1818,19 +1818,19 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>0.428</v>
+        <v>0.045</v>
       </c>
       <c r="G44">
-        <v>0.3587309049331138</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>1.318353792465484</v>
+        <v>0.1076848588880074</v>
       </c>
       <c r="I44">
-        <v>149.1672241156218</v>
+        <v>1.413898422030442</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>31.62728802305013</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1850,19 +1850,19 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>0.481</v>
+        <v>0.14</v>
       </c>
       <c r="G45">
-        <v>0.3587309049331138</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>1.318353792465484</v>
+        <v>0.266483613232002</v>
       </c>
       <c r="I45">
-        <v>149.1672241156218</v>
+        <v>1.314306527681379</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>62.32489804708731</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1882,19 +1882,19 @@
         <v>15</v>
       </c>
       <c r="F46">
-        <v>0.329</v>
+        <v>0.296</v>
       </c>
       <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
         <v>0.3587309049331138</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1.318353792465484</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>149.1672241156218</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1914,19 +1914,19 @@
         <v>15</v>
       </c>
       <c r="F47">
-        <v>0.143</v>
+        <v>0.396</v>
       </c>
       <c r="G47">
-        <v>0.266483613232002</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>1.314306527681379</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I47">
-        <v>62.32489804708731</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1946,19 +1946,19 @@
         <v>15</v>
       </c>
       <c r="F48">
-        <v>0.619</v>
+        <v>0.782</v>
       </c>
       <c r="G48">
-        <v>0.3587309049331138</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>1.318353792465484</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I48">
-        <v>149.1672241156218</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1978,19 +1978,19 @@
         <v>15</v>
       </c>
       <c r="F49">
-        <v>0.823</v>
+        <v>0.167</v>
       </c>
       <c r="G49">
-        <v>0.6978327491716696</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>0.217112871163631</v>
+        <v>0.272646526056692</v>
       </c>
       <c r="I49">
-        <v>19.29462517934523</v>
+        <v>1.334859123032482</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>73.67344129799224</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2010,19 +2010,19 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>0.148</v>
+        <v>0.673</v>
       </c>
       <c r="G50">
-        <v>0.272646526056692</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>1.334859123032482</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I50">
-        <v>73.67344129799224</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2042,19 +2042,19 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
         <v>0.3587309049331138</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.318353792465484</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>149.1672241156218</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2074,19 +2074,19 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>0.319</v>
+        <v>0.147</v>
       </c>
       <c r="G52">
-        <v>0.3587309049331138</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>1.318353792465484</v>
+        <v>0.272646526056692</v>
       </c>
       <c r="I52">
-        <v>149.1672241156218</v>
+        <v>1.334859123032482</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>73.67344129799224</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2106,19 +2106,19 @@
         <v>15</v>
       </c>
       <c r="F53">
-        <v>0.605</v>
+        <v>0.763</v>
       </c>
       <c r="G53">
-        <v>0.3587309049331138</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>1.318353792465484</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I53">
-        <v>149.1672241156218</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2138,19 +2138,19 @@
         <v>15</v>
       </c>
       <c r="F54">
-        <v>0.832</v>
+        <v>0.093</v>
       </c>
       <c r="G54">
-        <v>0.6978327491716696</v>
+        <v>7</v>
       </c>
       <c r="H54">
-        <v>0.217112871163631</v>
+        <v>0.2626821386780334</v>
       </c>
       <c r="I54">
-        <v>19.29462517934523</v>
+        <v>1.386455297375556</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>57.14880929283096</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2170,19 +2170,19 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>0.702</v>
+        <v>0.666</v>
       </c>
       <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.217112871163631</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>19.29462517934523</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2202,19 +2202,19 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>0.161</v>
+        <v>0.023</v>
       </c>
       <c r="G56">
-        <v>0.272646526056692</v>
+        <v>21</v>
       </c>
       <c r="H56">
-        <v>1.334859123032482</v>
+        <v>0.1168774620549903</v>
       </c>
       <c r="I56">
-        <v>73.67344129799224</v>
+        <v>1.659580027473728</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>50.94210844673265</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2234,19 +2234,19 @@
         <v>15</v>
       </c>
       <c r="F57">
-        <v>0.254</v>
+        <v>0.119</v>
       </c>
       <c r="G57">
-        <v>0.2846054561030049</v>
+        <v>7</v>
       </c>
       <c r="H57">
-        <v>1.277957926913172</v>
+        <v>0.2658192871062726</v>
       </c>
       <c r="I57">
-        <v>91.05964150179922</v>
+        <v>1.172990948002632</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>52.13946910169896</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2266,19 +2266,19 @@
         <v>15</v>
       </c>
       <c r="F58">
-        <v>0.282</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>0.3587309049331138</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>1.318353792465484</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>149.1672241156218</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2298,19 +2298,19 @@
         <v>15</v>
       </c>
       <c r="F59">
-        <v>0.465</v>
+        <v>0.515</v>
       </c>
       <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
         <v>0.3587309049331138</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>1.318353792465484</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>149.1672241156218</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2330,19 +2330,19 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>0.315</v>
+        <v>0.254</v>
       </c>
       <c r="G60">
-        <v>0.3587309049331138</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>1.318353792465484</v>
+        <v>0.2846054561030049</v>
       </c>
       <c r="I60">
-        <v>149.1672241156218</v>
+        <v>1.277957926913172</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>91.05964150179922</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2362,19 +2362,19 @@
         <v>15</v>
       </c>
       <c r="F61">
-        <v>0.146</v>
+        <v>0.893</v>
       </c>
       <c r="G61">
-        <v>0.272646526056692</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>1.334859123032482</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I61">
-        <v>73.67344129799224</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2394,19 +2394,19 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <v>0.237</v>
+        <v>0.226</v>
       </c>
       <c r="G62">
-        <v>0.4484297478739944</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>0.8370489814658351</v>
+        <v>0.4495660704727581</v>
       </c>
       <c r="I62">
-        <v>1880.834499006032</v>
+        <v>0.8268277647168712</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>1889.423316809734</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2426,19 +2426,19 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <v>0.041</v>
+        <v>0.281</v>
       </c>
       <c r="G63">
-        <v>0.3963700728155875</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>0.8205083252963301</v>
+        <v>0.4565063806572662</v>
       </c>
       <c r="I63">
-        <v>2284.238136435587</v>
+        <v>0.8839452905988854</v>
       </c>
       <c r="J63">
-        <v>18</v>
+        <v>1786.924771466674</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2458,19 +2458,19 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <v>0.212</v>
+        <v>0.033</v>
       </c>
       <c r="G64">
-        <v>0.476675657030934</v>
+        <v>23</v>
       </c>
       <c r="H64">
-        <v>0.7600420160357351</v>
+        <v>0.400012054741852</v>
       </c>
       <c r="I64">
-        <v>2218.15794913029</v>
+        <v>0.7629002435445258</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>2266.505122635481</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2490,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0.306</v>
+        <v>0.238</v>
       </c>
       <c r="G65">
-        <v>0.4440642760520463</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>0.9028215929325559</v>
+        <v>0.4484297478739944</v>
       </c>
       <c r="I65">
-        <v>1744.372676915305</v>
+        <v>0.8370489814658351</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>1880.834499006032</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2522,19 +2522,19 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0.191</v>
+        <v>0.15</v>
       </c>
       <c r="G66">
-        <v>0.4538775109354808</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>0.7919612587549765</v>
+        <v>0.4578518476758004</v>
       </c>
       <c r="I66">
-        <v>2226.917973554089</v>
+        <v>0.7798153561205348</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>2222.754153908608</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2554,19 +2554,19 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <v>0.013</v>
+        <v>0.304</v>
       </c>
       <c r="G67">
-        <v>0.3704090560295581</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>0.7820693151810906</v>
+        <v>0.4441354928978968</v>
       </c>
       <c r="I67">
-        <v>2574.808684530082</v>
+        <v>0.9025648003098563</v>
       </c>
       <c r="J67">
-        <v>83</v>
+        <v>1745.434593904248</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2586,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>0.048</v>
+        <v>0.11</v>
       </c>
       <c r="G68">
-        <v>0.4148783082711808</v>
+        <v>8</v>
       </c>
       <c r="H68">
-        <v>0.7745001307917491</v>
+        <v>0.3875160632041116</v>
       </c>
       <c r="I68">
-        <v>2416.257048664853</v>
+        <v>0.8206602084173622</v>
       </c>
       <c r="J68">
-        <v>14</v>
+        <v>1998.336452536425</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2618,19 +2618,19 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <v>0.038</v>
+        <v>0.267</v>
       </c>
       <c r="G69">
-        <v>0.4120136907876006</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>0.7698075250286586</v>
+        <v>0.4575566662467613</v>
       </c>
       <c r="I69">
-        <v>2404.343940803796</v>
+        <v>0.8684622503140277</v>
       </c>
       <c r="J69">
-        <v>17</v>
+        <v>1783.071205183348</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2650,19 +2650,19 @@
         <v>2</v>
       </c>
       <c r="F70">
-        <v>0.08799999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="G70">
-        <v>0.4443145272092102</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>0.7306932926453549</v>
+        <v>0.4572616637865849</v>
       </c>
       <c r="I70">
-        <v>2293.117799095714</v>
+        <v>0.7534597275911447</v>
       </c>
       <c r="J70">
-        <v>8</v>
+        <v>2194.043784698061</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2682,19 +2682,19 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>0.267</v>
+        <v>0.039</v>
       </c>
       <c r="G71">
-        <v>0.4575566662467613</v>
+        <v>17</v>
       </c>
       <c r="H71">
-        <v>0.8684622503140277</v>
+        <v>0.4120136907876006</v>
       </c>
       <c r="I71">
-        <v>1783.071205183348</v>
+        <v>0.7698075250286586</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>2404.343940803796</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2714,19 +2714,19 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>0.101</v>
+        <v>0.199</v>
       </c>
       <c r="G72">
-        <v>0.4392182940051675</v>
+        <v>5</v>
       </c>
       <c r="H72">
-        <v>0.7369750388246873</v>
+        <v>0.4537234833383531</v>
       </c>
       <c r="I72">
-        <v>2286.832972540968</v>
+        <v>0.7966940405303047</v>
       </c>
       <c r="J72">
-        <v>8</v>
+        <v>2224.976224268402</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2746,19 +2746,19 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>0.042</v>
+        <v>0.123</v>
       </c>
       <c r="G73">
-        <v>0.3946496971389567</v>
+        <v>5</v>
       </c>
       <c r="H73">
-        <v>0.8081090481315505</v>
+        <v>0.4571618841958329</v>
       </c>
       <c r="I73">
-        <v>2309.721412728494</v>
+        <v>0.7529915913356936</v>
       </c>
       <c r="J73">
-        <v>16</v>
+        <v>2193.610262641017</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2778,19 +2778,19 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0.098</v>
+        <v>0.113</v>
       </c>
       <c r="G74">
-        <v>0.4439457315651741</v>
+        <v>7</v>
       </c>
       <c r="H74">
-        <v>0.7332688088265971</v>
+        <v>0.4377364752377478</v>
       </c>
       <c r="I74">
-        <v>2303.010509041668</v>
+        <v>0.7686632196057969</v>
       </c>
       <c r="J74">
-        <v>8</v>
+        <v>2256.01739678875</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2810,19 +2810,19 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="G75">
-        <v>0.4485826060111608</v>
+        <v>6</v>
       </c>
       <c r="H75">
-        <v>0.7631830266506929</v>
+        <v>0.448305367345205</v>
       </c>
       <c r="I75">
-        <v>2215.457422784466</v>
+        <v>0.7635309613415807</v>
       </c>
       <c r="J75">
-        <v>6</v>
+        <v>2217.81916102998</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2842,19 +2842,19 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>0.025</v>
+        <v>0.133</v>
       </c>
       <c r="G76">
-        <v>0.3776378586188357</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>0.8367801093116518</v>
+        <v>0.4485826060111608</v>
       </c>
       <c r="I76">
-        <v>2194.285226303928</v>
+        <v>0.7631830266506929</v>
       </c>
       <c r="J76">
-        <v>30</v>
+        <v>2215.457422784466</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2874,19 +2874,19 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0.195</v>
+        <v>0.208</v>
       </c>
       <c r="G77">
-        <v>0.4537931047925713</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>0.7976142389741275</v>
+        <v>0.4761339005853188</v>
       </c>
       <c r="I77">
-        <v>2225.125576092857</v>
+        <v>0.7612031015317069</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>2214.892845614434</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2906,19 +2906,19 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <v>0.187</v>
+        <v>0.128</v>
       </c>
       <c r="G78">
-        <v>0.4544992285468643</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>0.7896343800881267</v>
+        <v>0.4574440703861374</v>
       </c>
       <c r="I78">
-        <v>2229.750343134297</v>
+        <v>0.7543776205283349</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>2194.990345262609</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2938,19 +2938,19 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <v>0.116</v>
+        <v>0.123</v>
       </c>
       <c r="G79">
-        <v>0.428269935224417</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>0.7754009139730172</v>
+        <v>0.4571618841958329</v>
       </c>
       <c r="I79">
-        <v>2127.395986687992</v>
+        <v>0.7529915913356936</v>
       </c>
       <c r="J79">
-        <v>7</v>
+        <v>2193.610262641017</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2970,19 +2970,19 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>0.154</v>
+        <v>0.263</v>
       </c>
       <c r="G80">
-        <v>0.4544266132399688</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0.7875404780823463</v>
+        <v>0.4575566662467613</v>
       </c>
       <c r="I80">
-        <v>2234.854642869918</v>
+        <v>0.8684622503140277</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>1783.071205183348</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3002,19 +3002,19 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <v>0.07000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="G81">
-        <v>0.4454359941620665</v>
+        <v>23</v>
       </c>
       <c r="H81">
-        <v>0.7275343856138246</v>
+        <v>0.400012054741852</v>
       </c>
       <c r="I81">
-        <v>2327.077304556234</v>
+        <v>0.7629002435445258</v>
       </c>
       <c r="J81">
-        <v>9</v>
+        <v>2266.505122635481</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3034,19 +3034,19 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <v>0.055</v>
+        <v>0.014</v>
       </c>
       <c r="G82">
-        <v>0.4325968734894864</v>
+        <v>75</v>
       </c>
       <c r="H82">
-        <v>0.737362158965435</v>
+        <v>0.3472608811778388</v>
       </c>
       <c r="I82">
-        <v>2024.43216330592</v>
+        <v>0.8404616084423255</v>
       </c>
       <c r="J82">
-        <v>12</v>
+        <v>2153.743496907044</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3066,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>0.053</v>
+        <v>0.068</v>
       </c>
       <c r="G83">
-        <v>0.4364931685703098</v>
+        <v>9</v>
       </c>
       <c r="H83">
-        <v>0.734845725025999</v>
+        <v>0.431505830140643</v>
       </c>
       <c r="I83">
-        <v>2017.003062510249</v>
+        <v>0.7273071878157227</v>
       </c>
       <c r="J83">
-        <v>11</v>
+        <v>1947.860986026731</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3098,19 +3098,19 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>0.064</v>
+        <v>0.099</v>
       </c>
       <c r="G84">
-        <v>0.4246125663018378</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <v>0.765972629349935</v>
+        <v>0.382049980319118</v>
       </c>
       <c r="I84">
-        <v>1930.463488810938</v>
+        <v>0.8118681730398368</v>
       </c>
       <c r="J84">
-        <v>10</v>
+        <v>1554.490140017527</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3130,19 +3130,19 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <v>0.06</v>
+        <v>0.013</v>
       </c>
       <c r="G85">
-        <v>0.4137487388161599</v>
+        <v>90</v>
       </c>
       <c r="H85">
-        <v>0.7729587904328368</v>
+        <v>0.3486414056881234</v>
       </c>
       <c r="I85">
-        <v>1863.361923391273</v>
+        <v>0.8209319271169842</v>
       </c>
       <c r="J85">
-        <v>10</v>
+        <v>2225.88241433646</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3162,19 +3162,19 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <v>0.053</v>
+        <v>0.065</v>
       </c>
       <c r="G86">
-        <v>0.4364931685703098</v>
+        <v>10</v>
       </c>
       <c r="H86">
-        <v>0.734845725025999</v>
+        <v>0.4246125663018378</v>
       </c>
       <c r="I86">
-        <v>2017.003062510249</v>
+        <v>0.765972629349935</v>
       </c>
       <c r="J86">
-        <v>11</v>
+        <v>1930.463488810938</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3194,19 +3194,19 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <v>0.036</v>
+        <v>0.065</v>
       </c>
       <c r="G87">
-        <v>0.4043157592694809</v>
+        <v>10</v>
       </c>
       <c r="H87">
-        <v>0.7994985521693799</v>
+        <v>0.4246125663018378</v>
       </c>
       <c r="I87">
-        <v>2235.184161440343</v>
+        <v>0.765972629349935</v>
       </c>
       <c r="J87">
-        <v>17</v>
+        <v>1930.463488810938</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3226,19 +3226,19 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>0.066</v>
+        <v>0.099</v>
       </c>
       <c r="G88">
-        <v>0.4296751492588311</v>
+        <v>6</v>
       </c>
       <c r="H88">
-        <v>0.7403038311710792</v>
+        <v>0.382049980319118</v>
       </c>
       <c r="I88">
-        <v>1930.158191822085</v>
+        <v>0.8118681730398368</v>
       </c>
       <c r="J88">
-        <v>9</v>
+        <v>1554.490140017527</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3258,19 +3258,19 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="G89">
-        <v>0.4317875382833364</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>0.7390228087290187</v>
+        <v>0.4137487388161599</v>
       </c>
       <c r="I89">
-        <v>2019.104852925797</v>
+        <v>0.7729587904328368</v>
       </c>
       <c r="J89">
-        <v>12</v>
+        <v>1863.361923391273</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3290,19 +3290,19 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>0.059</v>
+        <v>0.033</v>
       </c>
       <c r="G90">
-        <v>0.4317189889706233</v>
+        <v>20</v>
       </c>
       <c r="H90">
-        <v>0.7415287617150207</v>
+        <v>0.4116647824757296</v>
       </c>
       <c r="I90">
-        <v>2022.81552589376</v>
+        <v>0.7786894019351591</v>
       </c>
       <c r="J90">
-        <v>12</v>
+        <v>2244.51170642746</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3322,19 +3322,19 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <v>0.012</v>
+        <v>0.043</v>
       </c>
       <c r="G91">
-        <v>0.3486414056881234</v>
+        <v>15</v>
       </c>
       <c r="H91">
-        <v>0.8209319271169842</v>
+        <v>0.4041897539260706</v>
       </c>
       <c r="I91">
-        <v>2225.88241433646</v>
+        <v>0.8108281081457213</v>
       </c>
       <c r="J91">
-        <v>90</v>
+        <v>2188.226437408066</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3354,19 +3354,19 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="G92">
-        <v>0.4116647824757296</v>
+        <v>25</v>
       </c>
       <c r="H92">
-        <v>0.7786894019351591</v>
+        <v>0.3897661702069274</v>
       </c>
       <c r="I92">
-        <v>2244.51170642746</v>
+        <v>0.8008850209776956</v>
       </c>
       <c r="J92">
-        <v>20</v>
+        <v>2220.935146598949</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3386,19 +3386,19 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>0.064</v>
+        <v>0.023</v>
       </c>
       <c r="G93">
-        <v>0.4246125663018378</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>0.765972629349935</v>
+        <v>0.3578452242451124</v>
       </c>
       <c r="I93">
-        <v>1930.463488810938</v>
+        <v>0.8632490238413087</v>
       </c>
       <c r="J93">
-        <v>10</v>
+        <v>2162.839004843589</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3418,19 +3418,19 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G94">
-        <v>0.4325968734894864</v>
+        <v>10</v>
       </c>
       <c r="H94">
-        <v>0.737362158965435</v>
+        <v>0.4246125663018378</v>
       </c>
       <c r="I94">
-        <v>2024.43216330592</v>
+        <v>0.765972629349935</v>
       </c>
       <c r="J94">
-        <v>12</v>
+        <v>1930.463488810938</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3450,19 +3450,19 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="G95">
-        <v>0.4187867013663557</v>
+        <v>15</v>
       </c>
       <c r="H95">
-        <v>0.7705844827695919</v>
+        <v>0.4096698312591016</v>
       </c>
       <c r="I95">
-        <v>2104.569140070889</v>
+        <v>0.7886649997658906</v>
       </c>
       <c r="J95">
-        <v>13</v>
+        <v>2050.108194917986</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3482,19 +3482,19 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="G96">
-        <v>0.3567400920346944</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>0.8385514053314881</v>
+        <v>0.3894687178356379</v>
       </c>
       <c r="I96">
-        <v>2116.470011704544</v>
+        <v>0.7961036420513589</v>
       </c>
       <c r="J96">
-        <v>58</v>
+        <v>2219.857758382253</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3514,19 +3514,19 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>0.065</v>
+        <v>0.023</v>
       </c>
       <c r="G97">
-        <v>0.4246125663018378</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>0.765972629349935</v>
+        <v>0.3578452242451124</v>
       </c>
       <c r="I97">
-        <v>1930.463488810938</v>
+        <v>0.8632490238413087</v>
       </c>
       <c r="J97">
-        <v>10</v>
+        <v>2162.839004843589</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3546,19 +3546,19 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="G98">
-        <v>0.3897661702069274</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>0.8008850209776956</v>
+        <v>0.3894687178356379</v>
       </c>
       <c r="I98">
-        <v>2220.935146598949</v>
+        <v>0.7961036420513589</v>
       </c>
       <c r="J98">
-        <v>25</v>
+        <v>2219.857758382253</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3578,19 +3578,19 @@
         <v>2</v>
       </c>
       <c r="F99">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G99">
-        <v>0.4312407196661996</v>
+        <v>10</v>
       </c>
       <c r="H99">
-        <v>0.7420450954637454</v>
+        <v>0.4369724967649452</v>
       </c>
       <c r="I99">
-        <v>1950.709405552482</v>
+        <v>0.7177081780486976</v>
       </c>
       <c r="J99">
-        <v>9</v>
+        <v>1989.067823574949</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3610,19 +3610,19 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <v>0.097</v>
+        <v>0.091</v>
       </c>
       <c r="G100">
-        <v>0.3828497830003329</v>
+        <v>6</v>
       </c>
       <c r="H100">
-        <v>0.8159555412480409</v>
+        <v>0.3886570844499219</v>
       </c>
       <c r="I100">
-        <v>1552.033993591988</v>
+        <v>0.8195452517650855</v>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>1557.342258682642</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3642,19 +3642,19 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="G101">
-        <v>0.4364931685703098</v>
+        <v>13</v>
       </c>
       <c r="H101">
-        <v>0.734845725025999</v>
+        <v>0.4176836182063678</v>
       </c>
       <c r="I101">
-        <v>2017.003062510249</v>
+        <v>0.7781672215590354</v>
       </c>
       <c r="J101">
-        <v>11</v>
+        <v>2111.508132411192</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3674,19 +3674,19 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>0.117</v>
+        <v>0.195</v>
       </c>
       <c r="G102">
-        <v>0.437828538638643</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>0.7551001788404256</v>
+        <v>0.3981231183221267</v>
       </c>
       <c r="I102">
-        <v>2843.143436730975</v>
+        <v>0.8156864518055551</v>
       </c>
       <c r="J102">
-        <v>7</v>
+        <v>1840.140180330324</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3706,19 +3706,19 @@
         <v>2</v>
       </c>
       <c r="F103">
-        <v>0.035</v>
+        <v>0.191</v>
       </c>
       <c r="G103">
-        <v>0.4118209650937132</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>0.7999307678519401</v>
+        <v>0.3804537719542894</v>
       </c>
       <c r="I103">
-        <v>2807.431629066246</v>
+        <v>0.861750807927307</v>
       </c>
       <c r="J103">
-        <v>22</v>
+        <v>1812.167938636042</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3738,19 +3738,19 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>0.185</v>
+        <v>0.161</v>
       </c>
       <c r="G104">
-        <v>0.4095501913138502</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>0.775755001569347</v>
+        <v>0.3866971823151539</v>
       </c>
       <c r="I104">
-        <v>1809.439846270118</v>
+        <v>0.8082099069513483</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>2245.197196758203</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3770,19 +3770,19 @@
         <v>2</v>
       </c>
       <c r="F105">
-        <v>0.128</v>
+        <v>0.066</v>
       </c>
       <c r="G105">
-        <v>0.4036669383700373</v>
+        <v>9</v>
       </c>
       <c r="H105">
-        <v>0.8318789151466167</v>
+        <v>0.4163753348488035</v>
       </c>
       <c r="I105">
-        <v>2420.610555714612</v>
+        <v>0.7120049710571068</v>
       </c>
       <c r="J105">
-        <v>6</v>
+        <v>2475.441363028569</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3802,19 +3802,19 @@
         <v>2</v>
       </c>
       <c r="F106">
-        <v>0.012</v>
+        <v>0.157</v>
       </c>
       <c r="G106">
-        <v>0.3797423220193433</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>0.8261377576240787</v>
+        <v>0.3842680016865635</v>
       </c>
       <c r="I106">
-        <v>3367.747214284199</v>
+        <v>0.808341058677552</v>
       </c>
       <c r="J106">
-        <v>90</v>
+        <v>2217.288809944824</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3834,19 +3834,19 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <v>0.037</v>
+        <v>0.135</v>
       </c>
       <c r="G107">
-        <v>0.4181291023292219</v>
+        <v>5</v>
       </c>
       <c r="H107">
-        <v>0.728901173768937</v>
+        <v>0.3949142031392999</v>
       </c>
       <c r="I107">
-        <v>2697.999680546679</v>
+        <v>0.8575581692957815</v>
       </c>
       <c r="J107">
-        <v>21</v>
+        <v>2312.154304023788</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3866,19 +3866,19 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0.016</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G108">
-        <v>0.3798442430847586</v>
+        <v>9</v>
       </c>
       <c r="H108">
-        <v>0.8244662060383547</v>
+        <v>0.4165220304895976</v>
       </c>
       <c r="I108">
-        <v>3303.167762573001</v>
+        <v>0.7392257213542863</v>
       </c>
       <c r="J108">
-        <v>59</v>
+        <v>2508.314568408673</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3898,19 +3898,19 @@
         <v>2</v>
       </c>
       <c r="F109">
-        <v>0.133</v>
+        <v>0.083</v>
       </c>
       <c r="G109">
-        <v>0.3949242936858048</v>
+        <v>9</v>
       </c>
       <c r="H109">
-        <v>0.8572656748816939</v>
+        <v>0.4253481319544045</v>
       </c>
       <c r="I109">
-        <v>2312.124981678583</v>
+        <v>0.6958042429527186</v>
       </c>
       <c r="J109">
-        <v>5</v>
+        <v>2473.261556675626</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3930,19 +3930,19 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>0.017</v>
+        <v>0.089</v>
       </c>
       <c r="G110">
-        <v>0.3798442430847586</v>
+        <v>7</v>
       </c>
       <c r="H110">
-        <v>0.8244662060383547</v>
+        <v>0.4344075366483435</v>
       </c>
       <c r="I110">
-        <v>3303.167762573001</v>
+        <v>0.7465308947411302</v>
       </c>
       <c r="J110">
-        <v>59</v>
+        <v>2801.290732661444</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3962,19 +3962,19 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>0.195</v>
+        <v>0.112</v>
       </c>
       <c r="G111">
-        <v>0.3981231183221267</v>
+        <v>7</v>
       </c>
       <c r="H111">
-        <v>0.8156864518055551</v>
+        <v>0.4373230548232113</v>
       </c>
       <c r="I111">
-        <v>1840.140180330324</v>
+        <v>0.7553050520018096</v>
       </c>
       <c r="J111">
-        <v>3</v>
+        <v>2838.970845731644</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3994,19 +3994,19 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>0.075</v>
+        <v>0.183</v>
       </c>
       <c r="G112">
-        <v>0.4133974481380149</v>
+        <v>3</v>
       </c>
       <c r="H112">
-        <v>0.7443577679300561</v>
+        <v>0.411357807125976</v>
       </c>
       <c r="I112">
-        <v>2499.660707126565</v>
+        <v>0.7706711317753294</v>
       </c>
       <c r="J112">
-        <v>9</v>
+        <v>1806.720664250632</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4026,19 +4026,19 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <v>0.131</v>
+        <v>0.186</v>
       </c>
       <c r="G113">
-        <v>0.4040568398746123</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>0.8320835906283776</v>
+        <v>0.4115324736568009</v>
       </c>
       <c r="I113">
-        <v>2424.257352635272</v>
+        <v>0.7763728679514869</v>
       </c>
       <c r="J113">
-        <v>6</v>
+        <v>1837.664278260796</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4058,19 +4058,19 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>0.191</v>
+        <v>0.047</v>
       </c>
       <c r="G114">
-        <v>0.3804537719542894</v>
+        <v>13</v>
       </c>
       <c r="H114">
-        <v>0.861750807927307</v>
+        <v>0.3962752843278287</v>
       </c>
       <c r="I114">
-        <v>1812.167938636042</v>
+        <v>0.7844490430382672</v>
       </c>
       <c r="J114">
-        <v>3</v>
+        <v>2438.585341009409</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4090,19 +4090,19 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <v>0.165</v>
+        <v>0.157</v>
       </c>
       <c r="G115">
-        <v>0.4093031262715736</v>
+        <v>4</v>
       </c>
       <c r="H115">
-        <v>0.7563880691831758</v>
+        <v>0.3842680016865635</v>
       </c>
       <c r="I115">
-        <v>1698.231362229928</v>
+        <v>0.808341058677552</v>
       </c>
       <c r="J115">
-        <v>3</v>
+        <v>2217.288809944824</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4122,19 +4122,19 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0.038</v>
+        <v>0.146</v>
       </c>
       <c r="G116">
-        <v>0.4110461495686309</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>0.7926618525585797</v>
+        <v>0.3806962146843455</v>
       </c>
       <c r="I116">
-        <v>2711.514153031215</v>
+        <v>0.8046673003164277</v>
       </c>
       <c r="J116">
-        <v>19</v>
+        <v>2174.882735474672</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4154,19 +4154,19 @@
         <v>2</v>
       </c>
       <c r="F117">
-        <v>0.156</v>
+        <v>0.019</v>
       </c>
       <c r="G117">
-        <v>0.3842680016865635</v>
+        <v>49</v>
       </c>
       <c r="H117">
-        <v>0.808341058677552</v>
+        <v>0.3984961367292879</v>
       </c>
       <c r="I117">
-        <v>2217.288809944824</v>
+        <v>0.767860642510091</v>
       </c>
       <c r="J117">
-        <v>4</v>
+        <v>3350.153123193261</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4186,19 +4186,19 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <v>0.16</v>
+        <v>0.169</v>
       </c>
       <c r="G118">
-        <v>0.3866971823151539</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>0.8082099069513483</v>
+        <v>0.4105863245688872</v>
       </c>
       <c r="I118">
-        <v>2245.197196758203</v>
+        <v>0.7569979867160602</v>
       </c>
       <c r="J118">
-        <v>4</v>
+        <v>1713.382449523874</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4218,19 +4218,19 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <v>0.18</v>
+        <v>0.188</v>
       </c>
       <c r="G119">
-        <v>0.4132341056110365</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>0.7659476856261809</v>
+        <v>0.3804537719542894</v>
       </c>
       <c r="I119">
-        <v>1802.720225306573</v>
+        <v>0.861750807927307</v>
       </c>
       <c r="J119">
-        <v>3</v>
+        <v>1812.167938636042</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4250,19 +4250,19 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <v>0.06</v>
+        <v>0.103</v>
       </c>
       <c r="G120">
-        <v>0.3966619853956446</v>
+        <v>7</v>
       </c>
       <c r="H120">
-        <v>0.7435125837696743</v>
+        <v>0.4378238848915885</v>
       </c>
       <c r="I120">
-        <v>2314.173475297167</v>
+        <v>0.7492729871755885</v>
       </c>
       <c r="J120">
-        <v>10</v>
+        <v>2839.781864987545</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4282,19 +4282,19 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <v>0.132</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G121">
-        <v>0.3949242936858048</v>
+        <v>8</v>
       </c>
       <c r="H121">
-        <v>0.8572656748816939</v>
+        <v>0.4267600921996007</v>
       </c>
       <c r="I121">
-        <v>2312.124981678583</v>
+        <v>0.7056495014462734</v>
       </c>
       <c r="J121">
-        <v>5</v>
+        <v>2547.332694764283</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4314,19 +4314,19 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <v>0.13</v>
+        <v>0.346</v>
       </c>
       <c r="G122">
-        <v>0.4758451241838678</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>0.768986112041175</v>
+        <v>0.4604408189430688</v>
       </c>
       <c r="I122">
-        <v>2593.790778172592</v>
+        <v>0.8436813933843487</v>
       </c>
       <c r="J122">
-        <v>6</v>
+        <v>2013.125512035795</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4346,19 +4346,19 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0.305</v>
+        <v>0.04</v>
       </c>
       <c r="G123">
-        <v>0.4695416318094343</v>
+        <v>16</v>
       </c>
       <c r="H123">
-        <v>0.8155134876469556</v>
+        <v>0.4179848194095918</v>
       </c>
       <c r="I123">
-        <v>2018.489923256249</v>
+        <v>0.7664655831228575</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>2261.460601043852</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4378,19 +4378,19 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="G124">
-        <v>0.4686587388515578</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>0.7638786012897189</v>
+        <v>0.469098461772444</v>
       </c>
       <c r="I124">
-        <v>2134.027562319961</v>
+        <v>0.7725720783172803</v>
       </c>
       <c r="J124">
-        <v>3</v>
+        <v>2638.292956717114</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4410,19 +4410,19 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>0.218</v>
+        <v>0.304</v>
       </c>
       <c r="G125">
-        <v>0.4658651760231268</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>0.7789414396878139</v>
+        <v>0.4695416318094343</v>
       </c>
       <c r="I125">
-        <v>2620.875137903662</v>
+        <v>0.8155134876469556</v>
       </c>
       <c r="J125">
-        <v>5</v>
+        <v>2018.489923256249</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4442,19 +4442,19 @@
         <v>2</v>
       </c>
       <c r="F126">
-        <v>0.147</v>
+        <v>0.164</v>
       </c>
       <c r="G126">
-        <v>0.5007273169203303</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>0.6732790131231476</v>
+        <v>0.4958234286718625</v>
       </c>
       <c r="I126">
-        <v>2721.506381886523</v>
+        <v>0.7054515926333839</v>
       </c>
       <c r="J126">
-        <v>5</v>
+        <v>2680.1057358709</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4474,19 +4474,19 @@
         <v>2</v>
       </c>
       <c r="F127">
-        <v>0.06900000000000001</v>
+        <v>0.208</v>
       </c>
       <c r="G127">
-        <v>0.4597928126369182</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <v>0.6668370883864345</v>
+        <v>0.468886904173246</v>
       </c>
       <c r="I127">
-        <v>2593.890998107658</v>
+        <v>0.7737642902149279</v>
       </c>
       <c r="J127">
-        <v>10</v>
+        <v>2637.202901038849</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4506,19 +4506,19 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>0.285</v>
+        <v>0.036</v>
       </c>
       <c r="G128">
-        <v>0.4826937307390486</v>
+        <v>23</v>
       </c>
       <c r="H128">
-        <v>0.7576354653328808</v>
+        <v>0.4473599005475695</v>
       </c>
       <c r="I128">
-        <v>1989.837286070826</v>
+        <v>0.7354749038166656</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>3053.467850390679</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4538,19 +4538,19 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <v>0.196</v>
+        <v>0.328</v>
       </c>
       <c r="G129">
-        <v>0.470950720580595</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>0.7701912269499271</v>
+        <v>0.4643825767723943</v>
       </c>
       <c r="I129">
-        <v>2648.449568956429</v>
+        <v>0.8342849006644454</v>
       </c>
       <c r="J129">
-        <v>5</v>
+        <v>2015.453106100029</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4570,19 +4570,19 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>0.28</v>
+        <v>0.342</v>
       </c>
       <c r="G130">
-        <v>0.4828724166011846</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>0.7561529002300772</v>
+        <v>0.4618508580156675</v>
       </c>
       <c r="I130">
-        <v>1979.909085979622</v>
+        <v>0.8402422296294327</v>
       </c>
       <c r="J130">
-        <v>2</v>
+        <v>2014.691969721026</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4602,19 +4602,19 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>0.303</v>
+        <v>0.243</v>
       </c>
       <c r="G131">
-        <v>0.46963834024594</v>
+        <v>4</v>
       </c>
       <c r="H131">
-        <v>0.8148771211815958</v>
+        <v>0.5031442013525004</v>
       </c>
       <c r="I131">
-        <v>2018.815699490598</v>
+        <v>0.7052570233571896</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>2669.968561581262</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4634,19 +4634,19 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>0.184</v>
+        <v>0.056</v>
       </c>
       <c r="G132">
-        <v>0.4770578463395606</v>
+        <v>11</v>
       </c>
       <c r="H132">
-        <v>0.7590855737856887</v>
+        <v>0.4561080421722425</v>
       </c>
       <c r="I132">
-        <v>2678.393460644857</v>
+        <v>0.682041574691396</v>
       </c>
       <c r="J132">
-        <v>5</v>
+        <v>2739.447656576405</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4666,19 +4666,19 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <v>0.258</v>
+        <v>0.337</v>
       </c>
       <c r="G133">
-        <v>0.4684874244718921</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>0.7639387092893078</v>
+        <v>0.4633940213531988</v>
       </c>
       <c r="I133">
-        <v>2133.697448396045</v>
+        <v>0.8368478189626098</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>2015.276208071196</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4698,19 +4698,19 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <v>0.304</v>
+        <v>0.259</v>
       </c>
       <c r="G134">
-        <v>0.4695416318094343</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>0.8155134876469556</v>
+        <v>0.4684874244718921</v>
       </c>
       <c r="I134">
-        <v>2018.489923256249</v>
+        <v>0.7639387092893078</v>
       </c>
       <c r="J134">
-        <v>2</v>
+        <v>2133.697448396045</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4730,19 +4730,19 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="G135">
-        <v>0.4023457596043543</v>
+        <v>64</v>
       </c>
       <c r="H135">
-        <v>0.7486181225292694</v>
+        <v>0.4183066062453442</v>
       </c>
       <c r="I135">
-        <v>3440.501515047125</v>
+        <v>0.723981007055029</v>
       </c>
       <c r="J135">
-        <v>81</v>
+        <v>3338.132193668215</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4762,19 +4762,19 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>0.22</v>
+        <v>0.163</v>
       </c>
       <c r="G136">
-        <v>0.4638043429339198</v>
+        <v>5</v>
       </c>
       <c r="H136">
-        <v>0.781787067561061</v>
+        <v>0.4956181099355772</v>
       </c>
       <c r="I136">
-        <v>2609.585122613942</v>
+        <v>0.7070094778932143</v>
       </c>
       <c r="J136">
-        <v>5</v>
+        <v>2680.500557382452</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4794,19 +4794,19 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>0.307</v>
+        <v>0.104</v>
       </c>
       <c r="G137">
-        <v>0.4694466447030186</v>
+        <v>7</v>
       </c>
       <c r="H137">
-        <v>0.8152678688911547</v>
+        <v>0.456608578498699</v>
       </c>
       <c r="I137">
-        <v>2019.322731885434</v>
+        <v>0.8078560997341961</v>
       </c>
       <c r="J137">
-        <v>2</v>
+        <v>2687.373157038731</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4826,19 +4826,19 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <v>0.102</v>
+        <v>0.214</v>
       </c>
       <c r="G138">
-        <v>0.4573167320892332</v>
+        <v>5</v>
       </c>
       <c r="H138">
-        <v>0.802013224203006</v>
+        <v>0.4673409270297897</v>
       </c>
       <c r="I138">
-        <v>2689.241113611295</v>
+        <v>0.7749201472825344</v>
       </c>
       <c r="J138">
-        <v>7</v>
+        <v>2628.156022978246</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4858,19 +4858,19 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>0.203</v>
+        <v>0.277</v>
       </c>
       <c r="G139">
-        <v>0.4731072087696148</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>0.7656423225179241</v>
+        <v>0.4665947522247889</v>
       </c>
       <c r="I139">
-        <v>2659.859438275998</v>
+        <v>0.859686158085544</v>
       </c>
       <c r="J139">
-        <v>5</v>
+        <v>2231.890562425906</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4890,19 +4890,19 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <v>0.033</v>
+        <v>0.164</v>
       </c>
       <c r="G140">
-        <v>0.4204628479554047</v>
+        <v>5</v>
       </c>
       <c r="H140">
-        <v>0.7982803207590043</v>
+        <v>0.4958234286718625</v>
       </c>
       <c r="I140">
-        <v>2909.432298921155</v>
+        <v>0.7054515926333839</v>
       </c>
       <c r="J140">
-        <v>24</v>
+        <v>2680.1057358709</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -4922,19 +4922,19 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <v>0.183</v>
+        <v>0.298</v>
       </c>
       <c r="G141">
-        <v>0.4745997443789004</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>0.7623977697346743</v>
+        <v>0.4792214861915288</v>
       </c>
       <c r="I141">
-        <v>2660.717802991333</v>
+        <v>0.7708926468802826</v>
       </c>
       <c r="J141">
-        <v>5</v>
+        <v>2012.570153472441</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -4954,19 +4954,19 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>0.166</v>
+        <v>0.141</v>
       </c>
       <c r="G142">
-        <v>0.4326548680059163</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>0.7982350398897676</v>
+        <v>0.3659743041334598</v>
       </c>
       <c r="I142">
-        <v>1543.918836537581</v>
+        <v>0.9101020426335961</v>
       </c>
       <c r="J142">
-        <v>3</v>
+        <v>1384.050465142398</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -4986,19 +4986,19 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>0.08500000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="G143">
-        <v>0.407934388200516</v>
+        <v>8</v>
       </c>
       <c r="H143">
-        <v>0.7965799369202053</v>
+        <v>0.4354221045766542</v>
       </c>
       <c r="I143">
-        <v>1752.434195144026</v>
+        <v>0.7537004058338269</v>
       </c>
       <c r="J143">
-        <v>9</v>
+        <v>1853.586328808054</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5018,19 +5018,19 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <v>0.06900000000000001</v>
+        <v>0.031</v>
       </c>
       <c r="G144">
-        <v>0.4316810207181333</v>
+        <v>26</v>
       </c>
       <c r="H144">
-        <v>0.7442414235760261</v>
+        <v>0.4024949487780538</v>
       </c>
       <c r="I144">
-        <v>1809.614473448209</v>
+        <v>0.8136509031555808</v>
       </c>
       <c r="J144">
-        <v>8</v>
+        <v>2429.933017521397</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5050,19 +5050,19 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="G145">
-        <v>0.384154731014739</v>
+        <v>5</v>
       </c>
       <c r="H145">
-        <v>0.8585772801506634</v>
+        <v>0.3840524704216897</v>
       </c>
       <c r="I145">
-        <v>1554.354577191204</v>
+        <v>0.8599345511052935</v>
       </c>
       <c r="J145">
-        <v>5</v>
+        <v>1554.809921331</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5082,19 +5082,19 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>0.034</v>
+        <v>0.17</v>
       </c>
       <c r="G146">
-        <v>0.432635661598167</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>0.7348427738992483</v>
+        <v>0.4327422396475816</v>
       </c>
       <c r="I146">
-        <v>2534.107783487381</v>
+        <v>0.7974936508421036</v>
       </c>
       <c r="J146">
-        <v>23</v>
+        <v>1544.435728368773</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5114,19 +5114,19 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <v>0.141</v>
+        <v>0.17</v>
       </c>
       <c r="G147">
-        <v>0.3659743041334598</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>0.9101020426335961</v>
+        <v>0.4327422396475816</v>
       </c>
       <c r="I147">
-        <v>1384.050465142398</v>
+        <v>0.7974936508421036</v>
       </c>
       <c r="J147">
-        <v>4</v>
+        <v>1544.435728368773</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5146,19 +5146,19 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>0.117</v>
+        <v>0.153</v>
       </c>
       <c r="G148">
-        <v>0.4050955999441753</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>0.7149146404623264</v>
+        <v>0.3588389589063677</v>
       </c>
       <c r="I148">
-        <v>1565.886935988425</v>
+        <v>0.9236422681405065</v>
       </c>
       <c r="J148">
-        <v>7</v>
+        <v>1374.520599125597</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5178,19 +5178,19 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <v>0.129</v>
+        <v>0.155</v>
       </c>
       <c r="G149">
-        <v>0.3745911750352274</v>
+        <v>4</v>
       </c>
       <c r="H149">
-        <v>0.8671360025956466</v>
+        <v>0.3643172614583399</v>
       </c>
       <c r="I149">
-        <v>1404.943042685166</v>
+        <v>0.9154478231626559</v>
       </c>
       <c r="J149">
-        <v>6</v>
+        <v>1389.669987551804</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5210,19 +5210,19 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>0.154</v>
+        <v>0.017</v>
       </c>
       <c r="G150">
-        <v>0.3643172614583399</v>
+        <v>68</v>
       </c>
       <c r="H150">
-        <v>0.9154478231626559</v>
+        <v>0.3869798520821705</v>
       </c>
       <c r="I150">
-        <v>1389.669987551804</v>
+        <v>0.7861574815491191</v>
       </c>
       <c r="J150">
-        <v>4</v>
+        <v>2403.894665369649</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5242,19 +5242,19 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <v>0.196</v>
+        <v>0.149</v>
       </c>
       <c r="G151">
-        <v>0.4403008636728879</v>
+        <v>4</v>
       </c>
       <c r="H151">
-        <v>0.7864873088740013</v>
+        <v>0.3598226446675033</v>
       </c>
       <c r="I151">
-        <v>1594.4454037041</v>
+        <v>0.9234016853639861</v>
       </c>
       <c r="J151">
-        <v>3</v>
+        <v>1377.316025161665</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5274,19 +5274,19 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <v>0.182</v>
+        <v>0.152</v>
       </c>
       <c r="G152">
-        <v>0.4340758647996532</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <v>0.7929929270751138</v>
+        <v>0.3588389589063677</v>
       </c>
       <c r="I152">
-        <v>1551.428089019597</v>
+        <v>0.9236422681405065</v>
       </c>
       <c r="J152">
-        <v>3</v>
+        <v>1374.520599125597</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5306,19 +5306,19 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>0.156</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G153">
-        <v>0.431688983412735</v>
+        <v>9</v>
       </c>
       <c r="H153">
-        <v>0.8013879132883913</v>
+        <v>0.407934388200516</v>
       </c>
       <c r="I153">
-        <v>1539.224460013404</v>
+        <v>0.7965799369202053</v>
       </c>
       <c r="J153">
-        <v>3</v>
+        <v>1752.434195144026</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5338,19 +5338,19 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>0.035</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G154">
-        <v>0.432635661598167</v>
+        <v>8</v>
       </c>
       <c r="H154">
-        <v>0.7348427738992483</v>
+        <v>0.385804725062726</v>
       </c>
       <c r="I154">
-        <v>2534.107783487381</v>
+        <v>0.7563358775100728</v>
       </c>
       <c r="J154">
-        <v>23</v>
+        <v>1490.15185795025</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5370,19 +5370,19 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>0.145</v>
+        <v>0.075</v>
       </c>
       <c r="G155">
-        <v>0.3658234311897773</v>
+        <v>9</v>
       </c>
       <c r="H155">
-        <v>0.9086753821749669</v>
+        <v>0.3978507097542934</v>
       </c>
       <c r="I155">
-        <v>1386.129075023746</v>
+        <v>0.8003122010493025</v>
       </c>
       <c r="J155">
-        <v>4</v>
+        <v>1680.183676034664</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5402,19 +5402,19 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <v>0.027</v>
+        <v>0.081</v>
       </c>
       <c r="G156">
-        <v>0.4020571220690696</v>
+        <v>8</v>
       </c>
       <c r="H156">
-        <v>0.7760326483615643</v>
+        <v>0.435424748935001</v>
       </c>
       <c r="I156">
-        <v>2351.29367851714</v>
+        <v>0.7554569806821261</v>
       </c>
       <c r="J156">
-        <v>29</v>
+        <v>1855.869306121497</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5434,19 +5434,19 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>0.139</v>
+        <v>0.116</v>
       </c>
       <c r="G157">
-        <v>0.3665460914275575</v>
+        <v>7</v>
       </c>
       <c r="H157">
-        <v>0.9176690110106419</v>
+        <v>0.4050955999441753</v>
       </c>
       <c r="I157">
-        <v>1371.616447562136</v>
+        <v>0.7149146404623264</v>
       </c>
       <c r="J157">
-        <v>4</v>
+        <v>1565.886935988425</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5466,19 +5466,19 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="G158">
-        <v>0.4327168877194554</v>
+        <v>3</v>
       </c>
       <c r="H158">
-        <v>0.7972603150153036</v>
+        <v>0.4340758647996532</v>
       </c>
       <c r="I158">
-        <v>1545.479505246605</v>
+        <v>0.7929929270751138</v>
       </c>
       <c r="J158">
-        <v>3</v>
+        <v>1551.428089019597</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5498,19 +5498,19 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>0.037</v>
+        <v>0.15</v>
       </c>
       <c r="G159">
-        <v>0.4371221677106308</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <v>0.7658128764595729</v>
+        <v>0.3643810932636461</v>
       </c>
       <c r="I159">
-        <v>2464.721330254739</v>
+        <v>0.9133409187976351</v>
       </c>
       <c r="J159">
-        <v>21</v>
+        <v>1391.467090144286</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5530,19 +5530,19 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>0.063</v>
+        <v>0.122</v>
       </c>
       <c r="G160">
-        <v>0.4450762113673827</v>
+        <v>7</v>
       </c>
       <c r="H160">
-        <v>0.716213701630627</v>
+        <v>0.4192803609486845</v>
       </c>
       <c r="I160">
-        <v>1986.557240724747</v>
+        <v>0.7456676435955863</v>
       </c>
       <c r="J160">
-        <v>9</v>
+        <v>1657.751843371793</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5562,19 +5562,19 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <v>0.038</v>
+        <v>0.115</v>
       </c>
       <c r="G161">
-        <v>0.453541303911752</v>
+        <v>7</v>
       </c>
       <c r="H161">
-        <v>0.7193543367801157</v>
+        <v>0.4171760470269134</v>
       </c>
       <c r="I161">
-        <v>2578.423300986654</v>
+        <v>0.7168434388833892</v>
       </c>
       <c r="J161">
-        <v>19</v>
+        <v>1592.02076772739</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5594,19 +5594,19 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <v>0.061</v>
+        <v>0.322</v>
       </c>
       <c r="G162">
-        <v>0.5204223434383415</v>
+        <v>3</v>
       </c>
       <c r="H162">
-        <v>0.5684809788682974</v>
+        <v>0.6055902423848654</v>
       </c>
       <c r="I162">
-        <v>3911.477948859085</v>
+        <v>0.4988368157599806</v>
       </c>
       <c r="J162">
-        <v>9</v>
+        <v>1461.433084427958</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5626,19 +5626,19 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <v>0.148</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G163">
-        <v>0.5586352798405207</v>
+        <v>7</v>
       </c>
       <c r="H163">
-        <v>0.4659367757480283</v>
+        <v>0.5223471972197865</v>
       </c>
       <c r="I163">
-        <v>2469.180908868008</v>
+        <v>0.595250863309716</v>
       </c>
       <c r="J163">
-        <v>5</v>
+        <v>3556.406986582048</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5658,19 +5658,19 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>0.28</v>
+        <v>0.168</v>
       </c>
       <c r="G164">
-        <v>0.6055902423848654</v>
+        <v>5</v>
       </c>
       <c r="H164">
-        <v>0.4988368157599806</v>
+        <v>0.557214642486938</v>
       </c>
       <c r="I164">
-        <v>1461.433084427958</v>
+        <v>0.4674845510720911</v>
       </c>
       <c r="J164">
-        <v>3</v>
+        <v>2469.324303897786</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5690,19 +5690,19 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <v>0.226</v>
+        <v>0.097</v>
       </c>
       <c r="G165">
-        <v>0.6055902423848654</v>
+        <v>7</v>
       </c>
       <c r="H165">
-        <v>0.4988368157599806</v>
+        <v>0.5213429828932239</v>
       </c>
       <c r="I165">
-        <v>1461.433084427958</v>
+        <v>0.5966179878951519</v>
       </c>
       <c r="J165">
-        <v>3</v>
+        <v>3553.697199676041</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5722,19 +5722,19 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <v>0.038</v>
+        <v>0.046</v>
       </c>
       <c r="G166">
-        <v>0.4752615864348114</v>
+        <v>10</v>
       </c>
       <c r="H166">
-        <v>0.673275365591409</v>
+        <v>0.5134499286197397</v>
       </c>
       <c r="I166">
-        <v>5055.940322480932</v>
+        <v>0.6016697920052938</v>
       </c>
       <c r="J166">
-        <v>17</v>
+        <v>4109.568949529182</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5754,19 +5754,19 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>0.152</v>
+        <v>0.329</v>
       </c>
       <c r="G167">
-        <v>0.5584438916732645</v>
+        <v>3</v>
       </c>
       <c r="H167">
-        <v>0.4660408901586302</v>
+        <v>0.6055902423848654</v>
       </c>
       <c r="I167">
-        <v>2469.814026235199</v>
+        <v>0.4988368157599806</v>
       </c>
       <c r="J167">
-        <v>5</v>
+        <v>1461.433084427958</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5786,19 +5786,19 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <v>0.267</v>
+        <v>0.248</v>
       </c>
       <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
         <v>0.6055902423848654</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>0.4988368157599806</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>1461.433084427958</v>
-      </c>
-      <c r="J168">
-        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -5818,19 +5818,19 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <v>0.186</v>
+        <v>0.146</v>
       </c>
       <c r="G169">
-        <v>0.5621494301256063</v>
+        <v>5</v>
       </c>
       <c r="H169">
-        <v>0.3659362494707434</v>
+        <v>0.5586352798405207</v>
       </c>
       <c r="I169">
-        <v>1056.65917087345</v>
+        <v>0.4659367757480283</v>
       </c>
       <c r="J169">
-        <v>4</v>
+        <v>2469.180908868008</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -5850,19 +5850,19 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <v>0.281</v>
+        <v>0.014</v>
       </c>
       <c r="G170">
-        <v>0.6055902423848654</v>
+        <v>74</v>
       </c>
       <c r="H170">
-        <v>0.4988368157599806</v>
+        <v>0.4567236684700268</v>
       </c>
       <c r="I170">
-        <v>1461.433084427958</v>
+        <v>0.7064210098147927</v>
       </c>
       <c r="J170">
-        <v>3</v>
+        <v>6977.608873192687</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -5882,19 +5882,19 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <v>0.243</v>
+        <v>0.283</v>
       </c>
       <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
         <v>0.6055902423848654</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>0.4988368157599806</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>1461.433084427958</v>
-      </c>
-      <c r="J171">
-        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -5914,19 +5914,19 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>0.333</v>
+        <v>0.159</v>
       </c>
       <c r="G172">
-        <v>0.6055902423848654</v>
+        <v>5</v>
       </c>
       <c r="H172">
-        <v>0.4988368157599806</v>
+        <v>0.5543139044818742</v>
       </c>
       <c r="I172">
-        <v>1461.433084427958</v>
+        <v>0.4710977021747471</v>
       </c>
       <c r="J172">
-        <v>3</v>
+        <v>2461.502226799822</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -5946,19 +5946,19 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>0.07099999999999999</v>
+        <v>0.323</v>
       </c>
       <c r="G173">
-        <v>0.5114480900273672</v>
+        <v>3</v>
       </c>
       <c r="H173">
-        <v>0.6005849549115835</v>
+        <v>0.6055902423848654</v>
       </c>
       <c r="I173">
-        <v>4066.110055555296</v>
+        <v>0.4988368157599806</v>
       </c>
       <c r="J173">
-        <v>9</v>
+        <v>1461.433084427958</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -5978,19 +5978,19 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>0.275</v>
+        <v>0.044</v>
       </c>
       <c r="G174">
-        <v>0.6055902423848654</v>
+        <v>10</v>
       </c>
       <c r="H174">
-        <v>0.4988368157599806</v>
+        <v>0.4942548006972991</v>
       </c>
       <c r="I174">
-        <v>1461.433084427958</v>
+        <v>0.6272758471354674</v>
       </c>
       <c r="J174">
-        <v>3</v>
+        <v>3966.963194479843</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6010,19 +6010,19 @@
         <v>2</v>
       </c>
       <c r="F175">
-        <v>0.333</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G175">
-        <v>0.6055902423848654</v>
+        <v>8</v>
       </c>
       <c r="H175">
-        <v>0.4988368157599806</v>
+        <v>0.5115696548210636</v>
       </c>
       <c r="I175">
-        <v>1461.433084427958</v>
+        <v>0.5876502103434776</v>
       </c>
       <c r="J175">
-        <v>3</v>
+        <v>3997.45704583845</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6042,19 +6042,19 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <v>0.247</v>
+        <v>0.289</v>
       </c>
       <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
         <v>0.6055902423848654</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>0.4988368157599806</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>1461.433084427958</v>
-      </c>
-      <c r="J176">
-        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6074,19 +6074,19 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>0.152</v>
+        <v>0.267</v>
       </c>
       <c r="G177">
-        <v>0.5584438916732645</v>
+        <v>3</v>
       </c>
       <c r="H177">
-        <v>0.4660408901586302</v>
+        <v>0.6055902423848654</v>
       </c>
       <c r="I177">
-        <v>2469.814026235199</v>
+        <v>0.4988368157599806</v>
       </c>
       <c r="J177">
-        <v>5</v>
+        <v>1461.433084427958</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6106,19 +6106,19 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <v>0.127</v>
+        <v>0.023</v>
       </c>
       <c r="G178">
-        <v>0.5593045331513775</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>0.464891493500355</v>
+        <v>0.4517290787627507</v>
       </c>
       <c r="I178">
-        <v>2464.377799507</v>
+        <v>0.725654425958026</v>
       </c>
       <c r="J178">
-        <v>5</v>
+        <v>6506.712012064081</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6138,19 +6138,19 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>0.038</v>
+        <v>0.103</v>
       </c>
       <c r="G179">
-        <v>0.4752615864348114</v>
+        <v>7</v>
       </c>
       <c r="H179">
-        <v>0.673275365591409</v>
+        <v>0.5204340908064635</v>
       </c>
       <c r="I179">
-        <v>5055.940322480932</v>
+        <v>0.6006499459888552</v>
       </c>
       <c r="J179">
-        <v>17</v>
+        <v>3559.594129771775</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6170,19 +6170,19 @@
         <v>2</v>
       </c>
       <c r="F180">
-        <v>0.061</v>
+        <v>0.097</v>
       </c>
       <c r="G180">
-        <v>0.5204223434383415</v>
+        <v>7</v>
       </c>
       <c r="H180">
-        <v>0.5684809788682974</v>
+        <v>0.5213429828932239</v>
       </c>
       <c r="I180">
-        <v>3911.477948859085</v>
+        <v>0.5966179878951519</v>
       </c>
       <c r="J180">
-        <v>9</v>
+        <v>3553.697199676041</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6202,19 +6202,19 @@
         <v>2</v>
       </c>
       <c r="F181">
-        <v>0.056</v>
+        <v>0.323</v>
       </c>
       <c r="G181">
-        <v>0.5103719995988775</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>0.5971965203645891</v>
+        <v>0.6055902423848654</v>
       </c>
       <c r="I181">
-        <v>3946.6162436414</v>
+        <v>0.4988368157599806</v>
       </c>
       <c r="J181">
-        <v>10</v>
+        <v>1461.433084427958</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6234,19 +6234,19 @@
         <v>17</v>
       </c>
       <c r="F182">
-        <v>0.23</v>
+        <v>0.034</v>
       </c>
       <c r="G182">
-        <v>0.0595088707150568</v>
+        <v>93</v>
       </c>
       <c r="H182">
-        <v>1.133282332786748</v>
+        <v>0.1166784039195707</v>
       </c>
       <c r="I182">
-        <v>19.81595388188136</v>
+        <v>0.9581346984776119</v>
       </c>
       <c r="J182">
-        <v>30</v>
+        <v>38.95675690418744</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6266,19 +6266,19 @@
         <v>17</v>
       </c>
       <c r="F183">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="G183">
-        <v>0.2232140043130719</v>
+        <v>21</v>
       </c>
       <c r="H183">
-        <v>1.068894466919267</v>
+        <v>0.2080722966090829</v>
       </c>
       <c r="I183">
-        <v>21.28030626193287</v>
+        <v>1.076874824104614</v>
       </c>
       <c r="J183">
-        <v>20</v>
+        <v>21.8846666567621</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6298,19 +6298,19 @@
         <v>17</v>
       </c>
       <c r="F184">
-        <v>0.189</v>
+        <v>0.296</v>
       </c>
       <c r="G184">
-        <v>0.05726503076024473</v>
+        <v>24</v>
       </c>
       <c r="H184">
-        <v>1.155752726719627</v>
+        <v>0.1805324720287575</v>
       </c>
       <c r="I184">
-        <v>21.2052724860975</v>
+        <v>0.992705592209535</v>
       </c>
       <c r="J184">
-        <v>32</v>
+        <v>20.43275771077377</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6330,19 +6330,19 @@
         <v>17</v>
       </c>
       <c r="F185">
-        <v>0.24</v>
+        <v>0.304</v>
       </c>
       <c r="G185">
-        <v>0.06227697432375574</v>
+        <v>23</v>
       </c>
       <c r="H185">
-        <v>0.9477275850440481</v>
+        <v>0.167945551751367</v>
       </c>
       <c r="I185">
-        <v>19.66437936905698</v>
+        <v>0.8757379759953569</v>
       </c>
       <c r="J185">
-        <v>29</v>
+        <v>21.5953498438488</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6362,19 +6362,19 @@
         <v>17</v>
       </c>
       <c r="F186">
-        <v>0.338</v>
+        <v>0.129</v>
       </c>
       <c r="G186">
-        <v>0.2080722966090829</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>1.076874824104614</v>
+        <v>0.06064304146077273</v>
       </c>
       <c r="I186">
-        <v>21.8846666567621</v>
+        <v>1.139614688764889</v>
       </c>
       <c r="J186">
-        <v>21</v>
+        <v>27.46549433711025</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6394,19 +6394,19 @@
         <v>17</v>
       </c>
       <c r="F187">
-        <v>0.098</v>
+        <v>0.103</v>
       </c>
       <c r="G187">
-        <v>0.06015939093604131</v>
+        <v>52</v>
       </c>
       <c r="H187">
-        <v>1.089060296671188</v>
+        <v>0.03716091023350766</v>
       </c>
       <c r="I187">
-        <v>34.92881682626187</v>
+        <v>1.14905647439189</v>
       </c>
       <c r="J187">
-        <v>56</v>
+        <v>30.56771344571249</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6426,19 +6426,19 @@
         <v>17</v>
       </c>
       <c r="F188">
-        <v>0.043</v>
+        <v>0.018</v>
       </c>
       <c r="G188">
-        <v>0.09048870913827141</v>
+        <v>143</v>
       </c>
       <c r="H188">
-        <v>1.042788767705903</v>
+        <v>0.056251312899738</v>
       </c>
       <c r="I188">
-        <v>39.77397301061861</v>
+        <v>0.8929268434983636</v>
       </c>
       <c r="J188">
-        <v>85</v>
+        <v>35.11329772412022</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6458,19 +6458,19 @@
         <v>17</v>
       </c>
       <c r="F189">
-        <v>0.244</v>
+        <v>0.073</v>
       </c>
       <c r="G189">
-        <v>0.06650783151874197</v>
+        <v>63</v>
       </c>
       <c r="H189">
-        <v>0.940504810769483</v>
+        <v>0.04986644358503166</v>
       </c>
       <c r="I189">
-        <v>19.73419075436637</v>
+        <v>1.042529729640016</v>
       </c>
       <c r="J189">
-        <v>28</v>
+        <v>34.823421250671</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6490,19 +6490,19 @@
         <v>17</v>
       </c>
       <c r="F190">
-        <v>0.186</v>
+        <v>0.282</v>
       </c>
       <c r="G190">
-        <v>0.05726503076024473</v>
+        <v>21</v>
       </c>
       <c r="H190">
-        <v>1.155752726719627</v>
+        <v>0.2700808457028831</v>
       </c>
       <c r="I190">
-        <v>21.2052724860975</v>
+        <v>0.9260923883428961</v>
       </c>
       <c r="J190">
-        <v>32</v>
+        <v>21.02689529216019</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6522,19 +6522,19 @@
         <v>17</v>
       </c>
       <c r="F191">
-        <v>0.315</v>
+        <v>0.019</v>
       </c>
       <c r="G191">
-        <v>0.1665515071096731</v>
+        <v>143</v>
       </c>
       <c r="H191">
-        <v>0.9517572009382833</v>
+        <v>0.056251312899738</v>
       </c>
       <c r="I191">
-        <v>23.63711131082128</v>
+        <v>0.8929268434983636</v>
       </c>
       <c r="J191">
-        <v>21</v>
+        <v>35.11329772412022</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6554,19 +6554,19 @@
         <v>17</v>
       </c>
       <c r="F192">
-        <v>0.113</v>
+        <v>0.123</v>
       </c>
       <c r="G192">
-        <v>0.03382916812361256</v>
+        <v>43</v>
       </c>
       <c r="H192">
-        <v>1.090134736701472</v>
+        <v>0.06204101731669924</v>
       </c>
       <c r="I192">
-        <v>26.01741352741662</v>
+        <v>1.106108758481938</v>
       </c>
       <c r="J192">
-        <v>47</v>
+        <v>26.68394397301342</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6586,19 +6586,19 @@
         <v>17</v>
       </c>
       <c r="F193">
-        <v>0.01</v>
+        <v>0.111</v>
       </c>
       <c r="G193">
-        <v>0.1053768811751725</v>
+        <v>47</v>
       </c>
       <c r="H193">
-        <v>0.8974924207664051</v>
+        <v>0.03345605512981999</v>
       </c>
       <c r="I193">
-        <v>39.52445522255083</v>
+        <v>1.090244477827739</v>
       </c>
       <c r="J193">
-        <v>175</v>
+        <v>25.94297493757245</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6618,19 +6618,19 @@
         <v>17</v>
       </c>
       <c r="F194">
-        <v>0.163</v>
+        <v>0.304</v>
       </c>
       <c r="G194">
-        <v>0.05712356527616536</v>
+        <v>23</v>
       </c>
       <c r="H194">
-        <v>1.178422722085171</v>
+        <v>0.167945551751367</v>
       </c>
       <c r="I194">
-        <v>31.37175546603381</v>
+        <v>0.8757379759953569</v>
       </c>
       <c r="J194">
-        <v>33</v>
+        <v>21.5953498438488</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6650,19 +6650,19 @@
         <v>17</v>
       </c>
       <c r="F195">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="G195">
-        <v>0.2232140043130719</v>
+        <v>21</v>
       </c>
       <c r="H195">
-        <v>1.068894466919267</v>
+        <v>0.1665515071096731</v>
       </c>
       <c r="I195">
-        <v>21.28030626193287</v>
+        <v>0.9517572009382833</v>
       </c>
       <c r="J195">
-        <v>20</v>
+        <v>23.63711131082128</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -6682,19 +6682,19 @@
         <v>17</v>
       </c>
       <c r="F196">
-        <v>0.345</v>
+        <v>0.152</v>
       </c>
       <c r="G196">
-        <v>0.2232140043130719</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>1.068894466919267</v>
+        <v>0.06246370250731541</v>
       </c>
       <c r="I196">
-        <v>21.28030626193287</v>
+        <v>1.287615945718348</v>
       </c>
       <c r="J196">
-        <v>20</v>
+        <v>31.59612423361621</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6714,19 +6714,19 @@
         <v>17</v>
       </c>
       <c r="F197">
-        <v>0.055</v>
+        <v>0.237</v>
       </c>
       <c r="G197">
-        <v>0.1505888746182028</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>1.054695008866479</v>
+        <v>0.06265352449208295</v>
       </c>
       <c r="I197">
-        <v>40.85987816817656</v>
+        <v>0.9780906382880109</v>
       </c>
       <c r="J197">
-        <v>77</v>
+        <v>19.55441718681224</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6746,19 +6746,19 @@
         <v>17</v>
       </c>
       <c r="F198">
-        <v>0.139</v>
+        <v>0.338</v>
       </c>
       <c r="G198">
-        <v>0.06298844925954733</v>
+        <v>21</v>
       </c>
       <c r="H198">
-        <v>1.277709451744601</v>
+        <v>0.2080722966090829</v>
       </c>
       <c r="I198">
-        <v>29.76323663689497</v>
+        <v>1.076874824104614</v>
       </c>
       <c r="J198">
-        <v>36</v>
+        <v>21.8846666567621</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6778,19 +6778,19 @@
         <v>17</v>
       </c>
       <c r="F199">
-        <v>0.214</v>
+        <v>0.132</v>
       </c>
       <c r="G199">
-        <v>0.07494559016454802</v>
+        <v>38</v>
       </c>
       <c r="H199">
-        <v>1.073322841952818</v>
+        <v>0.06063314634807139</v>
       </c>
       <c r="I199">
-        <v>19.46692746308352</v>
+        <v>1.174404938131905</v>
       </c>
       <c r="J199">
-        <v>31</v>
+        <v>29.2241849994609</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -6810,19 +6810,19 @@
         <v>17</v>
       </c>
       <c r="F200">
-        <v>0.054</v>
+        <v>0.227</v>
       </c>
       <c r="G200">
-        <v>0.1505888746182028</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>1.054695008866479</v>
+        <v>0.07503612126143824</v>
       </c>
       <c r="I200">
-        <v>40.85987816817656</v>
+        <v>1.140863247228485</v>
       </c>
       <c r="J200">
-        <v>77</v>
+        <v>19.15789864014684</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -6842,19 +6842,19 @@
         <v>17</v>
       </c>
       <c r="F201">
-        <v>0.053</v>
+        <v>0.057</v>
       </c>
       <c r="G201">
-        <v>0.1474902180269436</v>
+        <v>76</v>
       </c>
       <c r="H201">
-        <v>1.043295505542533</v>
+        <v>0.09046800374030388</v>
       </c>
       <c r="I201">
-        <v>40.95968779372352</v>
+        <v>1.034054464885241</v>
       </c>
       <c r="J201">
-        <v>80</v>
+        <v>36.79641614228188</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -6874,19 +6874,19 @@
         <v>17</v>
       </c>
       <c r="F202">
-        <v>0.207</v>
+        <v>0.292</v>
       </c>
       <c r="G202">
-        <v>0.4155920704955656</v>
+        <v>75</v>
       </c>
       <c r="H202">
-        <v>0.588392580781084</v>
+        <v>0.4960147561458686</v>
       </c>
       <c r="I202">
-        <v>121.4712828015789</v>
+        <v>0.5280190274665707</v>
       </c>
       <c r="J202">
-        <v>79</v>
+        <v>125.3521181356758</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -6906,19 +6906,19 @@
         <v>17</v>
       </c>
       <c r="F203">
-        <v>0.01</v>
+        <v>0.314</v>
       </c>
       <c r="G203">
-        <v>0.2194470921307707</v>
+        <v>74</v>
       </c>
       <c r="H203">
-        <v>0.6516920236216188</v>
+        <v>0.4997554570799069</v>
       </c>
       <c r="I203">
-        <v>109.4072458932133</v>
+        <v>0.5272024894633216</v>
       </c>
       <c r="J203">
-        <v>166</v>
+        <v>124.6545654810836</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -6938,19 +6938,19 @@
         <v>17</v>
       </c>
       <c r="F204">
-        <v>0.346</v>
+        <v>0.191</v>
       </c>
       <c r="G204">
-        <v>0.5070021840255258</v>
+        <v>79</v>
       </c>
       <c r="H204">
-        <v>0.5492721708864594</v>
+        <v>0.4155920704955656</v>
       </c>
       <c r="I204">
-        <v>125.9661235856545</v>
+        <v>0.588392580781084</v>
       </c>
       <c r="J204">
-        <v>72</v>
+        <v>121.4712828015789</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -6970,19 +6970,19 @@
         <v>17</v>
       </c>
       <c r="F205">
-        <v>0.207</v>
+        <v>0.016</v>
       </c>
       <c r="G205">
-        <v>0.4155920704955656</v>
+        <v>142</v>
       </c>
       <c r="H205">
-        <v>0.588392580781084</v>
+        <v>0.2921367824892049</v>
       </c>
       <c r="I205">
-        <v>121.4712828015789</v>
+        <v>0.6079899295792128</v>
       </c>
       <c r="J205">
-        <v>79</v>
+        <v>109.0102711206636</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7002,19 +7002,19 @@
         <v>17</v>
       </c>
       <c r="F206">
-        <v>0.232</v>
+        <v>0.168</v>
       </c>
       <c r="G206">
-        <v>0.4140530792413702</v>
+        <v>81</v>
       </c>
       <c r="H206">
-        <v>0.5462252875078399</v>
+        <v>0.4156655292075204</v>
       </c>
       <c r="I206">
-        <v>121.865042802909</v>
+        <v>0.5912796958901464</v>
       </c>
       <c r="J206">
-        <v>81</v>
+        <v>119.3047890853004</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7034,19 +7034,19 @@
         <v>17</v>
       </c>
       <c r="F207">
-        <v>0.107</v>
+        <v>0.028</v>
       </c>
       <c r="G207">
-        <v>0.4098527770304544</v>
+        <v>119</v>
       </c>
       <c r="H207">
-        <v>0.6181866004766878</v>
+        <v>0.3514107287922954</v>
       </c>
       <c r="I207">
-        <v>120.9206091459244</v>
+        <v>0.5401143042893417</v>
       </c>
       <c r="J207">
-        <v>86</v>
+        <v>120.4955052537186</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7066,19 +7066,19 @@
         <v>17</v>
       </c>
       <c r="F208">
-        <v>0.228</v>
+        <v>0.092</v>
       </c>
       <c r="G208">
-        <v>0.4140530792413702</v>
+        <v>88</v>
       </c>
       <c r="H208">
-        <v>0.5462252875078399</v>
+        <v>0.406371386490788</v>
       </c>
       <c r="I208">
-        <v>121.865042802909</v>
+        <v>0.5471587888939505</v>
       </c>
       <c r="J208">
-        <v>81</v>
+        <v>122.0376126277483</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7098,19 +7098,19 @@
         <v>17</v>
       </c>
       <c r="F209">
-        <v>0.08699999999999999</v>
+        <v>0.343</v>
       </c>
       <c r="G209">
-        <v>0.4144994274726927</v>
+        <v>72</v>
       </c>
       <c r="H209">
-        <v>0.6394808634104283</v>
+        <v>0.5070021840255258</v>
       </c>
       <c r="I209">
-        <v>121.599844495928</v>
+        <v>0.5492721708864594</v>
       </c>
       <c r="J209">
-        <v>88</v>
+        <v>125.9661235856545</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7130,19 +7130,19 @@
         <v>17</v>
       </c>
       <c r="F210">
-        <v>0.197</v>
+        <v>0.016</v>
       </c>
       <c r="G210">
-        <v>0.4155920704955656</v>
+        <v>142</v>
       </c>
       <c r="H210">
-        <v>0.588392580781084</v>
+        <v>0.2921367824892049</v>
       </c>
       <c r="I210">
-        <v>121.4712828015789</v>
+        <v>0.6079899295792128</v>
       </c>
       <c r="J210">
-        <v>79</v>
+        <v>109.0102711206636</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7162,19 +7162,19 @@
         <v>17</v>
       </c>
       <c r="F211">
-        <v>0.104</v>
+        <v>0.145</v>
       </c>
       <c r="G211">
-        <v>0.4087375994709913</v>
+        <v>83</v>
       </c>
       <c r="H211">
-        <v>0.550528527061646</v>
+        <v>0.407571970510715</v>
       </c>
       <c r="I211">
-        <v>121.845469973891</v>
+        <v>0.6106879090542536</v>
       </c>
       <c r="J211">
-        <v>88</v>
+        <v>123.1073556200627</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7194,19 +7194,19 @@
         <v>17</v>
       </c>
       <c r="F212">
-        <v>0.179</v>
+        <v>0.134</v>
       </c>
       <c r="G212">
-        <v>0.4155761541867596</v>
+        <v>84</v>
       </c>
       <c r="H212">
-        <v>0.600141836677244</v>
+        <v>0.4074043180658806</v>
       </c>
       <c r="I212">
-        <v>120.5094609650134</v>
+        <v>0.6189569146590006</v>
       </c>
       <c r="J212">
-        <v>80</v>
+        <v>122.0132772272417</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7226,19 +7226,19 @@
         <v>17</v>
       </c>
       <c r="F213">
-        <v>0.214</v>
+        <v>0.126</v>
       </c>
       <c r="G213">
-        <v>0.4155794611035328</v>
+        <v>86</v>
       </c>
       <c r="H213">
-        <v>0.5124119274484092</v>
+        <v>0.4095574131326026</v>
       </c>
       <c r="I213">
-        <v>123.0220681895416</v>
+        <v>0.6060263186461967</v>
       </c>
       <c r="J213">
-        <v>80</v>
+        <v>120.7008827582133</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7258,19 +7258,19 @@
         <v>17</v>
       </c>
       <c r="F214">
-        <v>0.251</v>
+        <v>0.285</v>
       </c>
       <c r="G214">
-        <v>0.4140530792413702</v>
+        <v>76</v>
       </c>
       <c r="H214">
-        <v>0.5462252875078399</v>
+        <v>0.4957170963041621</v>
       </c>
       <c r="I214">
-        <v>121.865042802909</v>
+        <v>0.5448619223986689</v>
       </c>
       <c r="J214">
-        <v>81</v>
+        <v>123.9031534079999</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7290,19 +7290,19 @@
         <v>17</v>
       </c>
       <c r="F215">
-        <v>0.073</v>
+        <v>0.326</v>
       </c>
       <c r="G215">
-        <v>0.4221753581186549</v>
+        <v>74</v>
       </c>
       <c r="H215">
-        <v>0.5555500209852614</v>
+        <v>0.4997554570799069</v>
       </c>
       <c r="I215">
-        <v>128.8448123136666</v>
+        <v>0.5272024894633216</v>
       </c>
       <c r="J215">
-        <v>88</v>
+        <v>124.6545654810836</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7322,19 +7322,19 @@
         <v>17</v>
       </c>
       <c r="F216">
-        <v>0.151</v>
+        <v>0.051</v>
       </c>
       <c r="G216">
-        <v>0.407571970510715</v>
+        <v>103</v>
       </c>
       <c r="H216">
-        <v>0.6106879090542536</v>
+        <v>0.3993488834373844</v>
       </c>
       <c r="I216">
-        <v>123.1073556200627</v>
+        <v>0.5713153664019077</v>
       </c>
       <c r="J216">
-        <v>83</v>
+        <v>125.6332258629412</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7354,19 +7354,19 @@
         <v>17</v>
       </c>
       <c r="F217">
-        <v>0.186</v>
+        <v>0.022</v>
       </c>
       <c r="G217">
-        <v>0.4133171928908778</v>
+        <v>123</v>
       </c>
       <c r="H217">
-        <v>0.6009588046454029</v>
+        <v>0.3140939356633921</v>
       </c>
       <c r="I217">
-        <v>119.760871563471</v>
+        <v>0.5864304452987051</v>
       </c>
       <c r="J217">
-        <v>80</v>
+        <v>117.6925030041735</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7386,19 +7386,19 @@
         <v>17</v>
       </c>
       <c r="F218">
-        <v>0.346</v>
+        <v>0.223</v>
       </c>
       <c r="G218">
-        <v>0.5070021840255258</v>
+        <v>80</v>
       </c>
       <c r="H218">
-        <v>0.5492721708864594</v>
+        <v>0.4139637042206092</v>
       </c>
       <c r="I218">
-        <v>125.9661235856545</v>
+        <v>0.5581066456924083</v>
       </c>
       <c r="J218">
-        <v>72</v>
+        <v>123.0895821193834</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7418,19 +7418,19 @@
         <v>17</v>
       </c>
       <c r="F219">
-        <v>0.167</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G219">
-        <v>0.4156655292075204</v>
+        <v>90</v>
       </c>
       <c r="H219">
-        <v>0.5912796958901464</v>
+        <v>0.4143934893553357</v>
       </c>
       <c r="I219">
-        <v>119.3047890853004</v>
+        <v>0.6316923266556707</v>
       </c>
       <c r="J219">
-        <v>81</v>
+        <v>119.1772649124116</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7450,19 +7450,19 @@
         <v>17</v>
       </c>
       <c r="F220">
-        <v>0.244</v>
+        <v>0.052</v>
       </c>
       <c r="G220">
-        <v>0.4140530792413702</v>
+        <v>100</v>
       </c>
       <c r="H220">
-        <v>0.5462252875078399</v>
+        <v>0.3978198361051529</v>
       </c>
       <c r="I220">
-        <v>121.865042802909</v>
+        <v>0.5597504822305944</v>
       </c>
       <c r="J220">
-        <v>81</v>
+        <v>122.8376394773125</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7482,19 +7482,19 @@
         <v>17</v>
       </c>
       <c r="F221">
-        <v>0.204</v>
+        <v>0.33</v>
       </c>
       <c r="G221">
-        <v>0.4155920704955656</v>
+        <v>74</v>
       </c>
       <c r="H221">
-        <v>0.588392580781084</v>
+        <v>0.4997554570799069</v>
       </c>
       <c r="I221">
-        <v>121.4712828015789</v>
+        <v>0.5272024894633216</v>
       </c>
       <c r="J221">
-        <v>79</v>
+        <v>124.6545654810836</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7514,19 +7514,19 @@
         <v>17</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="G222">
-        <v>0.1921833016444232</v>
+        <v>8</v>
       </c>
       <c r="H222">
-        <v>1.320543389834274</v>
+        <v>0.2477224513227947</v>
       </c>
       <c r="I222">
-        <v>37.9880971581334</v>
+        <v>1.236186367562373</v>
       </c>
       <c r="J222">
-        <v>10</v>
+        <v>46.29440903227619</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -7546,19 +7546,19 @@
         <v>17</v>
       </c>
       <c r="F223">
-        <v>0.331</v>
+        <v>0.15</v>
       </c>
       <c r="G223">
-        <v>0.344296008290169</v>
+        <v>8</v>
       </c>
       <c r="H223">
-        <v>0.9582065511150872</v>
+        <v>0.2477224513227947</v>
       </c>
       <c r="I223">
-        <v>59.13959810974204</v>
+        <v>1.236186367562373</v>
       </c>
       <c r="J223">
-        <v>4</v>
+        <v>46.29440903227619</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -7578,19 +7578,19 @@
         <v>17</v>
       </c>
       <c r="F224">
-        <v>0.176</v>
+        <v>0.157</v>
       </c>
       <c r="G224">
-        <v>0.2525324479448612</v>
+        <v>8</v>
       </c>
       <c r="H224">
-        <v>1.252479871981718</v>
+        <v>0.2477224513227947</v>
       </c>
       <c r="I224">
-        <v>53.49486280939004</v>
+        <v>1.236186367562373</v>
       </c>
       <c r="J224">
-        <v>7</v>
+        <v>46.29440903227619</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -7610,19 +7610,19 @@
         <v>17</v>
       </c>
       <c r="F225">
-        <v>0.02</v>
+        <v>0.323</v>
       </c>
       <c r="G225">
-        <v>0.1248647460490228</v>
+        <v>4</v>
       </c>
       <c r="H225">
-        <v>1.640796164386215</v>
+        <v>0.344296008290169</v>
       </c>
       <c r="I225">
-        <v>59.99224973335328</v>
+        <v>0.9582065511150872</v>
       </c>
       <c r="J225">
-        <v>16</v>
+        <v>59.13959810974204</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7642,19 +7642,19 @@
         <v>17</v>
       </c>
       <c r="F226">
-        <v>0.341</v>
+        <v>0.314</v>
       </c>
       <c r="G226">
-        <v>0.344296008290169</v>
+        <v>5</v>
       </c>
       <c r="H226">
-        <v>0.9582065511150872</v>
+        <v>0.3306240783581189</v>
       </c>
       <c r="I226">
-        <v>59.13959810974204</v>
+        <v>1.159834792353647</v>
       </c>
       <c r="J226">
-        <v>4</v>
+        <v>45.8110804098816</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7674,19 +7674,19 @@
         <v>17</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.307</v>
       </c>
       <c r="G227">
-        <v>0.2284065277022039</v>
+        <v>5</v>
       </c>
       <c r="H227">
-        <v>1.215321733022235</v>
+        <v>0.3306240783581189</v>
       </c>
       <c r="I227">
-        <v>41.06817948210654</v>
+        <v>1.159834792353647</v>
       </c>
       <c r="J227">
-        <v>9</v>
+        <v>45.8110804098816</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7706,19 +7706,19 @@
         <v>17</v>
       </c>
       <c r="F228">
-        <v>0.286</v>
+        <v>0.312</v>
       </c>
       <c r="G228">
-        <v>0.3218865887931577</v>
+        <v>5</v>
       </c>
       <c r="H228">
-        <v>1.132801262518449</v>
+        <v>0.3306240783581189</v>
       </c>
       <c r="I228">
-        <v>37.44620369549062</v>
+        <v>1.159834792353647</v>
       </c>
       <c r="J228">
-        <v>6</v>
+        <v>45.8110804098816</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7738,19 +7738,19 @@
         <v>17</v>
       </c>
       <c r="F229">
-        <v>0.263</v>
+        <v>0.302</v>
       </c>
       <c r="G229">
+        <v>6</v>
+      </c>
+      <c r="H229">
         <v>0.3218865887931577</v>
       </c>
-      <c r="H229">
+      <c r="I229">
         <v>1.132801262518449</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>37.44620369549062</v>
-      </c>
-      <c r="J229">
-        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7770,19 +7770,19 @@
         <v>17</v>
       </c>
       <c r="F230">
-        <v>0.018</v>
+        <v>0.348</v>
       </c>
       <c r="G230">
-        <v>0.1089673720672751</v>
+        <v>4</v>
       </c>
       <c r="H230">
-        <v>1.755652044688749</v>
+        <v>0.344296008290169</v>
       </c>
       <c r="I230">
-        <v>55.62224135885346</v>
+        <v>0.9582065511150872</v>
       </c>
       <c r="J230">
-        <v>19</v>
+        <v>59.13959810974204</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -7802,19 +7802,19 @@
         <v>17</v>
       </c>
       <c r="F231">
-        <v>0.249</v>
+        <v>0.319</v>
       </c>
       <c r="G231">
-        <v>0.3218865887931577</v>
+        <v>5</v>
       </c>
       <c r="H231">
-        <v>1.132801262518449</v>
+        <v>0.3306240783581189</v>
       </c>
       <c r="I231">
-        <v>37.44620369549062</v>
+        <v>1.159834792353647</v>
       </c>
       <c r="J231">
-        <v>6</v>
+        <v>45.8110804098816</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -7834,19 +7834,19 @@
         <v>17</v>
       </c>
       <c r="F232">
-        <v>0.277</v>
+        <v>0.115</v>
       </c>
       <c r="G232">
-        <v>0.3218865887931577</v>
+        <v>9</v>
       </c>
       <c r="H232">
-        <v>1.132801262518449</v>
+        <v>0.2284065277022039</v>
       </c>
       <c r="I232">
-        <v>37.44620369549062</v>
+        <v>1.215321733022235</v>
       </c>
       <c r="J232">
-        <v>6</v>
+        <v>41.06817948210654</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -7866,19 +7866,19 @@
         <v>17</v>
       </c>
       <c r="F233">
-        <v>0.297</v>
+        <v>0.102</v>
       </c>
       <c r="G233">
-        <v>0.3218865887931577</v>
+        <v>10</v>
       </c>
       <c r="H233">
-        <v>1.132801262518449</v>
+        <v>0.1921833016444232</v>
       </c>
       <c r="I233">
-        <v>37.44620369549062</v>
+        <v>1.320543389834274</v>
       </c>
       <c r="J233">
-        <v>6</v>
+        <v>37.9880971581334</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -7898,19 +7898,19 @@
         <v>17</v>
       </c>
       <c r="F234">
-        <v>0.266</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G234">
-        <v>0.3218865887931577</v>
+        <v>11</v>
       </c>
       <c r="H234">
-        <v>1.132801262518449</v>
+        <v>0.161344742472883</v>
       </c>
       <c r="I234">
-        <v>37.44620369549062</v>
+        <v>1.290264654367578</v>
       </c>
       <c r="J234">
-        <v>6</v>
+        <v>35.11492909436693</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -7930,19 +7930,19 @@
         <v>17</v>
       </c>
       <c r="F235">
-        <v>0.217</v>
+        <v>0.23</v>
       </c>
       <c r="G235">
+        <v>7</v>
+      </c>
+      <c r="H235">
         <v>0.2677089336896702</v>
       </c>
-      <c r="H235">
+      <c r="I235">
         <v>0.9676842830943065</v>
       </c>
-      <c r="I235">
+      <c r="J235">
         <v>35.98304028739744</v>
-      </c>
-      <c r="J235">
-        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7962,19 +7962,19 @@
         <v>17</v>
       </c>
       <c r="F236">
-        <v>0.247</v>
+        <v>0.341</v>
       </c>
       <c r="G236">
-        <v>0.3218865887931577</v>
+        <v>4</v>
       </c>
       <c r="H236">
-        <v>1.132801262518449</v>
+        <v>0.344296008290169</v>
       </c>
       <c r="I236">
-        <v>37.44620369549062</v>
+        <v>0.9582065511150872</v>
       </c>
       <c r="J236">
-        <v>6</v>
+        <v>59.13959810974204</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -7994,19 +7994,19 @@
         <v>17</v>
       </c>
       <c r="F237">
-        <v>0.336</v>
+        <v>0.173</v>
       </c>
       <c r="G237">
-        <v>0.344296008290169</v>
+        <v>7</v>
       </c>
       <c r="H237">
-        <v>0.9582065511150872</v>
+        <v>0.2525324479448612</v>
       </c>
       <c r="I237">
-        <v>59.13959810974204</v>
+        <v>1.252479871981718</v>
       </c>
       <c r="J237">
-        <v>4</v>
+        <v>53.49486280939004</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8026,19 +8026,19 @@
         <v>17</v>
       </c>
       <c r="F238">
-        <v>0.108</v>
+        <v>0.043</v>
       </c>
       <c r="G238">
-        <v>0.1921833016444232</v>
+        <v>13</v>
       </c>
       <c r="H238">
-        <v>1.320543389834274</v>
+        <v>0.1757964587678033</v>
       </c>
       <c r="I238">
-        <v>37.9880971581334</v>
+        <v>1.387674161248931</v>
       </c>
       <c r="J238">
-        <v>10</v>
+        <v>59.13668517779647</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8058,19 +8058,19 @@
         <v>17</v>
       </c>
       <c r="F239">
-        <v>0.06900000000000001</v>
+        <v>0.202</v>
       </c>
       <c r="G239">
-        <v>0.165904600825566</v>
+        <v>9</v>
       </c>
       <c r="H239">
-        <v>1.387051323421441</v>
+        <v>0.2481907217961001</v>
       </c>
       <c r="I239">
-        <v>37.608844419824</v>
+        <v>1.156931483590806</v>
       </c>
       <c r="J239">
-        <v>10</v>
+        <v>40.9497904010945</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8090,19 +8090,19 @@
         <v>17</v>
       </c>
       <c r="F240">
-        <v>0.116</v>
+        <v>0.031</v>
       </c>
       <c r="G240">
-        <v>0.2284065277022039</v>
+        <v>17</v>
       </c>
       <c r="H240">
-        <v>1.215321733022235</v>
+        <v>0.1564864347291148</v>
       </c>
       <c r="I240">
-        <v>41.06817948210654</v>
+        <v>1.526292201485858</v>
       </c>
       <c r="J240">
-        <v>9</v>
+        <v>47.51941617290262</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8122,19 +8122,19 @@
         <v>17</v>
       </c>
       <c r="F241">
-        <v>0.203</v>
+        <v>0.33</v>
       </c>
       <c r="G241">
-        <v>0.2481907217961001</v>
+        <v>4</v>
       </c>
       <c r="H241">
-        <v>1.156931483590806</v>
+        <v>0.344296008290169</v>
       </c>
       <c r="I241">
-        <v>40.9497904010945</v>
+        <v>0.9582065511150872</v>
       </c>
       <c r="J241">
-        <v>9</v>
+        <v>59.13959810974204</v>
       </c>
     </row>
   </sheetData>

--- a/Template/03_03_Modelos_MeanShift_df_score.xlsx
+++ b/Template/03_03_Modelos_MeanShift_df_score.xlsx
@@ -474,19 +474,19 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>0.835</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>0.3998858842851719</v>
+        <v>0.5138836229004868</v>
       </c>
       <c r="I2">
-        <v>1.13153825934386</v>
+        <v>0.9558546126402782</v>
       </c>
       <c r="J2">
-        <v>34.29690422689482</v>
+        <v>13.01233830422765</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -506,19 +506,19 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>0.545</v>
+        <v>0.385</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>0.4633543641493595</v>
+        <v>0.38874470531204</v>
       </c>
       <c r="I3">
-        <v>0.9954829337050143</v>
+        <v>1.147784876541085</v>
       </c>
       <c r="J3">
-        <v>27.57288893822091</v>
+        <v>32.84688792071343</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -538,19 +538,19 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>0.741</v>
+        <v>0.148</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0.5138836229004865</v>
+        <v>0.09315986630732728</v>
       </c>
       <c r="I4">
-        <v>0.9558546126402788</v>
+        <v>1.046199395692577</v>
       </c>
       <c r="J4">
-        <v>13.01233830422763</v>
+        <v>26.26259553264018</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -570,19 +570,19 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.749</v>
+        <v>0.228</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>0.5138836229004865</v>
+        <v>0.1386397572067041</v>
       </c>
       <c r="I5">
-        <v>0.9558546126402788</v>
+        <v>1.126177938314534</v>
       </c>
       <c r="J5">
-        <v>13.01233830422763</v>
+        <v>26.35224126510986</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -602,19 +602,19 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>0.078</v>
+        <v>0.794</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0.06190638380111546</v>
+        <v>0.4962451884904583</v>
       </c>
       <c r="I6">
-        <v>1.060861342438492</v>
+        <v>0.958051151681197</v>
       </c>
       <c r="J6">
-        <v>38.76964196030473</v>
+        <v>34.37052295236439</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -634,19 +634,19 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>0.596</v>
+        <v>0.275</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>0.4943599230065479</v>
+        <v>0.237858180928687</v>
       </c>
       <c r="I7">
-        <v>1.145155243377548</v>
+        <v>1.133075505842141</v>
       </c>
       <c r="J7">
-        <v>14.02158919649276</v>
+        <v>30.57924971614785</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -666,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="F8">
-        <v>0.334</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0.2824361567213493</v>
+        <v>0.5138836229004868</v>
       </c>
       <c r="I8">
-        <v>1.164139969860313</v>
+        <v>0.9558546126402782</v>
       </c>
       <c r="J8">
-        <v>39.54874823961909</v>
+        <v>13.01233830422765</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -698,19 +698,19 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>0.425</v>
+        <v>0.296</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0.420734913435317</v>
+        <v>0.2996477606107528</v>
       </c>
       <c r="I9">
-        <v>1.305983128022982</v>
+        <v>1.334605713418263</v>
       </c>
       <c r="J9">
-        <v>41.7660808128393</v>
+        <v>36.9180078769073</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -730,19 +730,19 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>0.191</v>
+        <v>0.645</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0.09632207236708949</v>
+        <v>0.4943599230065482</v>
       </c>
       <c r="I10">
-        <v>1.199488704658431</v>
+        <v>1.145155243377547</v>
       </c>
       <c r="J10">
-        <v>29.46253999658973</v>
+        <v>14.02158919649278</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -762,19 +762,19 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>0.303</v>
+        <v>0.192</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>0.2888227475679033</v>
+        <v>0.1006177486095707</v>
       </c>
       <c r="I11">
-        <v>1.215714012566941</v>
+        <v>1.150358614028343</v>
       </c>
       <c r="J11">
-        <v>35.64496991056561</v>
+        <v>30.60363649230006</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -794,19 +794,19 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.463</v>
+        <v>0.132</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>0.4221636003110453</v>
+        <v>0.06796117250297315</v>
       </c>
       <c r="I12">
-        <v>1.286899134119318</v>
+        <v>1.103350970793604</v>
       </c>
       <c r="J12">
-        <v>40.49522774240144</v>
+        <v>25.48794999282513</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -826,19 +826,19 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <v>0.783</v>
+        <v>0.119</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>0.5138836229004865</v>
+        <v>0.0008510565294463723</v>
       </c>
       <c r="I13">
-        <v>0.9558546126402788</v>
+        <v>1.075769876590907</v>
       </c>
       <c r="J13">
-        <v>13.01233830422763</v>
+        <v>30.64279154204289</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -858,19 +858,19 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <v>0.323</v>
+        <v>0.435</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>0.2701729084905928</v>
+        <v>0.4221636003110456</v>
       </c>
       <c r="I14">
-        <v>1.076840676196074</v>
+        <v>1.286899134119318</v>
       </c>
       <c r="J14">
-        <v>33.70984494742797</v>
+        <v>40.49522774240147</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -890,19 +890,19 @@
         <v>9</v>
       </c>
       <c r="F15">
-        <v>0.154</v>
+        <v>0.789</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0.0945882903246747</v>
+        <v>0.4962451884904583</v>
       </c>
       <c r="I15">
-        <v>1.049879935652285</v>
+        <v>0.958051151681197</v>
       </c>
       <c r="J15">
-        <v>27.02335318006947</v>
+        <v>34.37052295236439</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -922,19 +922,19 @@
         <v>9</v>
       </c>
       <c r="F16">
-        <v>0.553</v>
+        <v>0.093</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H16">
-        <v>0.4633543641493595</v>
+        <v>-0.001847995710383704</v>
       </c>
       <c r="I16">
-        <v>0.9954829337050143</v>
+        <v>1.051045962653984</v>
       </c>
       <c r="J16">
-        <v>27.57288893822091</v>
+        <v>28.72348626830353</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -954,19 +954,19 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>0.747</v>
+        <v>0.1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>0.5138836229004865</v>
+        <v>0.004968467499849789</v>
       </c>
       <c r="I17">
-        <v>0.9558546126402788</v>
+        <v>1.058249043648252</v>
       </c>
       <c r="J17">
-        <v>13.01233830422763</v>
+        <v>30.29298899909296</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -986,19 +986,19 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18">
-        <v>0.4221636003110453</v>
+        <v>0.4221636003110456</v>
       </c>
       <c r="I18">
         <v>1.286899134119318</v>
       </c>
       <c r="J18">
-        <v>40.49522774240144</v>
+        <v>40.49522774240147</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1018,19 +1018,19 @@
         <v>9</v>
       </c>
       <c r="F19">
-        <v>0.838</v>
+        <v>0.825</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
-        <v>0.5138836229004865</v>
+        <v>0.5138836229004868</v>
       </c>
       <c r="I19">
-        <v>0.9558546126402788</v>
+        <v>0.9558546126402782</v>
       </c>
       <c r="J19">
-        <v>13.01233830422763</v>
+        <v>13.01233830422765</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1050,19 +1050,19 @@
         <v>9</v>
       </c>
       <c r="F20">
-        <v>0.106</v>
+        <v>0.235</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>-0.006577647402062334</v>
+        <v>0.1396729420060931</v>
       </c>
       <c r="I20">
-        <v>1.04333991464054</v>
+        <v>1.102642111567053</v>
       </c>
       <c r="J20">
-        <v>29.83436585554878</v>
+        <v>26.35129645455472</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1082,19 +1082,19 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>0.711</v>
+        <v>0.339</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>0.5138836229004865</v>
+        <v>0.2824361567213496</v>
       </c>
       <c r="I21">
-        <v>0.9558546126402788</v>
+        <v>1.164139969860313</v>
       </c>
       <c r="J21">
-        <v>13.01233830422763</v>
+        <v>39.54874823961912</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1114,19 +1114,19 @@
         <v>9</v>
       </c>
       <c r="F22">
-        <v>0.344</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G22">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H22">
-        <v>0.5284826009609058</v>
+        <v>0.4519289234314982</v>
       </c>
       <c r="I22">
-        <v>0.5664221142089121</v>
+        <v>0.5512858788051658</v>
       </c>
       <c r="J22">
-        <v>142.8478211214579</v>
+        <v>172.6334603786522</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1146,19 +1146,19 @@
         <v>9</v>
       </c>
       <c r="F23">
-        <v>0.355</v>
+        <v>0.286</v>
       </c>
       <c r="G23">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23">
-        <v>0.5284826009609058</v>
+        <v>0.5155095917467114</v>
       </c>
       <c r="I23">
-        <v>0.5664221142089121</v>
+        <v>0.5274567604021868</v>
       </c>
       <c r="J23">
-        <v>142.8478211214579</v>
+        <v>158.4859531769015</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1178,19 +1178,19 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>0.5620000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24">
-        <v>0.5891848689388876</v>
+        <v>0.5893421078649598</v>
       </c>
       <c r="I24">
-        <v>0.5203511866615737</v>
+        <v>0.6536547777496937</v>
       </c>
       <c r="J24">
-        <v>155.8044888941495</v>
+        <v>151.664785066158</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1210,19 +1210,19 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>0.731</v>
+        <v>0.798</v>
       </c>
       <c r="G25">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>0.5836715817095454</v>
+        <v>0.6263915870433084</v>
       </c>
       <c r="I25">
-        <v>0.6872761869460466</v>
+        <v>0.5243840430345605</v>
       </c>
       <c r="J25">
-        <v>159.5660869770631</v>
+        <v>163.9055467833035</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1242,19 +1242,19 @@
         <v>9</v>
       </c>
       <c r="F26">
-        <v>0.054</v>
+        <v>0.777</v>
       </c>
       <c r="G26">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>0.439325274394798</v>
+        <v>0.616995509237404</v>
       </c>
       <c r="I26">
-        <v>0.5650343968934814</v>
+        <v>0.7167239066703801</v>
       </c>
       <c r="J26">
-        <v>174.674216993054</v>
+        <v>154.653966130579</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1274,19 +1274,19 @@
         <v>9</v>
       </c>
       <c r="F27">
-        <v>0.405</v>
+        <v>0.092</v>
       </c>
       <c r="G27">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H27">
-        <v>0.528407422488202</v>
+        <v>0.4594886312903317</v>
       </c>
       <c r="I27">
-        <v>0.5514668699949693</v>
+        <v>0.4752996615279008</v>
       </c>
       <c r="J27">
-        <v>148.1259830326955</v>
+        <v>186.3190299077271</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1306,19 +1306,19 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>0.039</v>
+        <v>0.096</v>
       </c>
       <c r="G28">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H28">
-        <v>0.4283516880076769</v>
+        <v>0.4656954075661463</v>
       </c>
       <c r="I28">
-        <v>0.5455569254075512</v>
+        <v>0.4868369055414471</v>
       </c>
       <c r="J28">
-        <v>180.1523837266598</v>
+        <v>189.4929689086441</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1338,19 +1338,19 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>0.702</v>
+        <v>0.044</v>
       </c>
       <c r="G29">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H29">
-        <v>0.5830293844839672</v>
+        <v>0.4310290119428988</v>
       </c>
       <c r="I29">
-        <v>0.6978057580877445</v>
+        <v>0.5664258813088492</v>
       </c>
       <c r="J29">
-        <v>153.0867047361615</v>
+        <v>174.2542996393418</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1370,19 +1370,19 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>0.431</v>
+        <v>0.134</v>
       </c>
       <c r="G30">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H30">
-        <v>0.528407422488202</v>
+        <v>0.5075973531527849</v>
       </c>
       <c r="I30">
-        <v>0.5514668699949693</v>
+        <v>0.519010215817878</v>
       </c>
       <c r="J30">
-        <v>148.1259830326955</v>
+        <v>188.6412793984456</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1402,19 +1402,19 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>0.8090000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G31">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H31">
-        <v>0.6582536793860986</v>
+        <v>0.5893490914463753</v>
       </c>
       <c r="I31">
-        <v>0.5287277593389335</v>
+        <v>0.6533600224543487</v>
       </c>
       <c r="J31">
-        <v>160.5131467115648</v>
+        <v>153.3195313252575</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1434,19 +1434,19 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>0.442</v>
+        <v>0.187</v>
       </c>
       <c r="G32">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H32">
-        <v>0.5280897535522596</v>
+        <v>0.5090243415070456</v>
       </c>
       <c r="I32">
-        <v>0.6150465444870198</v>
+        <v>0.4999679751645</v>
       </c>
       <c r="J32">
-        <v>142.4803998384889</v>
+        <v>166.0690886230459</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1466,19 +1466,19 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <v>0.853</v>
+        <v>0.095</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H33">
-        <v>0.6865549690696974</v>
+        <v>0.463480099294844</v>
       </c>
       <c r="I33">
-        <v>0.6260296065192371</v>
+        <v>0.5024530228064835</v>
       </c>
       <c r="J33">
-        <v>178.4589604679676</v>
+        <v>187.7790899510411</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1498,19 +1498,19 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.45</v>
+        <v>0.791</v>
       </c>
       <c r="G34">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H34">
-        <v>0.5280897535522596</v>
+        <v>0.6259761209699443</v>
       </c>
       <c r="I34">
-        <v>0.6150465444870198</v>
+        <v>0.562038387809453</v>
       </c>
       <c r="J34">
-        <v>142.4803998384889</v>
+        <v>167.0278663335929</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1530,19 +1530,19 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>0.701</v>
+        <v>0.065</v>
       </c>
       <c r="G35">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="H35">
-        <v>0.5830293844839672</v>
+        <v>0.4390570841317824</v>
       </c>
       <c r="I35">
-        <v>0.6978057580877445</v>
+        <v>0.5990364797174624</v>
       </c>
       <c r="J35">
-        <v>153.0867047361615</v>
+        <v>176.9245022587622</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1562,19 +1562,19 @@
         <v>9</v>
       </c>
       <c r="F36">
-        <v>0.843</v>
+        <v>0.769</v>
       </c>
       <c r="G36">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H36">
-        <v>0.6862388870976991</v>
+        <v>0.6121187833661969</v>
       </c>
       <c r="I36">
-        <v>0.6201335733680795</v>
+        <v>0.684904092773738</v>
       </c>
       <c r="J36">
-        <v>175.4144286194532</v>
+        <v>167.4004503338826</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1594,19 +1594,19 @@
         <v>9</v>
       </c>
       <c r="F37">
-        <v>0.012</v>
+        <v>0.485</v>
       </c>
       <c r="G37">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="H37">
-        <v>0.3222219737904243</v>
+        <v>0.5547082720249593</v>
       </c>
       <c r="I37">
-        <v>0.5907511161125421</v>
+        <v>0.5587698816746991</v>
       </c>
       <c r="J37">
-        <v>170.4797942929151</v>
+        <v>154.3507229544151</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1626,19 +1626,19 @@
         <v>9</v>
       </c>
       <c r="F38">
-        <v>0.505</v>
+        <v>0.01</v>
       </c>
       <c r="G38">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="H38">
-        <v>0.5503795790031529</v>
+        <v>0.3275108155539987</v>
       </c>
       <c r="I38">
-        <v>0.5542358620551829</v>
+        <v>0.5602928738452346</v>
       </c>
       <c r="J38">
-        <v>154.3435394529348</v>
+        <v>194.4048592362581</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1658,19 +1658,19 @@
         <v>9</v>
       </c>
       <c r="F39">
-        <v>0.556</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G39">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H39">
-        <v>0.5895401607529731</v>
+        <v>0.4519289234314982</v>
       </c>
       <c r="I39">
-        <v>0.5628142861319148</v>
+        <v>0.5512858788051658</v>
       </c>
       <c r="J39">
-        <v>160.1352995849016</v>
+        <v>172.6334603786522</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1690,19 +1690,19 @@
         <v>9</v>
       </c>
       <c r="F40">
-        <v>0.5600000000000001</v>
+        <v>0.638</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H40">
-        <v>0.5891848689388876</v>
+        <v>0.5932337050354565</v>
       </c>
       <c r="I40">
-        <v>0.5203511866615737</v>
+        <v>0.5582956998662104</v>
       </c>
       <c r="J40">
-        <v>155.8044888941495</v>
+        <v>164.8897528555958</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1722,19 +1722,19 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>0.378</v>
+        <v>0.798</v>
       </c>
       <c r="G41">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>0.5288002698968484</v>
+        <v>0.6263915870433084</v>
       </c>
       <c r="I41">
-        <v>0.5079165674442484</v>
+        <v>0.5243840430345605</v>
       </c>
       <c r="J41">
-        <v>149.018973366213</v>
+        <v>163.9055467833035</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1754,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <v>0.8110000000000001</v>
+        <v>0.777</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1786,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="F43">
-        <v>0.5659999999999999</v>
+        <v>0.848</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>0.3587309049331138</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I43">
-        <v>1.318353792465484</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J43">
-        <v>149.1672241156218</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1818,19 +1818,19 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>0.045</v>
+        <v>0.322</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>0.1076848588880074</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I44">
-        <v>1.413898422030442</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J44">
-        <v>31.62728802305013</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1850,19 +1850,19 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>0.14</v>
+        <v>0.577</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0.266483613232002</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I45">
-        <v>1.314306527681379</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J45">
-        <v>62.32489804708731</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1882,19 +1882,19 @@
         <v>15</v>
       </c>
       <c r="F46">
-        <v>0.296</v>
+        <v>0.024</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H46">
-        <v>0.3587309049331138</v>
+        <v>0.1468287141714963</v>
       </c>
       <c r="I46">
-        <v>1.318353792465484</v>
+        <v>1.518005723474239</v>
       </c>
       <c r="J46">
-        <v>149.1672241156218</v>
+        <v>46.16244871523427</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1914,19 +1914,19 @@
         <v>15</v>
       </c>
       <c r="F47">
-        <v>0.396</v>
+        <v>0.154</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>0.3587309049331138</v>
+        <v>0.272646526056692</v>
       </c>
       <c r="I47">
-        <v>1.318353792465484</v>
+        <v>1.334859123032482</v>
       </c>
       <c r="J47">
-        <v>149.1672241156218</v>
+        <v>73.67344129799224</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1946,19 +1946,19 @@
         <v>15</v>
       </c>
       <c r="F48">
-        <v>0.782</v>
+        <v>0.514</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>0.6978327491716696</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I48">
-        <v>0.217112871163631</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J48">
-        <v>19.29462517934523</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1978,19 +1978,19 @@
         <v>15</v>
       </c>
       <c r="F49">
-        <v>0.167</v>
+        <v>0.216</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>0.272646526056692</v>
+        <v>0.2729307012603578</v>
       </c>
       <c r="I49">
-        <v>1.334859123032482</v>
+        <v>1.415595348441016</v>
       </c>
       <c r="J49">
-        <v>73.67344129799224</v>
+        <v>95.85403823243573</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2010,19 +2010,19 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>0.673</v>
+        <v>0.117</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>0.6978327491716696</v>
+        <v>0.2658192871062726</v>
       </c>
       <c r="I50">
-        <v>0.217112871163631</v>
+        <v>1.172990948002632</v>
       </c>
       <c r="J50">
-        <v>19.29462517934523</v>
+        <v>52.13946910169896</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2042,19 +2042,19 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>0.374</v>
+        <v>0.671</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>0.3587309049331138</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I51">
-        <v>1.318353792465484</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J51">
-        <v>149.1672241156218</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2074,19 +2074,19 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>0.147</v>
+        <v>0.368</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>0.272646526056692</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I52">
-        <v>1.334859123032482</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J52">
-        <v>73.67344129799224</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2106,19 +2106,19 @@
         <v>15</v>
       </c>
       <c r="F53">
-        <v>0.763</v>
+        <v>0.431</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>0.6978327491716696</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I53">
-        <v>0.217112871163631</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J53">
-        <v>19.29462517934523</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2138,19 +2138,19 @@
         <v>15</v>
       </c>
       <c r="F54">
-        <v>0.093</v>
+        <v>0.517</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>0.2626821386780334</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I54">
-        <v>1.386455297375556</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J54">
-        <v>57.14880929283096</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2170,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>0.666</v>
+        <v>0.857</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2202,19 +2202,19 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>0.023</v>
+        <v>0.097</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H56">
-        <v>0.1168774620549903</v>
+        <v>0.266483613232002</v>
       </c>
       <c r="I56">
-        <v>1.659580027473728</v>
+        <v>1.314306527681379</v>
       </c>
       <c r="J56">
-        <v>50.94210844673265</v>
+        <v>62.32489804708731</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2234,19 +2234,19 @@
         <v>15</v>
       </c>
       <c r="F57">
-        <v>0.119</v>
+        <v>0.287</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>0.2658192871062726</v>
+        <v>0.3587309049331138</v>
       </c>
       <c r="I57">
-        <v>1.172990948002632</v>
+        <v>1.318353792465484</v>
       </c>
       <c r="J57">
-        <v>52.13946910169896</v>
+        <v>149.1672241156218</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2266,19 +2266,19 @@
         <v>15</v>
       </c>
       <c r="F58">
-        <v>0.5600000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58">
-        <v>0.3587309049331138</v>
+        <v>0.6978327491716696</v>
       </c>
       <c r="I58">
-        <v>1.318353792465484</v>
+        <v>0.217112871163631</v>
       </c>
       <c r="J58">
-        <v>149.1672241156218</v>
+        <v>19.29462517934523</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2298,7 +2298,7 @@
         <v>15</v>
       </c>
       <c r="F59">
-        <v>0.515</v>
+        <v>0.41</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>0.254</v>
+        <v>0.274</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="F61">
-        <v>0.893</v>
+        <v>0.844</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2394,19 +2394,19 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <v>0.226</v>
+        <v>0.011</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="H62">
-        <v>0.4495660704727581</v>
+        <v>0.3562908123617967</v>
       </c>
       <c r="I62">
-        <v>0.8268277647168712</v>
+        <v>0.794924874323032</v>
       </c>
       <c r="J62">
-        <v>1889.423316809734</v>
+        <v>2566.37983489102</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2426,19 +2426,19 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <v>0.281</v>
+        <v>0.078</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>0.4565063806572662</v>
+        <v>0.4452264760437354</v>
       </c>
       <c r="I63">
-        <v>0.8839452905988854</v>
+        <v>0.7242365638012256</v>
       </c>
       <c r="J63">
-        <v>1786.924771466674</v>
+        <v>2290.241188546963</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2458,19 +2458,19 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <v>0.033</v>
+        <v>0.061</v>
       </c>
       <c r="G64">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H64">
-        <v>0.400012054741852</v>
+        <v>0.4454842331713488</v>
       </c>
       <c r="I64">
-        <v>0.7629002435445258</v>
+        <v>0.7216345845209798</v>
       </c>
       <c r="J64">
-        <v>2266.505122635481</v>
+        <v>2243.43134828093</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2490,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0.238</v>
+        <v>0.302</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>0.4484297478739944</v>
+        <v>0.4459442977563059</v>
       </c>
       <c r="I65">
-        <v>0.8370489814658351</v>
+        <v>0.8985435416517257</v>
       </c>
       <c r="J65">
-        <v>1880.834499006032</v>
+        <v>1752.405306214608</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2522,19 +2522,19 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0.15</v>
+        <v>0.276</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>0.4578518476758004</v>
+        <v>0.4559889091601073</v>
       </c>
       <c r="I66">
-        <v>0.7798153561205348</v>
+        <v>0.8859108052391608</v>
       </c>
       <c r="J66">
-        <v>2222.754153908608</v>
+        <v>1782.508841822418</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2554,19 +2554,19 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <v>0.304</v>
+        <v>0.341</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <v>0.4441354928978968</v>
+        <v>0.4532930241614589</v>
       </c>
       <c r="I67">
-        <v>0.9025648003098563</v>
+        <v>0.8881212346334781</v>
       </c>
       <c r="J67">
-        <v>1745.434593904248</v>
+        <v>1783.132414805357</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2586,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>0.11</v>
+        <v>0.238</v>
       </c>
       <c r="G68">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>0.3875160632041116</v>
+        <v>0.4484297478739944</v>
       </c>
       <c r="I68">
-        <v>0.8206602084173622</v>
+        <v>0.8370489814658351</v>
       </c>
       <c r="J68">
-        <v>1998.336452536425</v>
+        <v>1880.834499006032</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2618,19 +2618,19 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <v>0.267</v>
+        <v>0.295</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
       <c r="H69">
-        <v>0.4575566662467613</v>
+        <v>0.4539206804600781</v>
       </c>
       <c r="I69">
-        <v>0.8684622503140277</v>
+        <v>0.894550034161497</v>
       </c>
       <c r="J69">
-        <v>1783.071205183348</v>
+        <v>1770.832812484972</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2650,19 +2650,19 @@
         <v>2</v>
       </c>
       <c r="F70">
-        <v>0.124</v>
+        <v>0.258</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>0.4572616637865849</v>
+        <v>0.4574723683977182</v>
       </c>
       <c r="I70">
-        <v>0.7534597275911447</v>
+        <v>0.8692952908157769</v>
       </c>
       <c r="J70">
-        <v>2194.043784698061</v>
+        <v>1780.780398811338</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2682,19 +2682,19 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>0.039</v>
+        <v>0.204</v>
       </c>
       <c r="G71">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>0.4120136907876006</v>
+        <v>0.4759563966870409</v>
       </c>
       <c r="I71">
-        <v>0.7698075250286586</v>
+        <v>0.7618453527073966</v>
       </c>
       <c r="J71">
-        <v>2404.343940803796</v>
+        <v>2214.752709202724</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2714,19 +2714,19 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>0.199</v>
+        <v>0.271</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>0.4537234833383531</v>
+        <v>0.4575566662467613</v>
       </c>
       <c r="I72">
-        <v>0.7966940405303047</v>
+        <v>0.8684622503140277</v>
       </c>
       <c r="J72">
-        <v>2224.976224268402</v>
+        <v>1783.071205183348</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2746,19 +2746,19 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>0.123</v>
+        <v>0.183</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73">
-        <v>0.4571618841958329</v>
+        <v>0.4546700567898366</v>
       </c>
       <c r="I73">
-        <v>0.7529915913356936</v>
+        <v>0.7881903030183978</v>
       </c>
       <c r="J73">
-        <v>2193.610262641017</v>
+        <v>2231.623517121907</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2778,19 +2778,19 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0.113</v>
+        <v>0.178</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>0.4377364752377478</v>
+        <v>0.4553735703215323</v>
       </c>
       <c r="I74">
-        <v>0.7686632196057969</v>
+        <v>0.7858984970642858</v>
       </c>
       <c r="J74">
-        <v>2256.01739678875</v>
+        <v>2235.802527231064</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2810,19 +2810,19 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0.135</v>
+        <v>0.164</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>0.448305367345205</v>
+        <v>0.455967111288562</v>
       </c>
       <c r="I75">
-        <v>0.7635309613415807</v>
+        <v>0.7817283592365594</v>
       </c>
       <c r="J75">
-        <v>2217.81916102998</v>
+        <v>2240.65230912336</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2842,19 +2842,19 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>0.133</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>0.4485826060111608</v>
+        <v>0.4421104865254968</v>
       </c>
       <c r="I76">
-        <v>0.7631830266506929</v>
+        <v>0.7338232090354673</v>
       </c>
       <c r="J76">
-        <v>2215.457422784466</v>
+        <v>2285.989720062476</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2874,19 +2874,19 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0.208</v>
+        <v>0.172</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>0.4761339005853188</v>
+        <v>0.4549528687264384</v>
       </c>
       <c r="I77">
-        <v>0.7612031015317069</v>
+        <v>0.7906790404977362</v>
       </c>
       <c r="J77">
-        <v>2214.892845614434</v>
+        <v>2234.161694652144</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2906,19 +2906,19 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <v>0.128</v>
+        <v>0.081</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>0.4574440703861374</v>
+        <v>0.4455744649770604</v>
       </c>
       <c r="I78">
-        <v>0.7543776205283349</v>
+        <v>0.7236097775485482</v>
       </c>
       <c r="J78">
-        <v>2194.990345262609</v>
+        <v>2287.209047414161</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2938,19 +2938,19 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <v>0.123</v>
+        <v>0.031</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H79">
-        <v>0.4571618841958329</v>
+        <v>0.3715014827148261</v>
       </c>
       <c r="I79">
-        <v>0.7529915913356936</v>
+        <v>0.8074585504932004</v>
       </c>
       <c r="J79">
-        <v>2193.610262641017</v>
+        <v>2163.601337614302</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2970,19 +2970,19 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>0.263</v>
+        <v>0.288</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>0.4575566662467613</v>
+        <v>0.4558540544404543</v>
       </c>
       <c r="I80">
-        <v>0.8684622503140277</v>
+        <v>0.8865541885067112</v>
       </c>
       <c r="J80">
-        <v>1783.071205183348</v>
+        <v>1782.462100093973</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3002,19 +3002,19 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <v>0.032</v>
+        <v>0.094</v>
       </c>
       <c r="G81">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>0.400012054741852</v>
+        <v>0.4449300902138016</v>
       </c>
       <c r="I81">
-        <v>0.7629002435445258</v>
+        <v>0.7304047637455431</v>
       </c>
       <c r="J81">
-        <v>2266.505122635481</v>
+        <v>2303.339515085974</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3034,19 +3034,19 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <v>0.014</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G82">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="H82">
-        <v>0.3472608811778388</v>
+        <v>0.431505830140643</v>
       </c>
       <c r="I82">
-        <v>0.8404616084423255</v>
+        <v>0.7273071878157227</v>
       </c>
       <c r="J82">
-        <v>2153.743496907044</v>
+        <v>1947.860986026731</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3066,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>0.068</v>
+        <v>0.011</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="H83">
-        <v>0.431505830140643</v>
+        <v>0.3378472080295393</v>
       </c>
       <c r="I83">
-        <v>0.7273071878157227</v>
+        <v>0.7857195830434814</v>
       </c>
       <c r="J83">
-        <v>1947.860986026731</v>
+        <v>2255.450424923766</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3098,19 +3098,19 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>0.099</v>
+        <v>0.079</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H84">
-        <v>0.382049980319118</v>
+        <v>0.4029883502915374</v>
       </c>
       <c r="I84">
-        <v>0.8118681730398368</v>
+        <v>0.8002510176781984</v>
       </c>
       <c r="J84">
-        <v>1554.490140017527</v>
+        <v>1890.897461810145</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3130,19 +3130,19 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <v>0.013</v>
+        <v>0.079</v>
       </c>
       <c r="G85">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H85">
-        <v>0.3486414056881234</v>
+        <v>0.4029883502915374</v>
       </c>
       <c r="I85">
-        <v>0.8209319271169842</v>
+        <v>0.8002510176781984</v>
       </c>
       <c r="J85">
-        <v>2225.88241433646</v>
+        <v>1890.897461810145</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3162,19 +3162,19 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <v>0.065</v>
+        <v>0.02</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0.4246125663018378</v>
+        <v>0.3495262171186009</v>
       </c>
       <c r="I86">
-        <v>0.765972629349935</v>
+        <v>0.8684194297463779</v>
       </c>
       <c r="J86">
-        <v>1930.463488810938</v>
+        <v>2111.394346000126</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3194,19 +3194,19 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <v>0.065</v>
+        <v>0.031</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H87">
-        <v>0.4246125663018378</v>
+        <v>0.3955318234853452</v>
       </c>
       <c r="I87">
-        <v>0.765972629349935</v>
+        <v>0.8089772363256535</v>
       </c>
       <c r="J87">
-        <v>1930.463488810938</v>
+        <v>2174.168553784324</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3226,19 +3226,19 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>0.099</v>
+        <v>0.042</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>0.382049980319118</v>
+        <v>0.4041897539260706</v>
       </c>
       <c r="I88">
-        <v>0.8118681730398368</v>
+        <v>0.8108281081457213</v>
       </c>
       <c r="J88">
-        <v>1554.490140017527</v>
+        <v>2188.226437408066</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3258,19 +3258,19 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>0.061</v>
+        <v>0.045</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H89">
-        <v>0.4137487388161599</v>
+        <v>0.4096698312591016</v>
       </c>
       <c r="I89">
-        <v>0.7729587904328368</v>
+        <v>0.7886649997658906</v>
       </c>
       <c r="J89">
-        <v>1863.361923391273</v>
+        <v>2050.108194917986</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3290,19 +3290,19 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>0.033</v>
+        <v>0.089</v>
       </c>
       <c r="G90">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H90">
-        <v>0.4116647824757296</v>
+        <v>0.3875669655967398</v>
       </c>
       <c r="I90">
-        <v>0.7786894019351591</v>
+        <v>0.825505500260827</v>
       </c>
       <c r="J90">
-        <v>2244.51170642746</v>
+        <v>1549.717355155376</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3322,19 +3322,19 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91">
-        <v>0.4041897539260706</v>
+        <v>0.4187867013663557</v>
       </c>
       <c r="I91">
-        <v>0.8108281081457213</v>
+        <v>0.7705844827695919</v>
       </c>
       <c r="J91">
-        <v>2188.226437408066</v>
+        <v>2104.569140070889</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3354,19 +3354,19 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <v>0.029</v>
+        <v>0.02</v>
       </c>
       <c r="G92">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>0.3897661702069274</v>
+        <v>0.3495262171186009</v>
       </c>
       <c r="I92">
-        <v>0.8008850209776956</v>
+        <v>0.8684194297463779</v>
       </c>
       <c r="J92">
-        <v>2220.935146598949</v>
+        <v>2111.394346000126</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3386,19 +3386,19 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>0.023</v>
+        <v>0.044</v>
       </c>
       <c r="G93">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>0.3578452242451124</v>
+        <v>0.4096698312591016</v>
       </c>
       <c r="I93">
-        <v>0.8632490238413087</v>
+        <v>0.7886649997658906</v>
       </c>
       <c r="J93">
-        <v>2162.839004843589</v>
+        <v>2050.108194917986</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3418,19 +3418,19 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <v>0.065</v>
+        <v>0.025</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>0.4246125663018378</v>
+        <v>0.3894687178356379</v>
       </c>
       <c r="I94">
-        <v>0.765972629349935</v>
+        <v>0.7961036420513589</v>
       </c>
       <c r="J94">
-        <v>1930.463488810938</v>
+        <v>2219.857758382253</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3450,19 +3450,19 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0.044</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H95">
-        <v>0.4096698312591016</v>
+        <v>0.4292916127976189</v>
       </c>
       <c r="I95">
-        <v>0.7886649997658906</v>
+        <v>0.7444182488720286</v>
       </c>
       <c r="J95">
-        <v>2050.108194917986</v>
+        <v>1933.544394721945</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3482,19 +3482,19 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0.024</v>
+        <v>0.082</v>
       </c>
       <c r="G96">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H96">
-        <v>0.3894687178356379</v>
+        <v>0.40996106630096</v>
       </c>
       <c r="I96">
-        <v>0.7961036420513589</v>
+        <v>0.7920808759106051</v>
       </c>
       <c r="J96">
-        <v>2219.857758382253</v>
+        <v>1777.795470392967</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3514,19 +3514,19 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>0.023</v>
+        <v>0.029</v>
       </c>
       <c r="G97">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H97">
-        <v>0.3578452242451124</v>
+        <v>0.3897661702069274</v>
       </c>
       <c r="I97">
-        <v>0.8632490238413087</v>
+        <v>0.8008850209776956</v>
       </c>
       <c r="J97">
-        <v>2162.839004843589</v>
+        <v>2220.935146598949</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3546,19 +3546,19 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="G98">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="H98">
-        <v>0.3894687178356379</v>
+        <v>0.3378472080295393</v>
       </c>
       <c r="I98">
-        <v>0.7961036420513589</v>
+        <v>0.7857195830434814</v>
       </c>
       <c r="J98">
-        <v>2219.857758382253</v>
+        <v>2255.450424923766</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3578,19 +3578,19 @@
         <v>2</v>
       </c>
       <c r="F99">
-        <v>0.075</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H99">
-        <v>0.4369724967649452</v>
+        <v>0.3996821320603376</v>
       </c>
       <c r="I99">
-        <v>0.7177081780486976</v>
+        <v>0.8204980050069023</v>
       </c>
       <c r="J99">
-        <v>1989.067823574949</v>
+        <v>1665.710785624758</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3610,19 +3610,19 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <v>0.091</v>
+        <v>0.02</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0.3886570844499219</v>
+        <v>0.3495262171186009</v>
       </c>
       <c r="I100">
-        <v>0.8195452517650855</v>
+        <v>0.8684194297463779</v>
       </c>
       <c r="J100">
-        <v>1557.342258682642</v>
+        <v>2111.394346000126</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3642,19 +3642,19 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>0.051</v>
+        <v>0.019</v>
       </c>
       <c r="G101">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H101">
-        <v>0.4176836182063678</v>
+        <v>0.3394644930531409</v>
       </c>
       <c r="I101">
-        <v>0.7781672215590354</v>
+        <v>0.8745960818022797</v>
       </c>
       <c r="J101">
-        <v>2111.508132411192</v>
+        <v>2051.827510223829</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3674,19 +3674,19 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>0.195</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H102">
-        <v>0.3981231183221267</v>
+        <v>0.4267600921996007</v>
       </c>
       <c r="I102">
-        <v>0.8156864518055551</v>
+        <v>0.7056495014462734</v>
       </c>
       <c r="J102">
-        <v>1840.140180330324</v>
+        <v>2547.332694764283</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3706,19 +3706,19 @@
         <v>2</v>
       </c>
       <c r="F103">
-        <v>0.191</v>
+        <v>0.141</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>0.3804537719542894</v>
+        <v>0.3802696423226606</v>
       </c>
       <c r="I103">
-        <v>0.861750807927307</v>
+        <v>0.8040892267097456</v>
       </c>
       <c r="J103">
-        <v>1812.167938636042</v>
+        <v>2169.674271456241</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3738,19 +3738,19 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>0.161</v>
+        <v>0.138</v>
       </c>
       <c r="G104">
         <v>4</v>
       </c>
       <c r="H104">
-        <v>0.3866971823151539</v>
+        <v>0.3801583239876494</v>
       </c>
       <c r="I104">
-        <v>0.8082099069513483</v>
+        <v>0.8039568480360196</v>
       </c>
       <c r="J104">
-        <v>2245.197196758203</v>
+        <v>2168.559640832776</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3770,19 +3770,19 @@
         <v>2</v>
       </c>
       <c r="F105">
-        <v>0.066</v>
+        <v>0.051</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H105">
-        <v>0.4163753348488035</v>
+        <v>0.4037596125917725</v>
       </c>
       <c r="I105">
-        <v>0.7120049710571068</v>
+        <v>0.8020306606118626</v>
       </c>
       <c r="J105">
-        <v>2475.441363028569</v>
+        <v>2857.23484092588</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3802,19 +3802,19 @@
         <v>2</v>
       </c>
       <c r="F106">
-        <v>0.157</v>
+        <v>0.182</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>0.3842680016865635</v>
+        <v>0.411357807125976</v>
       </c>
       <c r="I106">
-        <v>0.808341058677552</v>
+        <v>0.7706711317753294</v>
       </c>
       <c r="J106">
-        <v>2217.288809944824</v>
+        <v>1806.720664250632</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3834,19 +3834,19 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <v>0.135</v>
+        <v>0.187</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>0.3949142031392999</v>
+        <v>0.4115324736568009</v>
       </c>
       <c r="I107">
-        <v>0.8575581692957815</v>
+        <v>0.7763728679514869</v>
       </c>
       <c r="J107">
-        <v>2312.154304023788</v>
+        <v>1837.664278260796</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3866,19 +3866,19 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0.07199999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H108">
-        <v>0.4165220304895976</v>
+        <v>0.4385318886603686</v>
       </c>
       <c r="I108">
-        <v>0.7392257213542863</v>
+        <v>0.7538167509276639</v>
       </c>
       <c r="J108">
-        <v>2508.314568408673</v>
+        <v>2852.671552003554</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3898,19 +3898,19 @@
         <v>2</v>
       </c>
       <c r="F109">
-        <v>0.083</v>
+        <v>0.043</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H109">
-        <v>0.4253481319544045</v>
+        <v>0.402486128726799</v>
       </c>
       <c r="I109">
-        <v>0.6958042429527186</v>
+        <v>0.8118090489532916</v>
       </c>
       <c r="J109">
-        <v>2473.261556675626</v>
+        <v>2885.645754535424</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3930,19 +3930,19 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>0.089</v>
+        <v>0.185</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>0.4344075366483435</v>
+        <v>0.4095501913138502</v>
       </c>
       <c r="I110">
-        <v>0.7465308947411302</v>
+        <v>0.775755001569347</v>
       </c>
       <c r="J110">
-        <v>2801.290732661444</v>
+        <v>1809.439846270118</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3962,19 +3962,19 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>0.112</v>
+        <v>0.17</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H111">
-        <v>0.4373230548232113</v>
+        <v>0.4093031262715736</v>
       </c>
       <c r="I111">
-        <v>0.7553050520018096</v>
+        <v>0.7563880691831758</v>
       </c>
       <c r="J111">
-        <v>2838.970845731644</v>
+        <v>1698.231362229928</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3994,19 +3994,19 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>0.183</v>
+        <v>0.019</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H112">
-        <v>0.411357807125976</v>
+        <v>0.3984961367292879</v>
       </c>
       <c r="I112">
-        <v>0.7706711317753294</v>
+        <v>0.767860642510091</v>
       </c>
       <c r="J112">
-        <v>1806.720664250632</v>
+        <v>3350.153123193261</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4026,19 +4026,19 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <v>0.186</v>
+        <v>0.108</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H113">
-        <v>0.4115324736568009</v>
+        <v>0.4369013850924288</v>
       </c>
       <c r="I113">
-        <v>0.7763728679514869</v>
+        <v>0.7500000370888414</v>
       </c>
       <c r="J113">
-        <v>1837.664278260796</v>
+        <v>2835.790499893385</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4058,19 +4058,19 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>0.047</v>
+        <v>0.12</v>
       </c>
       <c r="G114">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>0.3962752843278287</v>
+        <v>0.4376226651660607</v>
       </c>
       <c r="I114">
-        <v>0.7844490430382672</v>
+        <v>0.7581110766554993</v>
       </c>
       <c r="J114">
-        <v>2438.585341009409</v>
+        <v>2845.801065862183</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4090,19 +4090,19 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <v>0.157</v>
+        <v>0.105</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H115">
-        <v>0.3842680016865635</v>
+        <v>0.4365069877582916</v>
       </c>
       <c r="I115">
-        <v>0.808341058677552</v>
+        <v>0.7509115118798412</v>
       </c>
       <c r="J115">
-        <v>2217.288809944824</v>
+        <v>2829.243316652778</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4122,19 +4122,19 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0.146</v>
+        <v>0.036</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H116">
-        <v>0.3806962146843455</v>
+        <v>0.4181291023292219</v>
       </c>
       <c r="I116">
-        <v>0.8046673003164277</v>
+        <v>0.728901173768937</v>
       </c>
       <c r="J116">
-        <v>2174.882735474672</v>
+        <v>2697.999680546679</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4154,19 +4154,19 @@
         <v>2</v>
       </c>
       <c r="F117">
-        <v>0.019</v>
+        <v>0.107</v>
       </c>
       <c r="G117">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="H117">
-        <v>0.3984961367292879</v>
+        <v>0.4376572961482997</v>
       </c>
       <c r="I117">
-        <v>0.767860642510091</v>
+        <v>0.749901985425913</v>
       </c>
       <c r="J117">
-        <v>3350.153123193261</v>
+        <v>2839.768322737721</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4186,19 +4186,19 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <v>0.169</v>
+        <v>0.114</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H118">
-        <v>0.4105863245688872</v>
+        <v>0.4388478621649757</v>
       </c>
       <c r="I118">
-        <v>0.7569979867160602</v>
+        <v>0.7546077110979426</v>
       </c>
       <c r="J118">
-        <v>1713.382449523874</v>
+        <v>2852.20915405916</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4218,19 +4218,19 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <v>0.188</v>
+        <v>0.127</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H119">
-        <v>0.3804537719542894</v>
+        <v>0.4047776965655331</v>
       </c>
       <c r="I119">
-        <v>0.861750807927307</v>
+        <v>0.8279265636815945</v>
       </c>
       <c r="J119">
-        <v>1812.167938636042</v>
+        <v>2425.186397749332</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4250,19 +4250,19 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <v>0.103</v>
+        <v>0.198</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>0.4378238848915885</v>
+        <v>0.383955091434861</v>
       </c>
       <c r="I120">
-        <v>0.7492729871755885</v>
+        <v>0.8585718519975852</v>
       </c>
       <c r="J120">
-        <v>2839.781864987545</v>
+        <v>1864.47373663099</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4282,19 +4282,19 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <v>0.07099999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="G121">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H121">
-        <v>0.4267600921996007</v>
+        <v>0.3975020702761101</v>
       </c>
       <c r="I121">
-        <v>0.7056495014462734</v>
+        <v>0.8121686094673859</v>
       </c>
       <c r="J121">
-        <v>2547.332694764283</v>
+        <v>3025.270060168139</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4314,19 +4314,19 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <v>0.346</v>
+        <v>0.147</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>0.4604408189430688</v>
+        <v>0.4756110172424223</v>
       </c>
       <c r="I122">
-        <v>0.8436813933843487</v>
+        <v>0.7830241890132809</v>
       </c>
       <c r="J122">
-        <v>2013.125512035795</v>
+        <v>2517.788657072475</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4346,19 +4346,19 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0.04</v>
+        <v>0.135</v>
       </c>
       <c r="G123">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H123">
-        <v>0.4179848194095918</v>
+        <v>0.4956400890784587</v>
       </c>
       <c r="I123">
-        <v>0.7664655831228575</v>
+        <v>0.6995859880575285</v>
       </c>
       <c r="J123">
-        <v>2261.460601043852</v>
+        <v>2647.577819232416</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4378,19 +4378,19 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>0.469098461772444</v>
+        <v>0.4952860637071068</v>
       </c>
       <c r="I124">
-        <v>0.7725720783172803</v>
+        <v>0.7117146016781751</v>
       </c>
       <c r="J124">
-        <v>2638.292956717114</v>
+        <v>2626.685837933817</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4410,19 +4410,19 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>0.304</v>
+        <v>0.274</v>
       </c>
       <c r="G125">
         <v>2</v>
       </c>
       <c r="H125">
-        <v>0.4695416318094343</v>
+        <v>0.483926622059946</v>
       </c>
       <c r="I125">
-        <v>0.8155134876469556</v>
+        <v>0.7555603375262592</v>
       </c>
       <c r="J125">
-        <v>2018.489923256249</v>
+        <v>2055.188753396097</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4442,19 +4442,19 @@
         <v>2</v>
       </c>
       <c r="F126">
-        <v>0.164</v>
+        <v>0.02</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="H126">
-        <v>0.4958234286718625</v>
+        <v>0.405956532521225</v>
       </c>
       <c r="I126">
-        <v>0.7054515926333839</v>
+        <v>0.7653714864931856</v>
       </c>
       <c r="J126">
-        <v>2680.1057358709</v>
+        <v>3478.091559428691</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4474,19 +4474,19 @@
         <v>2</v>
       </c>
       <c r="F127">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="G127">
         <v>5</v>
       </c>
       <c r="H127">
-        <v>0.468886904173246</v>
+        <v>0.4590267236852366</v>
       </c>
       <c r="I127">
-        <v>0.7737642902149279</v>
+        <v>0.7957298875509426</v>
       </c>
       <c r="J127">
-        <v>2637.202901038849</v>
+        <v>2565.97778844429</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4506,19 +4506,19 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>0.036</v>
+        <v>0.266</v>
       </c>
       <c r="G128">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>0.4473599005475695</v>
+        <v>0.4667225255447972</v>
       </c>
       <c r="I128">
-        <v>0.7354749038166656</v>
+        <v>0.861625815829053</v>
       </c>
       <c r="J128">
-        <v>3053.467850390679</v>
+        <v>2269.090828023584</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4538,19 +4538,19 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <v>0.328</v>
+        <v>0.112</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H129">
-        <v>0.4643825767723943</v>
+        <v>0.4500372715835222</v>
       </c>
       <c r="I129">
-        <v>0.8342849006644454</v>
+        <v>0.8078928926470466</v>
       </c>
       <c r="J129">
-        <v>2015.453106100029</v>
+        <v>2665.061155076377</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4570,19 +4570,19 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>0.342</v>
+        <v>0.15</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H130">
-        <v>0.4618508580156675</v>
+        <v>0.4489997047197877</v>
       </c>
       <c r="I130">
-        <v>0.8402422296294327</v>
+        <v>0.8078905370826607</v>
       </c>
       <c r="J130">
-        <v>2014.691969721026</v>
+        <v>2263.123169118649</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4602,19 +4602,19 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>0.243</v>
+        <v>0.044</v>
       </c>
       <c r="G131">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H131">
-        <v>0.5031442013525004</v>
+        <v>0.4601012265092683</v>
       </c>
       <c r="I131">
-        <v>0.7052570233571896</v>
+        <v>0.6859624368456877</v>
       </c>
       <c r="J131">
-        <v>2669.968561581262</v>
+        <v>2557.544439558695</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4634,19 +4634,19 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>0.056</v>
+        <v>0.095</v>
       </c>
       <c r="G132">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H132">
-        <v>0.4561080421722425</v>
+        <v>0.4684667250756194</v>
       </c>
       <c r="I132">
-        <v>0.682041574691396</v>
+        <v>0.6984650831022229</v>
       </c>
       <c r="J132">
-        <v>2739.447656576405</v>
+        <v>2729.032020845308</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4666,19 +4666,19 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <v>0.337</v>
+        <v>0.201</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H133">
-        <v>0.4633940213531988</v>
+        <v>0.4762158569939131</v>
       </c>
       <c r="I133">
-        <v>0.8368478189626098</v>
+        <v>0.7563723334300479</v>
       </c>
       <c r="J133">
-        <v>2015.276208071196</v>
+        <v>2644.336525363376</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4698,19 +4698,19 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <v>0.259</v>
+        <v>0.253</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
       <c r="H134">
-        <v>0.4684874244718921</v>
+        <v>0.460744065007865</v>
       </c>
       <c r="I134">
-        <v>0.7639387092893078</v>
+        <v>0.7643901939755292</v>
       </c>
       <c r="J134">
-        <v>2133.697448396045</v>
+        <v>2089.518900242591</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4730,19 +4730,19 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <v>0.016</v>
+        <v>0.273</v>
       </c>
       <c r="G135">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>0.4183066062453442</v>
+        <v>0.4828750053591945</v>
       </c>
       <c r="I135">
-        <v>0.723981007055029</v>
+        <v>0.7585290745085732</v>
       </c>
       <c r="J135">
-        <v>3338.132193668215</v>
+        <v>2057.477631264097</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4762,19 +4762,19 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>0.163</v>
+        <v>0.282</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0.4956181099355772</v>
+        <v>0.4864814755021238</v>
       </c>
       <c r="I136">
-        <v>0.7070094778932143</v>
+        <v>0.7486521132705241</v>
       </c>
       <c r="J136">
-        <v>2680.500557382452</v>
+        <v>2044.288071046357</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4794,19 +4794,19 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>0.104</v>
+        <v>0.042</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H137">
-        <v>0.456608578498699</v>
+        <v>0.4322690462304902</v>
       </c>
       <c r="I137">
-        <v>0.8078560997341961</v>
+        <v>0.7411821688230553</v>
       </c>
       <c r="J137">
-        <v>2687.373157038731</v>
+        <v>2832.35010218536</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4826,19 +4826,19 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <v>0.214</v>
+        <v>0.246</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H138">
-        <v>0.4673409270297897</v>
+        <v>0.4934502953905226</v>
       </c>
       <c r="I138">
-        <v>0.7749201472825344</v>
+        <v>0.7221163122876567</v>
       </c>
       <c r="J138">
-        <v>2628.156022978246</v>
+        <v>2607.545118531566</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4858,19 +4858,19 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <v>0.277</v>
+        <v>0.282</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>0.4665947522247889</v>
+        <v>0.4864814755021238</v>
       </c>
       <c r="I139">
-        <v>0.859686158085544</v>
+        <v>0.7486521132705241</v>
       </c>
       <c r="J139">
-        <v>2231.890562425906</v>
+        <v>2044.288071046357</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4890,19 +4890,19 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <v>0.164</v>
+        <v>0.223</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H140">
-        <v>0.4958234286718625</v>
+        <v>0.4971012556175268</v>
       </c>
       <c r="I140">
-        <v>0.7054515926333839</v>
+        <v>0.7108687990228326</v>
       </c>
       <c r="J140">
-        <v>2680.1057358709</v>
+        <v>2634.956245634673</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -4922,19 +4922,19 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <v>0.298</v>
+        <v>0.119</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <v>0.4792214861915288</v>
+        <v>0.4733311778692958</v>
       </c>
       <c r="I141">
-        <v>0.7708926468802826</v>
+        <v>0.7817824672117272</v>
       </c>
       <c r="J141">
-        <v>2012.570153472441</v>
+        <v>2720.393003252131</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -4954,19 +4954,19 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>0.141</v>
+        <v>0.115</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H142">
-        <v>0.3659743041334598</v>
+        <v>0.3979644827869099</v>
       </c>
       <c r="I142">
-        <v>0.9101020426335961</v>
+        <v>0.7249831286320793</v>
       </c>
       <c r="J142">
-        <v>1384.050465142398</v>
+        <v>1554.63866155352</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -4986,19 +4986,19 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>0.078</v>
+        <v>0.174</v>
       </c>
       <c r="G143">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>0.4354221045766542</v>
+        <v>0.4434551580894257</v>
       </c>
       <c r="I143">
-        <v>0.7537004058338269</v>
+        <v>0.7792932266992397</v>
       </c>
       <c r="J143">
-        <v>1853.586328808054</v>
+        <v>1627.236339936796</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5018,19 +5018,19 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <v>0.031</v>
+        <v>0.064</v>
       </c>
       <c r="G144">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H144">
-        <v>0.4024949487780538</v>
+        <v>0.409230649604886</v>
       </c>
       <c r="I144">
-        <v>0.8136509031555808</v>
+        <v>0.8700937474188014</v>
       </c>
       <c r="J144">
-        <v>2429.933017521397</v>
+        <v>1784.770632599433</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5050,19 +5050,19 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>0.135</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H145">
-        <v>0.3840524704216897</v>
+        <v>0.395620259715048</v>
       </c>
       <c r="I145">
-        <v>0.8599345511052935</v>
+        <v>0.7319723596342964</v>
       </c>
       <c r="J145">
-        <v>1554.809921331</v>
+        <v>1501.511357915463</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5082,19 +5082,19 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>0.17</v>
+        <v>0.083</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H146">
-        <v>0.4327422396475816</v>
+        <v>0.3786742889395123</v>
       </c>
       <c r="I146">
-        <v>0.7974936508421036</v>
+        <v>0.7769639114942486</v>
       </c>
       <c r="J146">
-        <v>1544.435728368773</v>
+        <v>1519.142781338255</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5114,19 +5114,19 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.131</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H147">
-        <v>0.4327422396475816</v>
+        <v>0.3592549273716082</v>
       </c>
       <c r="I147">
-        <v>0.7974936508421036</v>
+        <v>0.8576893860128971</v>
       </c>
       <c r="J147">
-        <v>1544.435728368773</v>
+        <v>1409.29560751083</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5146,19 +5146,19 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>0.153</v>
+        <v>0.056</v>
       </c>
       <c r="G148">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H148">
-        <v>0.3588389589063677</v>
+        <v>0.4334046100976995</v>
       </c>
       <c r="I148">
-        <v>0.9236422681405065</v>
+        <v>0.7194993469625821</v>
       </c>
       <c r="J148">
-        <v>1374.520599125597</v>
+        <v>2037.793656372256</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5178,19 +5178,19 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <v>0.155</v>
+        <v>0.132</v>
       </c>
       <c r="G149">
         <v>4</v>
       </c>
       <c r="H149">
-        <v>0.3643172614583399</v>
+        <v>0.3589714406776431</v>
       </c>
       <c r="I149">
-        <v>0.9154478231626559</v>
+        <v>0.860743906531193</v>
       </c>
       <c r="J149">
-        <v>1389.669987551804</v>
+        <v>1411.943616273255</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5210,19 +5210,19 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>0.017</v>
+        <v>0.191</v>
       </c>
       <c r="G150">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="H150">
-        <v>0.3869798520821705</v>
+        <v>0.4418142330289481</v>
       </c>
       <c r="I150">
-        <v>0.7861574815491191</v>
+        <v>0.7851089470758575</v>
       </c>
       <c r="J150">
-        <v>2403.894665369649</v>
+        <v>1616.796229077698</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5242,19 +5242,19 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <v>0.149</v>
+        <v>0.116</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H151">
-        <v>0.3598226446675033</v>
+        <v>0.4000877255384215</v>
       </c>
       <c r="I151">
-        <v>0.9234016853639861</v>
+        <v>0.7248273786537849</v>
       </c>
       <c r="J151">
-        <v>1377.316025161665</v>
+        <v>1548.451203219894</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5274,19 +5274,19 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <v>0.152</v>
+        <v>0.145</v>
       </c>
       <c r="G152">
         <v>4</v>
       </c>
       <c r="H152">
-        <v>0.3588389589063677</v>
+        <v>0.3616474859356692</v>
       </c>
       <c r="I152">
-        <v>0.9236422681405065</v>
+        <v>0.8926483859722625</v>
       </c>
       <c r="J152">
-        <v>1374.520599125597</v>
+        <v>1399.975106067943</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5306,19 +5306,19 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>0.08500000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="G153">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H153">
-        <v>0.407934388200516</v>
+        <v>0.3893852803115921</v>
       </c>
       <c r="I153">
-        <v>0.7965799369202053</v>
+        <v>0.7297746912084324</v>
       </c>
       <c r="J153">
-        <v>1752.434195144026</v>
+        <v>1501.833033635</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5338,19 +5338,19 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>0.08699999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="G154">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>0.385804725062726</v>
+        <v>0.4329120258287056</v>
       </c>
       <c r="I154">
-        <v>0.7563358775100728</v>
+        <v>0.7938792230291956</v>
       </c>
       <c r="J154">
-        <v>1490.15185795025</v>
+        <v>1555.156138419627</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5370,19 +5370,19 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>0.075</v>
+        <v>0.108</v>
       </c>
       <c r="G155">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H155">
-        <v>0.3978507097542934</v>
+        <v>0.3874879804384768</v>
       </c>
       <c r="I155">
-        <v>0.8003122010493025</v>
+        <v>0.814189274557375</v>
       </c>
       <c r="J155">
-        <v>1680.183676034664</v>
+        <v>1458.669559130352</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5402,19 +5402,19 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <v>0.081</v>
+        <v>0.177</v>
       </c>
       <c r="G156">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H156">
-        <v>0.435424748935001</v>
+        <v>0.4433992984632814</v>
       </c>
       <c r="I156">
-        <v>0.7554569806821261</v>
+        <v>0.7748759329320917</v>
       </c>
       <c r="J156">
-        <v>1855.869306121497</v>
+        <v>1630.51121617464</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5434,19 +5434,19 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>0.116</v>
+        <v>0.062</v>
       </c>
       <c r="G157">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H157">
-        <v>0.4050955999441753</v>
+        <v>0.4255220065390796</v>
       </c>
       <c r="I157">
-        <v>0.7149146404623264</v>
+        <v>0.7790892063198531</v>
       </c>
       <c r="J157">
-        <v>1565.886935988425</v>
+        <v>1877.777673894238</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5466,19 +5466,19 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>0.185</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H158">
-        <v>0.4340758647996532</v>
+        <v>0.4027444215937696</v>
       </c>
       <c r="I158">
-        <v>0.7929929270751138</v>
+        <v>0.7896861661836078</v>
       </c>
       <c r="J158">
-        <v>1551.428089019597</v>
+        <v>1690.575907795716</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5498,19 +5498,19 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>0.15</v>
+        <v>0.051</v>
       </c>
       <c r="G159">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H159">
-        <v>0.3643810932636461</v>
+        <v>0.4367748941138223</v>
       </c>
       <c r="I159">
-        <v>0.9133409187976351</v>
+        <v>0.7217779835715443</v>
       </c>
       <c r="J159">
-        <v>1391.467090144286</v>
+        <v>2218.312819751197</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5530,19 +5530,19 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>0.122</v>
+        <v>0.09</v>
       </c>
       <c r="G160">
         <v>7</v>
       </c>
       <c r="H160">
-        <v>0.4192803609486845</v>
+        <v>0.409503824098164</v>
       </c>
       <c r="I160">
-        <v>0.7456676435955863</v>
+        <v>0.7193011626585167</v>
       </c>
       <c r="J160">
-        <v>1657.751843371793</v>
+        <v>1558.473433481709</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5562,19 +5562,19 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <v>0.115</v>
+        <v>0.027</v>
       </c>
       <c r="G161">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>0.4171760470269134</v>
+        <v>0.4022795212134677</v>
       </c>
       <c r="I161">
-        <v>0.7168434388833892</v>
+        <v>0.8127861198169367</v>
       </c>
       <c r="J161">
-        <v>1592.02076772739</v>
+        <v>2389.451281888653</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5594,19 +5594,19 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <v>0.322</v>
+        <v>0.06</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H162">
-        <v>0.6055902423848654</v>
+        <v>0.533194339062416</v>
       </c>
       <c r="I162">
-        <v>0.4988368157599806</v>
+        <v>0.5415008050621453</v>
       </c>
       <c r="J162">
-        <v>1461.433084427958</v>
+        <v>4461.407005350791</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5626,19 +5626,19 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <v>0.08799999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="G163">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H163">
-        <v>0.5223471972197865</v>
+        <v>0.5340091751731155</v>
       </c>
       <c r="I163">
-        <v>0.595250863309716</v>
+        <v>0.540232707846697</v>
       </c>
       <c r="J163">
-        <v>3556.406986582048</v>
+        <v>4352.343150746871</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5658,19 +5658,19 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>0.168</v>
+        <v>0.335</v>
       </c>
       <c r="G164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>0.557214642486938</v>
+        <v>0.6320073890397184</v>
       </c>
       <c r="I164">
-        <v>0.4674845510720911</v>
+        <v>0.4943076704861322</v>
       </c>
       <c r="J164">
-        <v>2469.324303897786</v>
+        <v>1720.691107335457</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5690,19 +5690,19 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <v>0.097</v>
+        <v>0.165</v>
       </c>
       <c r="G165">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H165">
-        <v>0.5213429828932239</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I165">
-        <v>0.5966179878951519</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J165">
-        <v>3553.697199676041</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5722,19 +5722,19 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <v>0.046</v>
+        <v>0.154</v>
       </c>
       <c r="G166">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H166">
-        <v>0.5134499286197397</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I166">
-        <v>0.6016697920052938</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J166">
-        <v>4109.568949529182</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5754,19 +5754,19 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>0.329</v>
+        <v>0.075</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H167">
-        <v>0.6055902423848654</v>
+        <v>0.5328064810460972</v>
       </c>
       <c r="I167">
-        <v>0.4988368157599806</v>
+        <v>0.5888679594614884</v>
       </c>
       <c r="J167">
-        <v>1461.433084427958</v>
+        <v>4111.757040542292</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5786,19 +5786,19 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <v>0.248</v>
+        <v>0.318</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H168">
-        <v>0.6055902423848654</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I168">
-        <v>0.4988368157599806</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J168">
-        <v>1461.433084427958</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -5818,19 +5818,19 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <v>0.146</v>
+        <v>0.35</v>
       </c>
       <c r="G169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H169">
-        <v>0.5586352798405207</v>
+        <v>0.6320073890397184</v>
       </c>
       <c r="I169">
-        <v>0.4659367757480283</v>
+        <v>0.4943076704861322</v>
       </c>
       <c r="J169">
-        <v>2469.180908868008</v>
+        <v>1720.691107335457</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -5850,19 +5850,19 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <v>0.014</v>
+        <v>0.31</v>
       </c>
       <c r="G170">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="H170">
-        <v>0.4567236684700268</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I170">
-        <v>0.7064210098147927</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J170">
-        <v>6977.608873192687</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -5882,19 +5882,19 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <v>0.283</v>
+        <v>0.078</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H171">
-        <v>0.6055902423848654</v>
+        <v>0.5323696548648258</v>
       </c>
       <c r="I171">
-        <v>0.4988368157599806</v>
+        <v>0.5897177530859288</v>
       </c>
       <c r="J171">
-        <v>1461.433084427958</v>
+        <v>4124.837084832301</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -5914,19 +5914,19 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>0.159</v>
+        <v>0.223</v>
       </c>
       <c r="G172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H172">
-        <v>0.5543139044818742</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I172">
-        <v>0.4710977021747471</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J172">
-        <v>2461.502226799822</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -5946,19 +5946,19 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>0.323</v>
+        <v>0.073</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H173">
-        <v>0.6055902423848654</v>
+        <v>0.5328759677106402</v>
       </c>
       <c r="I173">
-        <v>0.4988368157599806</v>
+        <v>0.5886584245573835</v>
       </c>
       <c r="J173">
-        <v>1461.433084427958</v>
+        <v>4113.684738464236</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -5978,19 +5978,19 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <v>0.044</v>
+        <v>0.315</v>
       </c>
       <c r="G174">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H174">
-        <v>0.4942548006972991</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I174">
-        <v>0.6272758471354674</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J174">
-        <v>3966.963194479843</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6010,19 +6010,19 @@
         <v>2</v>
       </c>
       <c r="F175">
-        <v>0.06900000000000001</v>
+        <v>0.013</v>
       </c>
       <c r="G175">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="H175">
-        <v>0.5115696548210636</v>
+        <v>0.4486135837437406</v>
       </c>
       <c r="I175">
-        <v>0.5876502103434776</v>
+        <v>0.74195490360121</v>
       </c>
       <c r="J175">
-        <v>3997.45704583845</v>
+        <v>8346.242294930556</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6042,19 +6042,19 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <v>0.289</v>
+        <v>0.191</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H176">
-        <v>0.6055902423848654</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I176">
-        <v>0.4988368157599806</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J176">
-        <v>1461.433084427958</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6074,19 +6074,19 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>0.267</v>
+        <v>0.077</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H177">
-        <v>0.6055902423848654</v>
+        <v>0.5327202200779775</v>
       </c>
       <c r="I177">
-        <v>0.4988368157599806</v>
+        <v>0.5890237078135374</v>
       </c>
       <c r="J177">
-        <v>1461.433084427958</v>
+        <v>4111.693577196974</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6106,19 +6106,19 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <v>0.023</v>
+        <v>0.119</v>
       </c>
       <c r="G178">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H178">
-        <v>0.4517290787627507</v>
+        <v>0.5611453480946921</v>
       </c>
       <c r="I178">
-        <v>0.725654425958026</v>
+        <v>0.464001709509395</v>
       </c>
       <c r="J178">
-        <v>6506.712012064081</v>
+        <v>2872.983735016878</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6138,19 +6138,19 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>0.103</v>
+        <v>0.193</v>
       </c>
       <c r="G179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H179">
-        <v>0.5204340908064635</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I179">
-        <v>0.6006499459888552</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J179">
-        <v>3559.594129771775</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6170,19 +6170,19 @@
         <v>2</v>
       </c>
       <c r="F180">
-        <v>0.097</v>
+        <v>0.296</v>
       </c>
       <c r="G180">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H180">
-        <v>0.5213429828932239</v>
+        <v>0.5817547433894317</v>
       </c>
       <c r="I180">
-        <v>0.5966179878951519</v>
+        <v>0.3377849501647592</v>
       </c>
       <c r="J180">
-        <v>3553.697199676041</v>
+        <v>1332.048246252356</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6202,19 +6202,19 @@
         <v>2</v>
       </c>
       <c r="F181">
-        <v>0.323</v>
+        <v>0.038</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H181">
-        <v>0.6055902423848654</v>
+        <v>0.4637318672856267</v>
       </c>
       <c r="I181">
-        <v>0.4988368157599806</v>
+        <v>0.6702277218061296</v>
       </c>
       <c r="J181">
-        <v>1461.433084427958</v>
+        <v>5023.499203104828</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6234,19 +6234,19 @@
         <v>17</v>
       </c>
       <c r="F182">
-        <v>0.034</v>
+        <v>0.107</v>
       </c>
       <c r="G182">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>0.1166784039195707</v>
+        <v>0.03905687908811507</v>
       </c>
       <c r="I182">
-        <v>0.9581346984776119</v>
+        <v>1.088739692137498</v>
       </c>
       <c r="J182">
-        <v>38.95675690418744</v>
+        <v>27.16649255369924</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6266,19 +6266,19 @@
         <v>17</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>0.078</v>
       </c>
       <c r="G183">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H183">
-        <v>0.2080722966090829</v>
+        <v>0.04644460841677518</v>
       </c>
       <c r="I183">
-        <v>1.076874824104614</v>
+        <v>1.057059834398642</v>
       </c>
       <c r="J183">
-        <v>21.8846666567621</v>
+        <v>32.20134498865597</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6298,19 +6298,19 @@
         <v>17</v>
       </c>
       <c r="F184">
-        <v>0.296</v>
+        <v>0.119</v>
       </c>
       <c r="G184">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H184">
-        <v>0.1805324720287575</v>
+        <v>0.06145370625713713</v>
       </c>
       <c r="I184">
-        <v>0.992705592209535</v>
+        <v>1.078152225291745</v>
       </c>
       <c r="J184">
-        <v>20.43275771077377</v>
+        <v>26.6037009635245</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6330,19 +6330,19 @@
         <v>17</v>
       </c>
       <c r="F185">
-        <v>0.304</v>
+        <v>0.272</v>
       </c>
       <c r="G185">
         <v>23</v>
       </c>
       <c r="H185">
-        <v>0.167945551751367</v>
+        <v>0.2487189337251547</v>
       </c>
       <c r="I185">
-        <v>0.8757379759953569</v>
+        <v>0.9763624189508172</v>
       </c>
       <c r="J185">
-        <v>21.5953498438488</v>
+        <v>20.84908479940865</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6362,19 +6362,19 @@
         <v>17</v>
       </c>
       <c r="F186">
-        <v>0.129</v>
+        <v>0.23</v>
       </c>
       <c r="G186">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H186">
-        <v>0.06064304146077273</v>
+        <v>0.0595088707150568</v>
       </c>
       <c r="I186">
-        <v>1.139614688764889</v>
+        <v>1.133282332786748</v>
       </c>
       <c r="J186">
-        <v>27.46549433711025</v>
+        <v>19.81595388188136</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6394,19 +6394,19 @@
         <v>17</v>
       </c>
       <c r="F187">
-        <v>0.103</v>
+        <v>0.132</v>
       </c>
       <c r="G187">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H187">
-        <v>0.03716091023350766</v>
+        <v>0.06063314634807139</v>
       </c>
       <c r="I187">
-        <v>1.14905647439189</v>
+        <v>1.174404938131905</v>
       </c>
       <c r="J187">
-        <v>30.56771344571249</v>
+        <v>29.2241849994609</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6426,19 +6426,19 @@
         <v>17</v>
       </c>
       <c r="F188">
-        <v>0.018</v>
+        <v>0.108</v>
       </c>
       <c r="G188">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="H188">
-        <v>0.056251312899738</v>
+        <v>0.03661799373605449</v>
       </c>
       <c r="I188">
-        <v>0.8929268434983636</v>
+        <v>1.106205855174532</v>
       </c>
       <c r="J188">
-        <v>35.11329772412022</v>
+        <v>27.13750785034382</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6458,19 +6458,19 @@
         <v>17</v>
       </c>
       <c r="F189">
-        <v>0.073</v>
+        <v>0.276</v>
       </c>
       <c r="G189">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H189">
-        <v>0.04986644358503166</v>
+        <v>0.2485467843430335</v>
       </c>
       <c r="I189">
-        <v>1.042529729640016</v>
+        <v>0.9750561880250359</v>
       </c>
       <c r="J189">
-        <v>34.823421250671</v>
+        <v>20.86365092125987</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6490,19 +6490,19 @@
         <v>17</v>
       </c>
       <c r="F190">
-        <v>0.282</v>
+        <v>0.04</v>
       </c>
       <c r="G190">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H190">
-        <v>0.2700808457028831</v>
+        <v>0.08498682215933852</v>
       </c>
       <c r="I190">
-        <v>0.9260923883428961</v>
+        <v>1.057145381991769</v>
       </c>
       <c r="J190">
-        <v>21.02689529216019</v>
+        <v>39.51751965831337</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6522,19 +6522,19 @@
         <v>17</v>
       </c>
       <c r="F191">
-        <v>0.019</v>
+        <v>0.288</v>
       </c>
       <c r="G191">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="H191">
-        <v>0.056251312899738</v>
+        <v>0.2631144810349585</v>
       </c>
       <c r="I191">
-        <v>0.8929268434983636</v>
+        <v>0.9957535180825126</v>
       </c>
       <c r="J191">
-        <v>35.11329772412022</v>
+        <v>20.97386882588216</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6554,19 +6554,19 @@
         <v>17</v>
       </c>
       <c r="F192">
-        <v>0.123</v>
+        <v>0.134</v>
       </c>
       <c r="G192">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H192">
-        <v>0.06204101731669924</v>
+        <v>0.06182385979667449</v>
       </c>
       <c r="I192">
-        <v>1.106108758481938</v>
+        <v>1.1901551338127</v>
       </c>
       <c r="J192">
-        <v>26.68394397301342</v>
+        <v>29.00384692625957</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6586,19 +6586,19 @@
         <v>17</v>
       </c>
       <c r="F193">
-        <v>0.111</v>
+        <v>0.124</v>
       </c>
       <c r="G193">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>0.03345605512981999</v>
+        <v>0.06113889134644185</v>
       </c>
       <c r="I193">
-        <v>1.090244477827739</v>
+        <v>1.114065179570548</v>
       </c>
       <c r="J193">
-        <v>25.94297493757245</v>
+        <v>26.56969161910908</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6618,19 +6618,19 @@
         <v>17</v>
       </c>
       <c r="F194">
-        <v>0.304</v>
+        <v>0.243</v>
       </c>
       <c r="G194">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H194">
-        <v>0.167945551751367</v>
+        <v>0.06227697432375574</v>
       </c>
       <c r="I194">
-        <v>0.8757379759953569</v>
+        <v>0.9477275850440481</v>
       </c>
       <c r="J194">
-        <v>21.5953498438488</v>
+        <v>19.66437936905698</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6650,19 +6650,19 @@
         <v>17</v>
       </c>
       <c r="F195">
-        <v>0.314</v>
+        <v>0.232</v>
       </c>
       <c r="G195">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>0.1665515071096731</v>
+        <v>0.05930281580386648</v>
       </c>
       <c r="I195">
-        <v>0.9517572009382833</v>
+        <v>1.083190607128889</v>
       </c>
       <c r="J195">
-        <v>23.63711131082128</v>
+        <v>19.17933711643975</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -6682,19 +6682,19 @@
         <v>17</v>
       </c>
       <c r="F196">
-        <v>0.152</v>
+        <v>0.114</v>
       </c>
       <c r="G196">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H196">
-        <v>0.06246370250731541</v>
+        <v>0.02938532547087305</v>
       </c>
       <c r="I196">
-        <v>1.287615945718348</v>
+        <v>1.114165356786451</v>
       </c>
       <c r="J196">
-        <v>31.59612423361621</v>
+        <v>26.35540698300917</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6714,19 +6714,19 @@
         <v>17</v>
       </c>
       <c r="F197">
-        <v>0.237</v>
+        <v>0.176</v>
       </c>
       <c r="G197">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H197">
-        <v>0.06265352449208295</v>
+        <v>0.05993138363236484</v>
       </c>
       <c r="I197">
-        <v>0.9780906382880109</v>
+        <v>1.084973014605337</v>
       </c>
       <c r="J197">
-        <v>19.55441718681224</v>
+        <v>30.65205654367341</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6746,19 +6746,19 @@
         <v>17</v>
       </c>
       <c r="F198">
-        <v>0.338</v>
+        <v>0.252</v>
       </c>
       <c r="G198">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H198">
-        <v>0.2080722966090829</v>
+        <v>0.1596451653926645</v>
       </c>
       <c r="I198">
-        <v>1.076874824104614</v>
+        <v>0.9814347358055902</v>
       </c>
       <c r="J198">
-        <v>21.8846666567621</v>
+        <v>19.38829882250563</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6778,19 +6778,19 @@
         <v>17</v>
       </c>
       <c r="F199">
-        <v>0.132</v>
+        <v>0.35</v>
       </c>
       <c r="G199">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H199">
-        <v>0.06063314634807139</v>
+        <v>0.2232140043130719</v>
       </c>
       <c r="I199">
-        <v>1.174404938131905</v>
+        <v>1.068894466919267</v>
       </c>
       <c r="J199">
-        <v>29.2241849994609</v>
+        <v>21.28030626193287</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -6810,19 +6810,19 @@
         <v>17</v>
       </c>
       <c r="F200">
-        <v>0.227</v>
+        <v>0.297</v>
       </c>
       <c r="G200">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H200">
-        <v>0.07503612126143824</v>
+        <v>0.1805324720287575</v>
       </c>
       <c r="I200">
-        <v>1.140863247228485</v>
+        <v>0.992705592209535</v>
       </c>
       <c r="J200">
-        <v>19.15789864014684</v>
+        <v>20.43275771077377</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -6842,19 +6842,19 @@
         <v>17</v>
       </c>
       <c r="F201">
-        <v>0.057</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G201">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H201">
-        <v>0.09046800374030388</v>
+        <v>0.04839663408791935</v>
       </c>
       <c r="I201">
-        <v>1.034054464885241</v>
+        <v>1.087965610808826</v>
       </c>
       <c r="J201">
-        <v>36.79641614228188</v>
+        <v>33.70203820997741</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -6874,19 +6874,19 @@
         <v>17</v>
       </c>
       <c r="F202">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="G202">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H202">
-        <v>0.4960147561458686</v>
+        <v>0.4954327100851728</v>
       </c>
       <c r="I202">
-        <v>0.5280190274665707</v>
+        <v>0.5348977521022775</v>
       </c>
       <c r="J202">
-        <v>125.3521181356758</v>
+        <v>123.8672478367466</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -6906,19 +6906,19 @@
         <v>17</v>
       </c>
       <c r="F203">
-        <v>0.314</v>
+        <v>0.129</v>
       </c>
       <c r="G203">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H203">
-        <v>0.4997554570799069</v>
+        <v>0.4095574131326026</v>
       </c>
       <c r="I203">
-        <v>0.5272024894633216</v>
+        <v>0.6060263186461967</v>
       </c>
       <c r="J203">
-        <v>124.6545654810836</v>
+        <v>120.7008827582133</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -6938,19 +6938,19 @@
         <v>17</v>
       </c>
       <c r="F204">
-        <v>0.191</v>
+        <v>0.348</v>
       </c>
       <c r="G204">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H204">
-        <v>0.4155920704955656</v>
+        <v>0.5070021840255258</v>
       </c>
       <c r="I204">
-        <v>0.588392580781084</v>
+        <v>0.5492721708864594</v>
       </c>
       <c r="J204">
-        <v>121.4712828015789</v>
+        <v>125.9661235856545</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -6970,19 +6970,19 @@
         <v>17</v>
       </c>
       <c r="F205">
-        <v>0.016</v>
+        <v>0.276</v>
       </c>
       <c r="G205">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="H205">
-        <v>0.2921367824892049</v>
+        <v>0.4866718210821004</v>
       </c>
       <c r="I205">
-        <v>0.6079899295792128</v>
+        <v>0.5375928209345601</v>
       </c>
       <c r="J205">
-        <v>109.0102711206636</v>
+        <v>122.0041378218548</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7002,19 +7002,19 @@
         <v>17</v>
       </c>
       <c r="F206">
-        <v>0.168</v>
+        <v>0.049</v>
       </c>
       <c r="G206">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="H206">
-        <v>0.4156655292075204</v>
+        <v>0.3951137937803351</v>
       </c>
       <c r="I206">
-        <v>0.5912796958901464</v>
+        <v>0.5876751520156489</v>
       </c>
       <c r="J206">
-        <v>119.3047890853004</v>
+        <v>124.5294049827945</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7034,19 +7034,19 @@
         <v>17</v>
       </c>
       <c r="F207">
-        <v>0.028</v>
+        <v>0.234</v>
       </c>
       <c r="G207">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="H207">
-        <v>0.3514107287922954</v>
+        <v>0.4140530792413702</v>
       </c>
       <c r="I207">
-        <v>0.5401143042893417</v>
+        <v>0.5462252875078399</v>
       </c>
       <c r="J207">
-        <v>120.4955052537186</v>
+        <v>121.865042802909</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7066,19 +7066,19 @@
         <v>17</v>
       </c>
       <c r="F208">
-        <v>0.092</v>
+        <v>0.287</v>
       </c>
       <c r="G208">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H208">
-        <v>0.406371386490788</v>
+        <v>0.4954327100851728</v>
       </c>
       <c r="I208">
-        <v>0.5471587888939505</v>
+        <v>0.5348977521022775</v>
       </c>
       <c r="J208">
-        <v>122.0376126277483</v>
+        <v>123.8672478367466</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7098,19 +7098,19 @@
         <v>17</v>
       </c>
       <c r="F209">
-        <v>0.343</v>
+        <v>0.129</v>
       </c>
       <c r="G209">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H209">
-        <v>0.5070021840255258</v>
+        <v>0.4095574131326026</v>
       </c>
       <c r="I209">
-        <v>0.5492721708864594</v>
+        <v>0.6060263186461967</v>
       </c>
       <c r="J209">
-        <v>125.9661235856545</v>
+        <v>120.7008827582133</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7130,19 +7130,19 @@
         <v>17</v>
       </c>
       <c r="F210">
-        <v>0.016</v>
+        <v>0.292</v>
       </c>
       <c r="G210">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="H210">
-        <v>0.2921367824892049</v>
+        <v>0.4960147561458686</v>
       </c>
       <c r="I210">
-        <v>0.6079899295792128</v>
+        <v>0.5280190274665707</v>
       </c>
       <c r="J210">
-        <v>109.0102711206636</v>
+        <v>125.3521181356758</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7162,19 +7162,19 @@
         <v>17</v>
       </c>
       <c r="F211">
-        <v>0.145</v>
+        <v>0.237</v>
       </c>
       <c r="G211">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H211">
-        <v>0.407571970510715</v>
+        <v>0.4140530792413702</v>
       </c>
       <c r="I211">
-        <v>0.6106879090542536</v>
+        <v>0.5462252875078399</v>
       </c>
       <c r="J211">
-        <v>123.1073556200627</v>
+        <v>121.865042802909</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7194,7 +7194,7 @@
         <v>17</v>
       </c>
       <c r="F212">
-        <v>0.134</v>
+        <v>0.137</v>
       </c>
       <c r="G212">
         <v>84</v>
@@ -7226,19 +7226,19 @@
         <v>17</v>
       </c>
       <c r="F213">
-        <v>0.126</v>
+        <v>0.057</v>
       </c>
       <c r="G213">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H213">
-        <v>0.4095574131326026</v>
+        <v>0.4033663583061741</v>
       </c>
       <c r="I213">
-        <v>0.6060263186461967</v>
+        <v>0.538901465213831</v>
       </c>
       <c r="J213">
-        <v>120.7008827582133</v>
+        <v>126.8926737879827</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7258,19 +7258,19 @@
         <v>17</v>
       </c>
       <c r="F214">
-        <v>0.285</v>
+        <v>0.297</v>
       </c>
       <c r="G214">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H214">
-        <v>0.4957170963041621</v>
+        <v>0.4960147561458686</v>
       </c>
       <c r="I214">
-        <v>0.5448619223986689</v>
+        <v>0.5280190274665707</v>
       </c>
       <c r="J214">
-        <v>123.9031534079999</v>
+        <v>125.3521181356758</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7290,19 +7290,19 @@
         <v>17</v>
       </c>
       <c r="F215">
-        <v>0.326</v>
+        <v>0.107</v>
       </c>
       <c r="G215">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H215">
-        <v>0.4997554570799069</v>
+        <v>0.4098527770304544</v>
       </c>
       <c r="I215">
-        <v>0.5272024894633216</v>
+        <v>0.6181866004766878</v>
       </c>
       <c r="J215">
-        <v>124.6545654810836</v>
+        <v>120.9206091459244</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7322,19 +7322,19 @@
         <v>17</v>
       </c>
       <c r="F216">
-        <v>0.051</v>
+        <v>0.077</v>
       </c>
       <c r="G216">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H216">
-        <v>0.3993488834373844</v>
+        <v>0.4227361435658404</v>
       </c>
       <c r="I216">
-        <v>0.5713153664019077</v>
+        <v>0.5505538940431232</v>
       </c>
       <c r="J216">
-        <v>125.6332258629412</v>
+        <v>127.9586673089351</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7354,19 +7354,19 @@
         <v>17</v>
       </c>
       <c r="F217">
-        <v>0.022</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G217">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="H217">
-        <v>0.3140939356633921</v>
+        <v>0.4145449995093923</v>
       </c>
       <c r="I217">
-        <v>0.5864304452987051</v>
+        <v>0.5024653723101221</v>
       </c>
       <c r="J217">
-        <v>117.6925030041735</v>
+        <v>129.848015899311</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7386,7 +7386,7 @@
         <v>17</v>
       </c>
       <c r="F218">
-        <v>0.223</v>
+        <v>0.225</v>
       </c>
       <c r="G218">
         <v>80</v>
@@ -7418,19 +7418,19 @@
         <v>17</v>
       </c>
       <c r="F219">
-        <v>0.08500000000000001</v>
+        <v>0.212</v>
       </c>
       <c r="G219">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H219">
-        <v>0.4143934893553357</v>
+        <v>0.4155794611035328</v>
       </c>
       <c r="I219">
-        <v>0.6316923266556707</v>
+        <v>0.5124119274484092</v>
       </c>
       <c r="J219">
-        <v>119.1772649124116</v>
+        <v>123.0220681895416</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7450,19 +7450,19 @@
         <v>17</v>
       </c>
       <c r="F220">
-        <v>0.052</v>
+        <v>0.033</v>
       </c>
       <c r="G220">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H220">
-        <v>0.3978198361051529</v>
+        <v>0.3577225964845264</v>
       </c>
       <c r="I220">
-        <v>0.5597504822305944</v>
+        <v>0.5737301523235838</v>
       </c>
       <c r="J220">
-        <v>122.8376394773125</v>
+        <v>120.2350051315448</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7482,19 +7482,19 @@
         <v>17</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="G221">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H221">
-        <v>0.4997554570799069</v>
+        <v>0.4140530792413702</v>
       </c>
       <c r="I221">
-        <v>0.5272024894633216</v>
+        <v>0.5462252875078399</v>
       </c>
       <c r="J221">
-        <v>124.6545654810836</v>
+        <v>121.865042802909</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7514,19 +7514,19 @@
         <v>17</v>
       </c>
       <c r="F222">
-        <v>0.16</v>
+        <v>0.237</v>
       </c>
       <c r="G222">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H222">
-        <v>0.2477224513227947</v>
+        <v>0.3218865887931577</v>
       </c>
       <c r="I222">
-        <v>1.236186367562373</v>
+        <v>1.132801262518449</v>
       </c>
       <c r="J222">
-        <v>46.29440903227619</v>
+        <v>37.44620369549062</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -7546,19 +7546,19 @@
         <v>17</v>
       </c>
       <c r="F223">
-        <v>0.15</v>
+        <v>0.034</v>
       </c>
       <c r="G223">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H223">
-        <v>0.2477224513227947</v>
+        <v>0.1799658284208896</v>
       </c>
       <c r="I223">
-        <v>1.236186367562373</v>
+        <v>1.32455779337824</v>
       </c>
       <c r="J223">
-        <v>46.29440903227619</v>
+        <v>51.24415385775907</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -7578,7 +7578,7 @@
         <v>17</v>
       </c>
       <c r="F224">
-        <v>0.157</v>
+        <v>0.166</v>
       </c>
       <c r="G224">
         <v>8</v>
@@ -7610,19 +7610,19 @@
         <v>17</v>
       </c>
       <c r="F225">
-        <v>0.323</v>
+        <v>0.284</v>
       </c>
       <c r="G225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H225">
-        <v>0.344296008290169</v>
+        <v>0.3218865887931577</v>
       </c>
       <c r="I225">
-        <v>0.9582065511150872</v>
+        <v>1.132801262518449</v>
       </c>
       <c r="J225">
-        <v>59.13959810974204</v>
+        <v>37.44620369549062</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7642,19 +7642,19 @@
         <v>17</v>
       </c>
       <c r="F226">
-        <v>0.314</v>
+        <v>0.08</v>
       </c>
       <c r="G226">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H226">
-        <v>0.3306240783581189</v>
+        <v>0.161344742472883</v>
       </c>
       <c r="I226">
-        <v>1.159834792353647</v>
+        <v>1.290264654367578</v>
       </c>
       <c r="J226">
-        <v>45.8110804098816</v>
+        <v>35.11492909436693</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7674,19 +7674,19 @@
         <v>17</v>
       </c>
       <c r="F227">
-        <v>0.307</v>
+        <v>0.017</v>
       </c>
       <c r="G227">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H227">
-        <v>0.3306240783581189</v>
+        <v>0.1091680276496853</v>
       </c>
       <c r="I227">
-        <v>1.159834792353647</v>
+        <v>1.749881866784808</v>
       </c>
       <c r="J227">
-        <v>45.8110804098816</v>
+        <v>58.52057617484469</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7706,19 +7706,19 @@
         <v>17</v>
       </c>
       <c r="F228">
-        <v>0.312</v>
+        <v>0.295</v>
       </c>
       <c r="G228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H228">
-        <v>0.3306240783581189</v>
+        <v>0.3218865887931577</v>
       </c>
       <c r="I228">
-        <v>1.159834792353647</v>
+        <v>1.132801262518449</v>
       </c>
       <c r="J228">
-        <v>45.8110804098816</v>
+        <v>37.44620369549062</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7738,19 +7738,19 @@
         <v>17</v>
       </c>
       <c r="F229">
-        <v>0.302</v>
+        <v>0.172</v>
       </c>
       <c r="G229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H229">
-        <v>0.3218865887931577</v>
+        <v>0.2525324479448612</v>
       </c>
       <c r="I229">
-        <v>1.132801262518449</v>
+        <v>1.252479871981718</v>
       </c>
       <c r="J229">
-        <v>37.44620369549062</v>
+        <v>53.49486280939004</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7770,19 +7770,19 @@
         <v>17</v>
       </c>
       <c r="F230">
-        <v>0.348</v>
+        <v>0.255</v>
       </c>
       <c r="G230">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H230">
-        <v>0.344296008290169</v>
+        <v>0.3218865887931577</v>
       </c>
       <c r="I230">
-        <v>0.9582065511150872</v>
+        <v>1.132801262518449</v>
       </c>
       <c r="J230">
-        <v>59.13959810974204</v>
+        <v>37.44620369549062</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -7802,19 +7802,19 @@
         <v>17</v>
       </c>
       <c r="F231">
-        <v>0.319</v>
+        <v>0.267</v>
       </c>
       <c r="G231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H231">
-        <v>0.3306240783581189</v>
+        <v>0.3218865887931577</v>
       </c>
       <c r="I231">
-        <v>1.159834792353647</v>
+        <v>1.132801262518449</v>
       </c>
       <c r="J231">
-        <v>45.8110804098816</v>
+        <v>37.44620369549062</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -7834,19 +7834,19 @@
         <v>17</v>
       </c>
       <c r="F232">
-        <v>0.115</v>
+        <v>0.193</v>
       </c>
       <c r="G232">
         <v>9</v>
       </c>
       <c r="H232">
-        <v>0.2284065277022039</v>
+        <v>0.2481907217961001</v>
       </c>
       <c r="I232">
-        <v>1.215321733022235</v>
+        <v>1.156931483590806</v>
       </c>
       <c r="J232">
-        <v>41.06817948210654</v>
+        <v>40.9497904010945</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -7866,19 +7866,19 @@
         <v>17</v>
       </c>
       <c r="F233">
-        <v>0.102</v>
+        <v>0.314</v>
       </c>
       <c r="G233">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H233">
-        <v>0.1921833016444232</v>
+        <v>0.3306240783581189</v>
       </c>
       <c r="I233">
-        <v>1.320543389834274</v>
+        <v>1.159834792353647</v>
       </c>
       <c r="J233">
-        <v>37.9880971581334</v>
+        <v>45.8110804098816</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -7898,19 +7898,19 @@
         <v>17</v>
       </c>
       <c r="F234">
-        <v>0.08500000000000001</v>
+        <v>0.096</v>
       </c>
       <c r="G234">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H234">
-        <v>0.161344742472883</v>
+        <v>0.1921833016444232</v>
       </c>
       <c r="I234">
-        <v>1.290264654367578</v>
+        <v>1.320543389834274</v>
       </c>
       <c r="J234">
-        <v>35.11492909436693</v>
+        <v>37.9880971581334</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -7930,19 +7930,19 @@
         <v>17</v>
       </c>
       <c r="F235">
-        <v>0.23</v>
+        <v>0.052</v>
       </c>
       <c r="G235">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H235">
-        <v>0.2677089336896702</v>
+        <v>0.149695140705704</v>
       </c>
       <c r="I235">
-        <v>0.9676842830943065</v>
+        <v>1.485281259437868</v>
       </c>
       <c r="J235">
-        <v>35.98304028739744</v>
+        <v>30.5006817067963</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7962,19 +7962,19 @@
         <v>17</v>
       </c>
       <c r="F236">
-        <v>0.341</v>
+        <v>0.091</v>
       </c>
       <c r="G236">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H236">
-        <v>0.344296008290169</v>
+        <v>0.1599184314940891</v>
       </c>
       <c r="I236">
-        <v>0.9582065511150872</v>
+        <v>1.279844078735163</v>
       </c>
       <c r="J236">
-        <v>59.13959810974204</v>
+        <v>35.56226576585445</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -7994,19 +7994,19 @@
         <v>17</v>
       </c>
       <c r="F237">
-        <v>0.173</v>
+        <v>0.034</v>
       </c>
       <c r="G237">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H237">
-        <v>0.2525324479448612</v>
+        <v>0.1799658284208896</v>
       </c>
       <c r="I237">
-        <v>1.252479871981718</v>
+        <v>1.32455779337824</v>
       </c>
       <c r="J237">
-        <v>53.49486280939004</v>
+        <v>51.24415385775907</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8026,19 +8026,19 @@
         <v>17</v>
       </c>
       <c r="F238">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="G238">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H238">
-        <v>0.1757964587678033</v>
+        <v>0.1736768989227333</v>
       </c>
       <c r="I238">
-        <v>1.387674161248931</v>
+        <v>1.35953512928402</v>
       </c>
       <c r="J238">
-        <v>59.13668517779647</v>
+        <v>51.22565460165928</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8058,19 +8058,19 @@
         <v>17</v>
       </c>
       <c r="F239">
-        <v>0.202</v>
+        <v>0.299</v>
       </c>
       <c r="G239">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H239">
-        <v>0.2481907217961001</v>
+        <v>0.3218865887931577</v>
       </c>
       <c r="I239">
-        <v>1.156931483590806</v>
+        <v>1.132801262518449</v>
       </c>
       <c r="J239">
-        <v>40.9497904010945</v>
+        <v>37.44620369549062</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8090,19 +8090,19 @@
         <v>17</v>
       </c>
       <c r="F240">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="G240">
         <v>17</v>
       </c>
       <c r="H240">
-        <v>0.1564864347291148</v>
+        <v>0.126627621050577</v>
       </c>
       <c r="I240">
-        <v>1.526292201485858</v>
+        <v>1.640329999549152</v>
       </c>
       <c r="J240">
-        <v>47.51941617290262</v>
+        <v>48.05457593828212</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8122,19 +8122,19 @@
         <v>17</v>
       </c>
       <c r="F241">
-        <v>0.33</v>
+        <v>0.136</v>
       </c>
       <c r="G241">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H241">
-        <v>0.344296008290169</v>
+        <v>0.2477224513227947</v>
       </c>
       <c r="I241">
-        <v>0.9582065511150872</v>
+        <v>1.236186367562373</v>
       </c>
       <c r="J241">
-        <v>59.13959810974204</v>
+        <v>46.29440903227619</v>
       </c>
     </row>
   </sheetData>
